--- a/2_compare pred TRL with manual/compare_pred_n_manul.xlsx
+++ b/2_compare pred TRL with manual/compare_pred_n_manul.xlsx
@@ -9634,7 +9634,7 @@
         <v>3.0</v>
       </c>
       <c r="C35" t="n">
-        <v>5.222758</v>
+        <v>4.930115</v>
       </c>
     </row>
     <row r="36">
@@ -9645,7 +9645,7 @@
         <v>4.0</v>
       </c>
       <c r="C36" t="n">
-        <v>19.362613</v>
+        <v>23.286842999999998</v>
       </c>
     </row>
     <row r="37">
@@ -9656,7 +9656,7 @@
         <v>5.0</v>
       </c>
       <c r="C37" t="n">
-        <v>22.906449000000002</v>
+        <v>22.015146</v>
       </c>
     </row>
     <row r="38">
@@ -9667,7 +9667,7 @@
         <v>6.0</v>
       </c>
       <c r="C38" t="n">
-        <v>8.163841</v>
+        <v>7.877582</v>
       </c>
     </row>
     <row r="39">
@@ -9689,7 +9689,7 @@
         <v>8.0</v>
       </c>
       <c r="C40" t="n">
-        <v>11.123617</v>
+        <v>10.664642</v>
       </c>
     </row>
     <row r="41">
@@ -9711,7 +9711,7 @@
         <v>10.0</v>
       </c>
       <c r="C42" t="n">
-        <v>13.006655</v>
+        <v>14.458165000000001</v>
       </c>
     </row>
     <row r="43">
@@ -9733,7 +9733,7 @@
         <v>12.0</v>
       </c>
       <c r="C44" t="n">
-        <v>8.240795</v>
+        <v>11.46687</v>
       </c>
     </row>
     <row r="45">
@@ -9964,7 +9964,7 @@
         <v>2.0</v>
       </c>
       <c r="C65" t="n">
-        <v>10.135735</v>
+        <v>9.892558</v>
       </c>
     </row>
     <row r="66">
@@ -9975,7 +9975,7 @@
         <v>3.0</v>
       </c>
       <c r="C66" t="n">
-        <v>26.389125999999997</v>
+        <v>26.415948999999998</v>
       </c>
     </row>
     <row r="67">
@@ -9986,7 +9986,7 @@
         <v>4.0</v>
       </c>
       <c r="C67" t="n">
-        <v>24.176308</v>
+        <v>26.816726</v>
       </c>
     </row>
     <row r="68">
@@ -9997,7 +9997,7 @@
         <v>5.0</v>
       </c>
       <c r="C68" t="n">
-        <v>20.067179</v>
+        <v>19.244453</v>
       </c>
     </row>
     <row r="69">
@@ -10008,7 +10008,7 @@
         <v>6.0</v>
       </c>
       <c r="C69" t="n">
-        <v>10.844517</v>
+        <v>13.638755</v>
       </c>
     </row>
     <row r="70">
@@ -10074,7 +10074,7 @@
         <v>12.0</v>
       </c>
       <c r="C75" t="n">
-        <v>12.122324</v>
+        <v>15.868015</v>
       </c>
     </row>
     <row r="76">
@@ -10107,7 +10107,7 @@
         <v>15.0</v>
       </c>
       <c r="C78" t="n">
-        <v>5.301577</v>
+        <v>4.887845</v>
       </c>
     </row>
     <row r="79">
@@ -10305,7 +10305,7 @@
         <v>2.0</v>
       </c>
       <c r="C96" t="n">
-        <v>5.708752</v>
+        <v>5.646701</v>
       </c>
     </row>
     <row r="97">
@@ -10316,7 +10316,7 @@
         <v>3.0</v>
       </c>
       <c r="C97" t="n">
-        <v>24.752304</v>
+        <v>23.287366</v>
       </c>
     </row>
     <row r="98">
@@ -10327,7 +10327,7 @@
         <v>4.0</v>
       </c>
       <c r="C98" t="n">
-        <v>24.175333</v>
+        <v>26.682852</v>
       </c>
     </row>
     <row r="99">
@@ -10338,7 +10338,7 @@
         <v>5.0</v>
       </c>
       <c r="C99" t="n">
-        <v>23.074879000000003</v>
+        <v>22.381703</v>
       </c>
     </row>
     <row r="100">
@@ -10349,7 +10349,7 @@
         <v>6.0</v>
       </c>
       <c r="C100" t="n">
-        <v>15.90805</v>
+        <v>15.47519</v>
       </c>
     </row>
     <row r="101">
@@ -10360,7 +10360,7 @@
         <v>7.0</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0</v>
+        <v>3.711429</v>
       </c>
     </row>
     <row r="102">
@@ -10371,7 +10371,7 @@
         <v>8.0</v>
       </c>
       <c r="C102" t="n">
-        <v>10.797839</v>
+        <v>10.388683</v>
       </c>
     </row>
     <row r="103">
@@ -10393,7 +10393,7 @@
         <v>10.0</v>
       </c>
       <c r="C104" t="n">
-        <v>13.617409</v>
+        <v>15.12045</v>
       </c>
     </row>
     <row r="105">
@@ -10426,7 +10426,7 @@
         <v>13.0</v>
       </c>
       <c r="C107" t="n">
-        <v>18.78787</v>
+        <v>18.389941</v>
       </c>
     </row>
     <row r="108">
@@ -10448,7 +10448,7 @@
         <v>15.0</v>
       </c>
       <c r="C109" t="n">
-        <v>10.592691</v>
+        <v>10.299196</v>
       </c>
     </row>
     <row r="110">
@@ -10668,7 +10668,7 @@
         <v>4.0</v>
       </c>
       <c r="C129" t="n">
-        <v>24.696637000000003</v>
+        <v>27.318406000000003</v>
       </c>
     </row>
     <row r="130">
@@ -10679,7 +10679,7 @@
         <v>5.0</v>
       </c>
       <c r="C130" t="n">
-        <v>18.727987</v>
+        <v>18.546138</v>
       </c>
     </row>
     <row r="131">
@@ -10690,7 +10690,7 @@
         <v>6.0</v>
       </c>
       <c r="C131" t="n">
-        <v>12.027741</v>
+        <v>14.304135</v>
       </c>
     </row>
     <row r="132">
@@ -10712,7 +10712,7 @@
         <v>8.0</v>
       </c>
       <c r="C133" t="n">
-        <v>15.133755</v>
+        <v>14.885739</v>
       </c>
     </row>
     <row r="134">
@@ -10723,7 +10723,7 @@
         <v>9.0</v>
       </c>
       <c r="C134" t="n">
-        <v>5.519829</v>
+        <v>5.257587</v>
       </c>
     </row>
     <row r="135">
@@ -10734,7 +10734,7 @@
         <v>10.0</v>
       </c>
       <c r="C135" t="n">
-        <v>14.420492</v>
+        <v>13.727114</v>
       </c>
     </row>
     <row r="136">
@@ -10756,7 +10756,7 @@
         <v>12.0</v>
       </c>
       <c r="C137" t="n">
-        <v>12.088516</v>
+        <v>15.123739</v>
       </c>
     </row>
     <row r="138">
@@ -10767,7 +10767,7 @@
         <v>13.0</v>
       </c>
       <c r="C138" t="n">
-        <v>19.059771</v>
+        <v>18.266647</v>
       </c>
     </row>
     <row r="139">
@@ -10778,7 +10778,7 @@
         <v>14.0</v>
       </c>
       <c r="C139" t="n">
-        <v>9.85117</v>
+        <v>9.535124</v>
       </c>
     </row>
     <row r="140">
@@ -10789,7 +10789,7 @@
         <v>15.0</v>
       </c>
       <c r="C140" t="n">
-        <v>5.985314</v>
+        <v>5.202992</v>
       </c>
     </row>
     <row r="141">
@@ -10987,7 +10987,7 @@
         <v>2.0</v>
       </c>
       <c r="C158" t="n">
-        <v>11.018584</v>
+        <v>10.810327000000001</v>
       </c>
     </row>
     <row r="159">
@@ -10998,7 +10998,7 @@
         <v>3.0</v>
       </c>
       <c r="C159" t="n">
-        <v>30.357166</v>
+        <v>29.820687</v>
       </c>
     </row>
     <row r="160">
@@ -11009,7 +11009,7 @@
         <v>4.0</v>
       </c>
       <c r="C160" t="n">
-        <v>23.797138</v>
+        <v>24.970882</v>
       </c>
     </row>
     <row r="161">
@@ -11031,7 +11031,7 @@
         <v>6.0</v>
       </c>
       <c r="C162" t="n">
-        <v>15.88586</v>
+        <v>15.484981</v>
       </c>
     </row>
     <row r="163">
@@ -11042,7 +11042,7 @@
         <v>7.0</v>
       </c>
       <c r="C163" t="n">
-        <v>0.0</v>
+        <v>2.34049</v>
       </c>
     </row>
     <row r="164">
@@ -11064,7 +11064,7 @@
         <v>9.0</v>
       </c>
       <c r="C165" t="n">
-        <v>8.797735</v>
+        <v>8.659917</v>
       </c>
     </row>
     <row r="166">
@@ -11075,7 +11075,7 @@
         <v>10.0</v>
       </c>
       <c r="C166" t="n">
-        <v>13.75925</v>
+        <v>15.282112</v>
       </c>
     </row>
     <row r="167">
@@ -11097,7 +11097,7 @@
         <v>12.0</v>
       </c>
       <c r="C168" t="n">
-        <v>8.751249</v>
+        <v>11.352036</v>
       </c>
     </row>
     <row r="169">
@@ -11108,7 +11108,7 @@
         <v>13.0</v>
       </c>
       <c r="C169" t="n">
-        <v>26.244446</v>
+        <v>18.285144</v>
       </c>
     </row>
     <row r="170">
@@ -11119,7 +11119,7 @@
         <v>14.0</v>
       </c>
       <c r="C170" t="n">
-        <v>3.21114</v>
+        <v>9.954439</v>
       </c>
     </row>
     <row r="171">
@@ -11339,7 +11339,7 @@
         <v>3.0</v>
       </c>
       <c r="C190" t="n">
-        <v>30.639259</v>
+        <v>29.04553</v>
       </c>
     </row>
     <row r="191">
@@ -11350,7 +11350,7 @@
         <v>4.0</v>
       </c>
       <c r="C191" t="n">
-        <v>20.578268</v>
+        <v>20.671699</v>
       </c>
     </row>
     <row r="192">
@@ -11372,7 +11372,7 @@
         <v>6.0</v>
       </c>
       <c r="C193" t="n">
-        <v>16.249378</v>
+        <v>17.912217</v>
       </c>
     </row>
     <row r="194">
@@ -11394,7 +11394,7 @@
         <v>8.0</v>
       </c>
       <c r="C195" t="n">
-        <v>14.972662</v>
+        <v>14.712181</v>
       </c>
     </row>
     <row r="196">
@@ -11405,7 +11405,7 @@
         <v>9.0</v>
       </c>
       <c r="C196" t="n">
-        <v>3.426159</v>
+        <v>4.934817000000001</v>
       </c>
     </row>
     <row r="197">
@@ -11438,7 +11438,7 @@
         <v>12.0</v>
       </c>
       <c r="C199" t="n">
-        <v>12.464131</v>
+        <v>15.365848</v>
       </c>
     </row>
     <row r="200">
@@ -11449,7 +11449,7 @@
         <v>13.0</v>
       </c>
       <c r="C200" t="n">
-        <v>18.961586</v>
+        <v>18.390999</v>
       </c>
     </row>
     <row r="201">
@@ -11460,7 +11460,7 @@
         <v>14.0</v>
       </c>
       <c r="C201" t="n">
-        <v>20.435797</v>
+        <v>19.245912</v>
       </c>
     </row>
     <row r="202">
@@ -11471,7 +11471,7 @@
         <v>15.0</v>
       </c>
       <c r="C202" t="n">
-        <v>26.496265</v>
+        <v>25.274605</v>
       </c>
     </row>
     <row r="203">
@@ -11482,7 +11482,7 @@
         <v>16.0</v>
       </c>
       <c r="C203" t="n">
-        <v>18.762865</v>
+        <v>18.458232</v>
       </c>
     </row>
     <row r="204">
@@ -11493,7 +11493,7 @@
         <v>17.0</v>
       </c>
       <c r="C204" t="n">
-        <v>13.343777</v>
+        <v>13.265469</v>
       </c>
     </row>
     <row r="205">
@@ -11669,7 +11669,7 @@
         <v>2.0</v>
       </c>
       <c r="C220" t="n">
-        <v>11.142936</v>
+        <v>10.705217</v>
       </c>
     </row>
     <row r="221">
@@ -11680,7 +11680,7 @@
         <v>3.0</v>
       </c>
       <c r="C221" t="n">
-        <v>32.482703</v>
+        <v>30.058595</v>
       </c>
     </row>
     <row r="222">
@@ -11691,7 +11691,7 @@
         <v>4.0</v>
       </c>
       <c r="C222" t="n">
-        <v>24.621268999999998</v>
+        <v>29.043746</v>
       </c>
     </row>
     <row r="223">
@@ -11702,7 +11702,7 @@
         <v>5.0</v>
       </c>
       <c r="C223" t="n">
-        <v>19.461943</v>
+        <v>19.173935</v>
       </c>
     </row>
     <row r="224">
@@ -11713,7 +11713,7 @@
         <v>6.0</v>
       </c>
       <c r="C224" t="n">
-        <v>39.058875</v>
+        <v>46.797862</v>
       </c>
     </row>
     <row r="225">
@@ -11724,7 +11724,7 @@
         <v>7.0</v>
       </c>
       <c r="C225" t="n">
-        <v>57.114593</v>
+        <v>61.212547</v>
       </c>
     </row>
     <row r="226">
@@ -11735,7 +11735,7 @@
         <v>8.0</v>
       </c>
       <c r="C226" t="n">
-        <v>52.598827</v>
+        <v>54.454709</v>
       </c>
     </row>
     <row r="227">
@@ -11746,7 +11746,7 @@
         <v>9.0</v>
       </c>
       <c r="C227" t="n">
-        <v>19.711049</v>
+        <v>19.445505</v>
       </c>
     </row>
     <row r="228">
@@ -11757,7 +11757,7 @@
         <v>10.0</v>
       </c>
       <c r="C228" t="n">
-        <v>27.575537</v>
+        <v>30.558439</v>
       </c>
     </row>
     <row r="229">
@@ -11779,7 +11779,7 @@
         <v>12.0</v>
       </c>
       <c r="C230" t="n">
-        <v>21.650843</v>
+        <v>25.203572</v>
       </c>
     </row>
     <row r="231">
@@ -11790,7 +11790,7 @@
         <v>13.0</v>
       </c>
       <c r="C231" t="n">
-        <v>28.074403</v>
+        <v>30.075628</v>
       </c>
     </row>
     <row r="232">
@@ -11801,7 +11801,7 @@
         <v>14.0</v>
       </c>
       <c r="C232" t="n">
-        <v>53.854191</v>
+        <v>54.682142</v>
       </c>
     </row>
     <row r="233">
@@ -11812,7 +11812,7 @@
         <v>15.0</v>
       </c>
       <c r="C233" t="n">
-        <v>76.182433</v>
+        <v>75.480894</v>
       </c>
     </row>
     <row r="234">
@@ -11823,7 +11823,7 @@
         <v>16.0</v>
       </c>
       <c r="C234" t="n">
-        <v>66.839489</v>
+        <v>66.337965</v>
       </c>
     </row>
     <row r="235">
@@ -11834,7 +11834,7 @@
         <v>17.0</v>
       </c>
       <c r="C235" t="n">
-        <v>54.380947</v>
+        <v>54.579254</v>
       </c>
     </row>
     <row r="236">
@@ -11845,7 +11845,7 @@
         <v>18.0</v>
       </c>
       <c r="C236" t="n">
-        <v>32.505712</v>
+        <v>32.280316</v>
       </c>
     </row>
     <row r="237">
@@ -12021,7 +12021,7 @@
         <v>3.0</v>
       </c>
       <c r="C252" t="n">
-        <v>30.005212</v>
+        <v>29.361508999999998</v>
       </c>
     </row>
     <row r="253">
@@ -12032,7 +12032,7 @@
         <v>4.0</v>
       </c>
       <c r="C253" t="n">
-        <v>20.688633</v>
+        <v>22.740582</v>
       </c>
     </row>
     <row r="254">
@@ -12043,7 +12043,7 @@
         <v>5.0</v>
       </c>
       <c r="C254" t="n">
-        <v>19.656576</v>
+        <v>21.436293</v>
       </c>
     </row>
     <row r="255">
@@ -12054,7 +12054,7 @@
         <v>6.0</v>
       </c>
       <c r="C255" t="n">
-        <v>41.517036</v>
+        <v>47.825247</v>
       </c>
     </row>
     <row r="256">
@@ -12065,7 +12065,7 @@
         <v>7.0</v>
       </c>
       <c r="C256" t="n">
-        <v>62.900033</v>
+        <v>63.260231</v>
       </c>
     </row>
     <row r="257">
@@ -12076,7 +12076,7 @@
         <v>8.0</v>
       </c>
       <c r="C257" t="n">
-        <v>58.967436</v>
+        <v>58.431754</v>
       </c>
     </row>
     <row r="258">
@@ -12087,7 +12087,7 @@
         <v>9.0</v>
       </c>
       <c r="C258" t="n">
-        <v>19.683792</v>
+        <v>19.044066</v>
       </c>
     </row>
     <row r="259">
@@ -12098,7 +12098,7 @@
         <v>10.0</v>
       </c>
       <c r="C259" t="n">
-        <v>35.285673</v>
+        <v>34.443867</v>
       </c>
     </row>
     <row r="260">
@@ -12109,7 +12109,7 @@
         <v>11.0</v>
       </c>
       <c r="C260" t="n">
-        <v>15.291713999999999</v>
+        <v>15.298127999999998</v>
       </c>
     </row>
     <row r="261">
@@ -12120,7 +12120,7 @@
         <v>12.0</v>
       </c>
       <c r="C261" t="n">
-        <v>21.411573</v>
+        <v>25.397976999999997</v>
       </c>
     </row>
     <row r="262">
@@ -12131,7 +12131,7 @@
         <v>13.0</v>
       </c>
       <c r="C262" t="n">
-        <v>33.414564</v>
+        <v>32.768873</v>
       </c>
     </row>
     <row r="263">
@@ -12142,7 +12142,7 @@
         <v>14.0</v>
       </c>
       <c r="C263" t="n">
-        <v>62.17532</v>
+        <v>61.105408</v>
       </c>
     </row>
     <row r="264">
@@ -12153,7 +12153,7 @@
         <v>15.0</v>
       </c>
       <c r="C264" t="n">
-        <v>81.198106</v>
+        <v>81.085728</v>
       </c>
     </row>
     <row r="265">
@@ -12164,7 +12164,7 @@
         <v>16.0</v>
       </c>
       <c r="C265" t="n">
-        <v>77.772241</v>
+        <v>76.79341</v>
       </c>
     </row>
     <row r="266">
@@ -12175,7 +12175,7 @@
         <v>17.0</v>
       </c>
       <c r="C266" t="n">
-        <v>48.595967</v>
+        <v>50.167678</v>
       </c>
     </row>
     <row r="267">
@@ -12186,7 +12186,7 @@
         <v>18.0</v>
       </c>
       <c r="C267" t="n">
-        <v>40.964936</v>
+        <v>39.222971</v>
       </c>
     </row>
     <row r="268">
@@ -12208,7 +12208,7 @@
         <v>20.0</v>
       </c>
       <c r="C269" t="n">
-        <v>8.013889</v>
+        <v>7.576103</v>
       </c>
     </row>
     <row r="270">
@@ -12252,7 +12252,7 @@
         <v>25.0</v>
       </c>
       <c r="C273" t="n">
-        <v>18.86639</v>
+        <v>18.103307</v>
       </c>
     </row>
     <row r="274">
@@ -12274,7 +12274,7 @@
         <v>27.0</v>
       </c>
       <c r="C275" t="n">
-        <v>19.282763</v>
+        <v>18.349907</v>
       </c>
     </row>
     <row r="276">
@@ -12285,7 +12285,7 @@
         <v>28.0</v>
       </c>
       <c r="C276" t="n">
-        <v>8.72581</v>
+        <v>8.449587</v>
       </c>
     </row>
     <row r="277">
@@ -12351,7 +12351,7 @@
         <v>2.0</v>
       </c>
       <c r="C282" t="n">
-        <v>39.01244</v>
+        <v>36.831524</v>
       </c>
     </row>
     <row r="283">
@@ -12362,7 +12362,7 @@
         <v>3.0</v>
       </c>
       <c r="C283" t="n">
-        <v>42.523312</v>
+        <v>43.022628</v>
       </c>
     </row>
     <row r="284">
@@ -12373,7 +12373,7 @@
         <v>4.0</v>
       </c>
       <c r="C284" t="n">
-        <v>28.834622</v>
+        <v>34.037048</v>
       </c>
     </row>
     <row r="285">
@@ -12384,7 +12384,7 @@
         <v>5.0</v>
       </c>
       <c r="C285" t="n">
-        <v>23.13774</v>
+        <v>25.135673999999998</v>
       </c>
     </row>
     <row r="286">
@@ -12395,7 +12395,7 @@
         <v>6.0</v>
       </c>
       <c r="C286" t="n">
-        <v>39.058875</v>
+        <v>46.641239</v>
       </c>
     </row>
     <row r="287">
@@ -12406,7 +12406,7 @@
         <v>7.0</v>
       </c>
       <c r="C287" t="n">
-        <v>64.544033</v>
+        <v>66.839464</v>
       </c>
     </row>
     <row r="288">
@@ -12417,7 +12417,7 @@
         <v>8.0</v>
       </c>
       <c r="C288" t="n">
-        <v>60.847761</v>
+        <v>61.842262999999996</v>
       </c>
     </row>
     <row r="289">
@@ -12428,7 +12428,7 @@
         <v>9.0</v>
       </c>
       <c r="C289" t="n">
-        <v>30.272759999999998</v>
+        <v>38.521981</v>
       </c>
     </row>
     <row r="290">
@@ -12439,7 +12439,7 @@
         <v>10.0</v>
       </c>
       <c r="C290" t="n">
-        <v>48.049196</v>
+        <v>50.166073000000004</v>
       </c>
     </row>
     <row r="291">
@@ -12450,7 +12450,7 @@
         <v>11.0</v>
       </c>
       <c r="C291" t="n">
-        <v>27.637886</v>
+        <v>29.696148</v>
       </c>
     </row>
     <row r="292">
@@ -12461,7 +12461,7 @@
         <v>12.0</v>
       </c>
       <c r="C292" t="n">
-        <v>33.717242</v>
+        <v>39.520342</v>
       </c>
     </row>
     <row r="293">
@@ -12472,7 +12472,7 @@
         <v>13.0</v>
       </c>
       <c r="C293" t="n">
-        <v>49.569086</v>
+        <v>50.31101</v>
       </c>
     </row>
     <row r="294">
@@ -12483,7 +12483,7 @@
         <v>14.0</v>
       </c>
       <c r="C294" t="n">
-        <v>58.896093</v>
+        <v>58.723667</v>
       </c>
     </row>
     <row r="295">
@@ -12494,7 +12494,7 @@
         <v>15.0</v>
       </c>
       <c r="C295" t="n">
-        <v>80.89446</v>
+        <v>81.106931</v>
       </c>
     </row>
     <row r="296">
@@ -12505,7 +12505,7 @@
         <v>16.0</v>
       </c>
       <c r="C296" t="n">
-        <v>79.21851000000001</v>
+        <v>78.558775</v>
       </c>
     </row>
     <row r="297">
@@ -12516,7 +12516,7 @@
         <v>17.0</v>
       </c>
       <c r="C297" t="n">
-        <v>66.72027299999999</v>
+        <v>64.214926</v>
       </c>
     </row>
     <row r="298">
@@ -12527,7 +12527,7 @@
         <v>18.0</v>
       </c>
       <c r="C298" t="n">
-        <v>44.159352</v>
+        <v>43.824825</v>
       </c>
     </row>
     <row r="299">
@@ -12538,7 +12538,7 @@
         <v>19.0</v>
       </c>
       <c r="C299" t="n">
-        <v>4.667116999999999</v>
+        <v>3.863753</v>
       </c>
     </row>
     <row r="300">
@@ -12549,7 +12549,7 @@
         <v>20.0</v>
       </c>
       <c r="C300" t="n">
-        <v>26.859841000000003</v>
+        <v>28.091239</v>
       </c>
     </row>
     <row r="301">
@@ -12560,7 +12560,7 @@
         <v>21.0</v>
       </c>
       <c r="C301" t="n">
-        <v>13.371544</v>
+        <v>13.161707</v>
       </c>
     </row>
     <row r="302">
@@ -12571,7 +12571,7 @@
         <v>22.0</v>
       </c>
       <c r="C302" t="n">
-        <v>4.967176</v>
+        <v>6.418156</v>
       </c>
     </row>
     <row r="303">
@@ -12582,7 +12582,7 @@
         <v>24.0</v>
       </c>
       <c r="C303" t="n">
-        <v>22.338794</v>
+        <v>23.389969</v>
       </c>
     </row>
     <row r="304">
@@ -12593,7 +12593,7 @@
         <v>25.0</v>
       </c>
       <c r="C304" t="n">
-        <v>26.792216</v>
+        <v>25.872567</v>
       </c>
     </row>
     <row r="305">
@@ -12604,7 +12604,7 @@
         <v>26.0</v>
       </c>
       <c r="C305" t="n">
-        <v>24.636768</v>
+        <v>23.604498</v>
       </c>
     </row>
     <row r="306">
@@ -12615,7 +12615,7 @@
         <v>27.0</v>
       </c>
       <c r="C306" t="n">
-        <v>34.973442</v>
+        <v>34.308323</v>
       </c>
     </row>
     <row r="307">
@@ -12626,7 +12626,7 @@
         <v>28.0</v>
       </c>
       <c r="C307" t="n">
-        <v>43.626222999999996</v>
+        <v>42.643171</v>
       </c>
     </row>
     <row r="308">
@@ -12637,7 +12637,7 @@
         <v>29.0</v>
       </c>
       <c r="C308" t="n">
-        <v>31.037898</v>
+        <v>30.896570999999998</v>
       </c>
     </row>
     <row r="309">
@@ -12692,7 +12692,7 @@
         <v>2.0</v>
       </c>
       <c r="C313" t="n">
-        <v>56.956469</v>
+        <v>57.067431</v>
       </c>
     </row>
     <row r="314">
@@ -12703,7 +12703,7 @@
         <v>3.0</v>
       </c>
       <c r="C314" t="n">
-        <v>38.804749</v>
+        <v>39.17871</v>
       </c>
     </row>
     <row r="315">
@@ -12714,7 +12714,7 @@
         <v>4.0</v>
       </c>
       <c r="C315" t="n">
-        <v>23.961778</v>
+        <v>26.909106</v>
       </c>
     </row>
     <row r="316">
@@ -12725,7 +12725,7 @@
         <v>5.0</v>
       </c>
       <c r="C316" t="n">
-        <v>22.586327</v>
+        <v>25.051169</v>
       </c>
     </row>
     <row r="317">
@@ -12736,7 +12736,7 @@
         <v>6.0</v>
       </c>
       <c r="C317" t="n">
-        <v>42.925121</v>
+        <v>50.251435</v>
       </c>
     </row>
     <row r="318">
@@ -12747,7 +12747,7 @@
         <v>7.0</v>
       </c>
       <c r="C318" t="n">
-        <v>71.246862</v>
+        <v>73.716061</v>
       </c>
     </row>
     <row r="319">
@@ -12758,7 +12758,7 @@
         <v>8.0</v>
       </c>
       <c r="C319" t="n">
-        <v>92.060102</v>
+        <v>93.591471</v>
       </c>
     </row>
     <row r="320">
@@ -12769,7 +12769,7 @@
         <v>9.0</v>
       </c>
       <c r="C320" t="n">
-        <v>35.189669</v>
+        <v>37.51945</v>
       </c>
     </row>
     <row r="321">
@@ -12780,7 +12780,7 @@
         <v>10.0</v>
       </c>
       <c r="C321" t="n">
-        <v>64.339319</v>
+        <v>66.655504</v>
       </c>
     </row>
     <row r="322">
@@ -12791,7 +12791,7 @@
         <v>11.0</v>
       </c>
       <c r="C322" t="n">
-        <v>37.103597</v>
+        <v>34.813437</v>
       </c>
     </row>
     <row r="323">
@@ -12802,7 +12802,7 @@
         <v>12.0</v>
       </c>
       <c r="C323" t="n">
-        <v>45.413526</v>
+        <v>54.861430999999996</v>
       </c>
     </row>
     <row r="324">
@@ -12813,7 +12813,7 @@
         <v>13.0</v>
       </c>
       <c r="C324" t="n">
-        <v>49.81357</v>
+        <v>49.200776</v>
       </c>
     </row>
     <row r="325">
@@ -12824,7 +12824,7 @@
         <v>14.0</v>
       </c>
       <c r="C325" t="n">
-        <v>61.658519</v>
+        <v>60.836475</v>
       </c>
     </row>
     <row r="326">
@@ -12835,7 +12835,7 @@
         <v>15.0</v>
       </c>
       <c r="C326" t="n">
-        <v>82.875459</v>
+        <v>82.841344</v>
       </c>
     </row>
     <row r="327">
@@ -12846,7 +12846,7 @@
         <v>16.0</v>
       </c>
       <c r="C327" t="n">
-        <v>76.931889</v>
+        <v>76.59551499999999</v>
       </c>
     </row>
     <row r="328">
@@ -12857,7 +12857,7 @@
         <v>17.0</v>
       </c>
       <c r="C328" t="n">
-        <v>54.816244999999995</v>
+        <v>50.425395</v>
       </c>
     </row>
     <row r="329">
@@ -12868,7 +12868,7 @@
         <v>18.0</v>
       </c>
       <c r="C329" t="n">
-        <v>39.239899</v>
+        <v>38.765896</v>
       </c>
     </row>
     <row r="330">
@@ -12879,7 +12879,7 @@
         <v>19.0</v>
       </c>
       <c r="C330" t="n">
-        <v>9.125154</v>
+        <v>8.526746</v>
       </c>
     </row>
     <row r="331">
@@ -12890,7 +12890,7 @@
         <v>20.0</v>
       </c>
       <c r="C331" t="n">
-        <v>26.581878</v>
+        <v>26.433591</v>
       </c>
     </row>
     <row r="332">
@@ -12912,7 +12912,7 @@
         <v>22.0</v>
       </c>
       <c r="C333" t="n">
-        <v>2.701428</v>
+        <v>4.076216</v>
       </c>
     </row>
     <row r="334">
@@ -12923,7 +12923,7 @@
         <v>24.0</v>
       </c>
       <c r="C334" t="n">
-        <v>27.104741999999998</v>
+        <v>30.133502999999997</v>
       </c>
     </row>
     <row r="335">
@@ -12934,7 +12934,7 @@
         <v>25.0</v>
       </c>
       <c r="C335" t="n">
-        <v>24.102829999999997</v>
+        <v>23.220475</v>
       </c>
     </row>
     <row r="336">
@@ -12945,7 +12945,7 @@
         <v>26.0</v>
       </c>
       <c r="C336" t="n">
-        <v>26.060127</v>
+        <v>26.04776</v>
       </c>
     </row>
     <row r="337">
@@ -12956,7 +12956,7 @@
         <v>27.0</v>
       </c>
       <c r="C337" t="n">
-        <v>44.328168</v>
+        <v>44.039106</v>
       </c>
     </row>
     <row r="338">
@@ -12967,7 +12967,7 @@
         <v>28.0</v>
       </c>
       <c r="C338" t="n">
-        <v>44.403088000000004</v>
+        <v>42.038758</v>
       </c>
     </row>
     <row r="339">
@@ -12989,7 +12989,7 @@
         <v>30.0</v>
       </c>
       <c r="C340" t="n">
-        <v>18.637503</v>
+        <v>19.998801999999998</v>
       </c>
     </row>
     <row r="341">
@@ -13000,7 +13000,7 @@
         <v>31.0</v>
       </c>
       <c r="C341" t="n">
-        <v>5.191782</v>
+        <v>4.788483</v>
       </c>
     </row>
     <row r="342">
@@ -13011,7 +13011,7 @@
         <v>32.0</v>
       </c>
       <c r="C342" t="n">
-        <v>31.745573</v>
+        <v>32.901682</v>
       </c>
     </row>
     <row r="343">
@@ -13033,7 +13033,7 @@
         <v>2.0</v>
       </c>
       <c r="C344" t="n">
-        <v>42.710932</v>
+        <v>44.916021</v>
       </c>
     </row>
     <row r="345">
@@ -13044,7 +13044,7 @@
         <v>3.0</v>
       </c>
       <c r="C345" t="n">
-        <v>42.234701</v>
+        <v>41.901994</v>
       </c>
     </row>
     <row r="346">
@@ -13055,7 +13055,7 @@
         <v>4.0</v>
       </c>
       <c r="C346" t="n">
-        <v>28.987582</v>
+        <v>32.905027</v>
       </c>
     </row>
     <row r="347">
@@ -13066,7 +13066,7 @@
         <v>5.0</v>
       </c>
       <c r="C347" t="n">
-        <v>22.744593000000002</v>
+        <v>25.063042000000003</v>
       </c>
     </row>
     <row r="348">
@@ -13077,7 +13077,7 @@
         <v>6.0</v>
       </c>
       <c r="C348" t="n">
-        <v>40.15714</v>
+        <v>48.520537000000004</v>
       </c>
     </row>
     <row r="349">
@@ -13088,7 +13088,7 @@
         <v>7.0</v>
       </c>
       <c r="C349" t="n">
-        <v>69.455816</v>
+        <v>74.907466</v>
       </c>
     </row>
     <row r="350">
@@ -13099,7 +13099,7 @@
         <v>8.0</v>
       </c>
       <c r="C350" t="n">
-        <v>83.115399</v>
+        <v>90.668313</v>
       </c>
     </row>
     <row r="351">
@@ -13110,7 +13110,7 @@
         <v>9.0</v>
       </c>
       <c r="C351" t="n">
-        <v>43.906238</v>
+        <v>57.945555</v>
       </c>
     </row>
     <row r="352">
@@ -13121,7 +13121,7 @@
         <v>10.0</v>
       </c>
       <c r="C352" t="n">
-        <v>62.75314</v>
+        <v>62.846583</v>
       </c>
     </row>
     <row r="353">
@@ -13132,7 +13132,7 @@
         <v>11.0</v>
       </c>
       <c r="C353" t="n">
-        <v>36.520775</v>
+        <v>36.948149</v>
       </c>
     </row>
     <row r="354">
@@ -13143,7 +13143,7 @@
         <v>12.0</v>
       </c>
       <c r="C354" t="n">
-        <v>41.184773</v>
+        <v>48.280661</v>
       </c>
     </row>
     <row r="355">
@@ -13154,7 +13154,7 @@
         <v>13.0</v>
       </c>
       <c r="C355" t="n">
-        <v>48.952533</v>
+        <v>53.02082300000001</v>
       </c>
     </row>
     <row r="356">
@@ -13165,7 +13165,7 @@
         <v>14.0</v>
       </c>
       <c r="C356" t="n">
-        <v>56.24888</v>
+        <v>55.714203</v>
       </c>
     </row>
     <row r="357">
@@ -13176,7 +13176,7 @@
         <v>15.0</v>
       </c>
       <c r="C357" t="n">
-        <v>83.085221</v>
+        <v>81.536645</v>
       </c>
     </row>
     <row r="358">
@@ -13187,7 +13187,7 @@
         <v>16.0</v>
       </c>
       <c r="C358" t="n">
-        <v>107.87246999999999</v>
+        <v>86.29260599999999</v>
       </c>
     </row>
     <row r="359">
@@ -13198,7 +13198,7 @@
         <v>17.0</v>
       </c>
       <c r="C359" t="n">
-        <v>33.307048</v>
+        <v>52.397087</v>
       </c>
     </row>
     <row r="360">
@@ -13209,7 +13209,7 @@
         <v>18.0</v>
       </c>
       <c r="C360" t="n">
-        <v>46.104891</v>
+        <v>45.806364</v>
       </c>
     </row>
     <row r="361">
@@ -13220,7 +13220,7 @@
         <v>19.0</v>
       </c>
       <c r="C361" t="n">
-        <v>2.903799</v>
+        <v>4.429183</v>
       </c>
     </row>
     <row r="362">
@@ -13231,7 +13231,7 @@
         <v>20.0</v>
       </c>
       <c r="C362" t="n">
-        <v>30.565359</v>
+        <v>28.457174000000002</v>
       </c>
     </row>
     <row r="363">
@@ -13253,7 +13253,7 @@
         <v>22.0</v>
       </c>
       <c r="C364" t="n">
-        <v>4.816834</v>
+        <v>6.113326</v>
       </c>
     </row>
     <row r="365">
@@ -13264,7 +13264,7 @@
         <v>24.0</v>
       </c>
       <c r="C365" t="n">
-        <v>21.68166</v>
+        <v>21.611081</v>
       </c>
     </row>
     <row r="366">
@@ -13275,7 +13275,7 @@
         <v>25.0</v>
       </c>
       <c r="C366" t="n">
-        <v>27.571084</v>
+        <v>27.064041</v>
       </c>
     </row>
     <row r="367">
@@ -13286,7 +13286,7 @@
         <v>26.0</v>
       </c>
       <c r="C367" t="n">
-        <v>25.733839999999997</v>
+        <v>25.343314</v>
       </c>
     </row>
     <row r="368">
@@ -13297,7 +13297,7 @@
         <v>27.0</v>
       </c>
       <c r="C368" t="n">
-        <v>34.770540000000004</v>
+        <v>33.998671</v>
       </c>
     </row>
     <row r="369">
@@ -13308,7 +13308,7 @@
         <v>28.0</v>
       </c>
       <c r="C369" t="n">
-        <v>46.986315</v>
+        <v>46.140962</v>
       </c>
     </row>
     <row r="370">
@@ -13319,7 +13319,7 @@
         <v>29.0</v>
       </c>
       <c r="C370" t="n">
-        <v>32.984971</v>
+        <v>32.514925</v>
       </c>
     </row>
     <row r="371">
@@ -13330,7 +13330,7 @@
         <v>30.0</v>
       </c>
       <c r="C371" t="n">
-        <v>15.141021</v>
+        <v>16.172625</v>
       </c>
     </row>
     <row r="372">
@@ -13352,7 +13352,7 @@
         <v>32.0</v>
       </c>
       <c r="C373" t="n">
-        <v>32.466861</v>
+        <v>33.05543</v>
       </c>
     </row>
     <row r="374">
@@ -13374,7 +13374,7 @@
         <v>2.0</v>
       </c>
       <c r="C375" t="n">
-        <v>43.970171</v>
+        <v>39.722557</v>
       </c>
     </row>
     <row r="376">
@@ -13385,7 +13385,7 @@
         <v>3.0</v>
       </c>
       <c r="C376" t="n">
-        <v>37.716061</v>
+        <v>44.553869</v>
       </c>
     </row>
     <row r="377">
@@ -13396,7 +13396,7 @@
         <v>4.0</v>
       </c>
       <c r="C377" t="n">
-        <v>32.809847</v>
+        <v>31.498079</v>
       </c>
     </row>
     <row r="378">
@@ -13407,7 +13407,7 @@
         <v>5.0</v>
       </c>
       <c r="C378" t="n">
-        <v>22.391606</v>
+        <v>24.659868</v>
       </c>
     </row>
     <row r="379">
@@ -13418,7 +13418,7 @@
         <v>6.0</v>
       </c>
       <c r="C379" t="n">
-        <v>41.409082</v>
+        <v>46.518403</v>
       </c>
     </row>
     <row r="380">
@@ -13429,7 +13429,7 @@
         <v>7.0</v>
       </c>
       <c r="C380" t="n">
-        <v>63.540298</v>
+        <v>71.653971</v>
       </c>
     </row>
     <row r="381">
@@ -13440,7 +13440,7 @@
         <v>8.0</v>
       </c>
       <c r="C381" t="n">
-        <v>81.546739</v>
+        <v>90.707093</v>
       </c>
     </row>
     <row r="382">
@@ -13451,7 +13451,7 @@
         <v>9.0</v>
       </c>
       <c r="C382" t="n">
-        <v>55.946542</v>
+        <v>55.52127</v>
       </c>
     </row>
     <row r="383">
@@ -13462,7 +13462,7 @@
         <v>10.0</v>
       </c>
       <c r="C383" t="n">
-        <v>59.463828</v>
+        <v>59.970765</v>
       </c>
     </row>
     <row r="384">
@@ -13473,7 +13473,7 @@
         <v>11.0</v>
       </c>
       <c r="C384" t="n">
-        <v>36.038962</v>
+        <v>41.023269</v>
       </c>
     </row>
     <row r="385">
@@ -13484,7 +13484,7 @@
         <v>12.0</v>
       </c>
       <c r="C385" t="n">
-        <v>37.749394</v>
+        <v>42.079667</v>
       </c>
     </row>
     <row r="386">
@@ -13495,7 +13495,7 @@
         <v>13.0</v>
       </c>
       <c r="C386" t="n">
-        <v>56.481821</v>
+        <v>57.989339</v>
       </c>
     </row>
     <row r="387">
@@ -13506,7 +13506,7 @@
         <v>14.0</v>
       </c>
       <c r="C387" t="n">
-        <v>53.072193</v>
+        <v>53.764504</v>
       </c>
     </row>
     <row r="388">
@@ -13517,7 +13517,7 @@
         <v>15.0</v>
       </c>
       <c r="C388" t="n">
-        <v>84.834312</v>
+        <v>83.314088</v>
       </c>
     </row>
     <row r="389">
@@ -13528,7 +13528,7 @@
         <v>16.0</v>
       </c>
       <c r="C389" t="n">
-        <v>77.228071</v>
+        <v>76.739153</v>
       </c>
     </row>
     <row r="390">
@@ -13539,7 +13539,7 @@
         <v>17.0</v>
       </c>
       <c r="C390" t="n">
-        <v>63.59667</v>
+        <v>61.228917</v>
       </c>
     </row>
     <row r="391">
@@ -13550,7 +13550,7 @@
         <v>18.0</v>
       </c>
       <c r="C391" t="n">
-        <v>45.576726</v>
+        <v>45.250248</v>
       </c>
     </row>
     <row r="392">
@@ -13572,7 +13572,7 @@
         <v>20.0</v>
       </c>
       <c r="C393" t="n">
-        <v>28.614731</v>
+        <v>30.067829</v>
       </c>
     </row>
     <row r="394">
@@ -13594,7 +13594,7 @@
         <v>22.0</v>
       </c>
       <c r="C395" t="n">
-        <v>6.173373</v>
+        <v>7.730556999999999</v>
       </c>
     </row>
     <row r="396">
@@ -13605,7 +13605,7 @@
         <v>24.0</v>
       </c>
       <c r="C396" t="n">
-        <v>19.277474</v>
+        <v>19.168128</v>
       </c>
     </row>
     <row r="397">
@@ -13616,7 +13616,7 @@
         <v>25.0</v>
       </c>
       <c r="C397" t="n">
-        <v>28.298442</v>
+        <v>27.652355</v>
       </c>
     </row>
     <row r="398">
@@ -13627,7 +13627,7 @@
         <v>26.0</v>
       </c>
       <c r="C398" t="n">
-        <v>26.914436</v>
+        <v>26.718861999999998</v>
       </c>
     </row>
     <row r="399">
@@ -13638,7 +13638,7 @@
         <v>27.0</v>
       </c>
       <c r="C399" t="n">
-        <v>26.690728</v>
+        <v>25.666909</v>
       </c>
     </row>
     <row r="400">
@@ -13649,7 +13649,7 @@
         <v>28.0</v>
       </c>
       <c r="C400" t="n">
-        <v>54.181503</v>
+        <v>53.619976</v>
       </c>
     </row>
     <row r="401">
@@ -13660,7 +13660,7 @@
         <v>29.0</v>
       </c>
       <c r="C401" t="n">
-        <v>34.798242</v>
+        <v>34.284119</v>
       </c>
     </row>
     <row r="402">
@@ -13693,7 +13693,7 @@
         <v>32.0</v>
       </c>
       <c r="C404" t="n">
-        <v>32.978956</v>
+        <v>33.711841</v>
       </c>
     </row>
     <row r="405">
@@ -13715,7 +13715,7 @@
         <v>2.0</v>
       </c>
       <c r="C406" t="n">
-        <v>64.219402</v>
+        <v>47.21662</v>
       </c>
     </row>
     <row r="407">
@@ -13726,7 +13726,7 @@
         <v>3.0</v>
       </c>
       <c r="C407" t="n">
-        <v>22.551819000000002</v>
+        <v>40.01782</v>
       </c>
     </row>
     <row r="408">
@@ -13737,7 +13737,7 @@
         <v>4.0</v>
       </c>
       <c r="C408" t="n">
-        <v>33.084531999999996</v>
+        <v>32.680511</v>
       </c>
     </row>
     <row r="409">
@@ -13748,7 +13748,7 @@
         <v>5.0</v>
       </c>
       <c r="C409" t="n">
-        <v>22.448891</v>
+        <v>24.670683</v>
       </c>
     </row>
     <row r="410">
@@ -13759,7 +13759,7 @@
         <v>6.0</v>
       </c>
       <c r="C410" t="n">
-        <v>40.2595</v>
+        <v>46.449285</v>
       </c>
     </row>
     <row r="411">
@@ -13770,7 +13770,7 @@
         <v>7.0</v>
       </c>
       <c r="C411" t="n">
-        <v>71.612607</v>
+        <v>78.264815</v>
       </c>
     </row>
     <row r="412">
@@ -13781,7 +13781,7 @@
         <v>8.0</v>
       </c>
       <c r="C412" t="n">
-        <v>83.99834</v>
+        <v>86.086838</v>
       </c>
     </row>
     <row r="413">
@@ -13792,7 +13792,7 @@
         <v>9.0</v>
       </c>
       <c r="C413" t="n">
-        <v>52.096932</v>
+        <v>57.7104</v>
       </c>
     </row>
     <row r="414">
@@ -13803,7 +13803,7 @@
         <v>10.0</v>
       </c>
       <c r="C414" t="n">
-        <v>62.875828</v>
+        <v>63.607808</v>
       </c>
     </row>
     <row r="415">
@@ -13814,7 +13814,7 @@
         <v>11.0</v>
       </c>
       <c r="C415" t="n">
-        <v>35.860977</v>
+        <v>36.711369</v>
       </c>
     </row>
     <row r="416">
@@ -13825,7 +13825,7 @@
         <v>12.0</v>
       </c>
       <c r="C416" t="n">
-        <v>47.539758</v>
+        <v>54.67018</v>
       </c>
     </row>
     <row r="417">
@@ -13836,7 +13836,7 @@
         <v>13.0</v>
       </c>
       <c r="C417" t="n">
-        <v>46.406742</v>
+        <v>47.762338</v>
       </c>
     </row>
     <row r="418">
@@ -13847,7 +13847,7 @@
         <v>14.0</v>
       </c>
       <c r="C418" t="n">
-        <v>60.066639</v>
+        <v>59.679415</v>
       </c>
     </row>
     <row r="419">
@@ -13858,7 +13858,7 @@
         <v>15.0</v>
       </c>
       <c r="C419" t="n">
-        <v>78.81943799999999</v>
+        <v>80.54359099999999</v>
       </c>
     </row>
     <row r="420">
@@ -13869,7 +13869,7 @@
         <v>16.0</v>
       </c>
       <c r="C420" t="n">
-        <v>97.849711</v>
+        <v>76.372892</v>
       </c>
     </row>
     <row r="421">
@@ -13880,7 +13880,7 @@
         <v>17.0</v>
       </c>
       <c r="C421" t="n">
-        <v>40.392711</v>
+        <v>60.611452</v>
       </c>
     </row>
     <row r="422">
@@ -13891,7 +13891,7 @@
         <v>18.0</v>
       </c>
       <c r="C422" t="n">
-        <v>42.086293</v>
+        <v>41.570684</v>
       </c>
     </row>
     <row r="423">
@@ -13913,7 +13913,7 @@
         <v>20.0</v>
       </c>
       <c r="C424" t="n">
-        <v>26.094511</v>
+        <v>28.15212</v>
       </c>
     </row>
     <row r="425">
@@ -13924,7 +13924,7 @@
         <v>21.0</v>
       </c>
       <c r="C425" t="n">
-        <v>11.965492</v>
+        <v>11.878369</v>
       </c>
     </row>
     <row r="426">
@@ -13935,7 +13935,7 @@
         <v>22.0</v>
       </c>
       <c r="C426" t="n">
-        <v>2.384417</v>
+        <v>4.747115</v>
       </c>
     </row>
     <row r="427">
@@ -13946,7 +13946,7 @@
         <v>24.0</v>
       </c>
       <c r="C427" t="n">
-        <v>25.581027</v>
+        <v>27.626267</v>
       </c>
     </row>
     <row r="428">
@@ -13957,7 +13957,7 @@
         <v>25.0</v>
       </c>
       <c r="C428" t="n">
-        <v>25.347194000000002</v>
+        <v>24.488870000000002</v>
       </c>
     </row>
     <row r="429">
@@ -13968,7 +13968,7 @@
         <v>26.0</v>
       </c>
       <c r="C429" t="n">
-        <v>26.815463</v>
+        <v>25.948892999999998</v>
       </c>
     </row>
     <row r="430">
@@ -13979,7 +13979,7 @@
         <v>27.0</v>
       </c>
       <c r="C430" t="n">
-        <v>50.807001</v>
+        <v>49.007538000000004</v>
       </c>
     </row>
     <row r="431">
@@ -13990,7 +13990,7 @@
         <v>28.0</v>
       </c>
       <c r="C431" t="n">
-        <v>35.549611999999996</v>
+        <v>34.612006</v>
       </c>
     </row>
     <row r="432">
@@ -14023,7 +14023,7 @@
         <v>31.0</v>
       </c>
       <c r="C434" t="n">
-        <v>0.0</v>
+        <v>1.886433</v>
       </c>
     </row>
     <row r="435">
@@ -14034,7 +14034,7 @@
         <v>32.0</v>
       </c>
       <c r="C435" t="n">
-        <v>34.603291999999996</v>
+        <v>34.259969</v>
       </c>
     </row>
     <row r="436">
@@ -14056,7 +14056,7 @@
         <v>2.0</v>
       </c>
       <c r="C437" t="n">
-        <v>51.900277</v>
+        <v>54.328383</v>
       </c>
     </row>
     <row r="438">
@@ -14067,7 +14067,7 @@
         <v>3.0</v>
       </c>
       <c r="C438" t="n">
-        <v>38.3455</v>
+        <v>40.086961</v>
       </c>
     </row>
     <row r="439">
@@ -14078,7 +14078,7 @@
         <v>4.0</v>
       </c>
       <c r="C439" t="n">
-        <v>29.265981</v>
+        <v>28.013818</v>
       </c>
     </row>
     <row r="440">
@@ -14089,7 +14089,7 @@
         <v>5.0</v>
       </c>
       <c r="C440" t="n">
-        <v>22.747387999999997</v>
+        <v>25.252754</v>
       </c>
     </row>
     <row r="441">
@@ -14100,7 +14100,7 @@
         <v>6.0</v>
       </c>
       <c r="C441" t="n">
-        <v>42.791007</v>
+        <v>48.523855</v>
       </c>
     </row>
     <row r="442">
@@ -14111,7 +14111,7 @@
         <v>7.0</v>
       </c>
       <c r="C442" t="n">
-        <v>71.874195</v>
+        <v>75.432518</v>
       </c>
     </row>
     <row r="443">
@@ -14122,7 +14122,7 @@
         <v>8.0</v>
       </c>
       <c r="C443" t="n">
-        <v>95.567394</v>
+        <v>97.909922</v>
       </c>
     </row>
     <row r="444">
@@ -14133,7 +14133,7 @@
         <v>9.0</v>
       </c>
       <c r="C444" t="n">
-        <v>42.058219</v>
+        <v>43.766443</v>
       </c>
     </row>
     <row r="445">
@@ -14144,7 +14144,7 @@
         <v>10.0</v>
       </c>
       <c r="C445" t="n">
-        <v>63.831234</v>
+        <v>64.022642</v>
       </c>
     </row>
     <row r="446">
@@ -14166,7 +14166,7 @@
         <v>12.0</v>
       </c>
       <c r="C447" t="n">
-        <v>62.026157999999995</v>
+        <v>54.927895</v>
       </c>
     </row>
     <row r="448">
@@ -14177,7 +14177,7 @@
         <v>13.0</v>
       </c>
       <c r="C448" t="n">
-        <v>30.277794999999998</v>
+        <v>51.321045</v>
       </c>
     </row>
     <row r="449">
@@ -14188,7 +14188,7 @@
         <v>14.0</v>
       </c>
       <c r="C449" t="n">
-        <v>58.441826999999996</v>
+        <v>58.24576</v>
       </c>
     </row>
     <row r="450">
@@ -14199,7 +14199,7 @@
         <v>15.0</v>
       </c>
       <c r="C450" t="n">
-        <v>80.883315</v>
+        <v>79.28764</v>
       </c>
     </row>
     <row r="451">
@@ -14210,7 +14210,7 @@
         <v>16.0</v>
       </c>
       <c r="C451" t="n">
-        <v>78.319568</v>
+        <v>76.505703</v>
       </c>
     </row>
     <row r="452">
@@ -14221,7 +14221,7 @@
         <v>17.0</v>
       </c>
       <c r="C452" t="n">
-        <v>58.599006</v>
+        <v>51.672063</v>
       </c>
     </row>
     <row r="453">
@@ -14232,7 +14232,7 @@
         <v>18.0</v>
       </c>
       <c r="C453" t="n">
-        <v>32.636881</v>
+        <v>37.828185</v>
       </c>
     </row>
     <row r="454">
@@ -14254,7 +14254,7 @@
         <v>20.0</v>
       </c>
       <c r="C455" t="n">
-        <v>25.608897</v>
+        <v>27.727932</v>
       </c>
     </row>
     <row r="456">
@@ -14265,7 +14265,7 @@
         <v>21.0</v>
       </c>
       <c r="C456" t="n">
-        <v>10.792721</v>
+        <v>11.972216</v>
       </c>
     </row>
     <row r="457">
@@ -14276,7 +14276,7 @@
         <v>22.0</v>
       </c>
       <c r="C457" t="n">
-        <v>2.501331</v>
+        <v>3.719545</v>
       </c>
     </row>
     <row r="458">
@@ -14287,7 +14287,7 @@
         <v>24.0</v>
       </c>
       <c r="C458" t="n">
-        <v>26.883145</v>
+        <v>32.54798</v>
       </c>
     </row>
     <row r="459">
@@ -14298,7 +14298,7 @@
         <v>25.0</v>
       </c>
       <c r="C459" t="n">
-        <v>24.688252000000002</v>
+        <v>23.923848000000003</v>
       </c>
     </row>
     <row r="460">
@@ -14309,7 +14309,7 @@
         <v>26.0</v>
       </c>
       <c r="C460" t="n">
-        <v>27.126043000000003</v>
+        <v>26.276176</v>
       </c>
     </row>
     <row r="461">
@@ -14320,7 +14320,7 @@
         <v>27.0</v>
       </c>
       <c r="C461" t="n">
-        <v>43.059765</v>
+        <v>41.826202</v>
       </c>
     </row>
     <row r="462">
@@ -14331,7 +14331,7 @@
         <v>28.0</v>
       </c>
       <c r="C462" t="n">
-        <v>45.939446000000004</v>
+        <v>44.410121</v>
       </c>
     </row>
     <row r="463">
@@ -14342,7 +14342,7 @@
         <v>29.0</v>
       </c>
       <c r="C463" t="n">
-        <v>23.93656</v>
+        <v>23.544696000000002</v>
       </c>
     </row>
     <row r="464">
@@ -14353,7 +14353,7 @@
         <v>30.0</v>
       </c>
       <c r="C464" t="n">
-        <v>19.160392</v>
+        <v>18.794806</v>
       </c>
     </row>
     <row r="465">
@@ -14364,7 +14364,7 @@
         <v>31.0</v>
       </c>
       <c r="C465" t="n">
-        <v>4.174433</v>
+        <v>3.879348</v>
       </c>
     </row>
     <row r="466">
@@ -14397,7 +14397,7 @@
         <v>2.0</v>
       </c>
       <c r="C468" t="n">
-        <v>41.121385000000004</v>
+        <v>46.487737</v>
       </c>
     </row>
     <row r="469">
@@ -14408,7 +14408,7 @@
         <v>3.0</v>
       </c>
       <c r="C469" t="n">
-        <v>44.476130999999995</v>
+        <v>40.116499000000005</v>
       </c>
     </row>
     <row r="470">
@@ -14419,7 +14419,7 @@
         <v>4.0</v>
       </c>
       <c r="C470" t="n">
-        <v>29.523130000000002</v>
+        <v>29.596938</v>
       </c>
     </row>
     <row r="471">
@@ -14430,7 +14430,7 @@
         <v>5.0</v>
       </c>
       <c r="C471" t="n">
-        <v>36.613718</v>
+        <v>38.131284</v>
       </c>
     </row>
     <row r="472">
@@ -14441,7 +14441,7 @@
         <v>6.0</v>
       </c>
       <c r="C472" t="n">
-        <v>26.572954</v>
+        <v>33.465327</v>
       </c>
     </row>
     <row r="473">
@@ -14452,7 +14452,7 @@
         <v>7.0</v>
       </c>
       <c r="C473" t="n">
-        <v>73.181154</v>
+        <v>77.533288</v>
       </c>
     </row>
     <row r="474">
@@ -14463,7 +14463,7 @@
         <v>8.0</v>
       </c>
       <c r="C474" t="n">
-        <v>82.384907</v>
+        <v>83.820216</v>
       </c>
     </row>
     <row r="475">
@@ -14474,7 +14474,7 @@
         <v>9.0</v>
       </c>
       <c r="C475" t="n">
-        <v>52.404735</v>
+        <v>55.371374</v>
       </c>
     </row>
     <row r="476">
@@ -14485,7 +14485,7 @@
         <v>10.0</v>
       </c>
       <c r="C476" t="n">
-        <v>62.127289</v>
+        <v>62.37688</v>
       </c>
     </row>
     <row r="477">
@@ -14496,7 +14496,7 @@
         <v>11.0</v>
       </c>
       <c r="C477" t="n">
-        <v>34.579174</v>
+        <v>35.928558</v>
       </c>
     </row>
     <row r="478">
@@ -14507,7 +14507,7 @@
         <v>12.0</v>
       </c>
       <c r="C478" t="n">
-        <v>44.833881999999996</v>
+        <v>51.488776</v>
       </c>
     </row>
     <row r="479">
@@ -14518,7 +14518,7 @@
         <v>13.0</v>
       </c>
       <c r="C479" t="n">
-        <v>46.6146</v>
+        <v>48.869214</v>
       </c>
     </row>
     <row r="480">
@@ -14529,7 +14529,7 @@
         <v>14.0</v>
       </c>
       <c r="C480" t="n">
-        <v>59.658346</v>
+        <v>58.73496</v>
       </c>
     </row>
     <row r="481">
@@ -14540,7 +14540,7 @@
         <v>15.0</v>
       </c>
       <c r="C481" t="n">
-        <v>78.295625</v>
+        <v>79.407779</v>
       </c>
     </row>
     <row r="482">
@@ -14551,7 +14551,7 @@
         <v>16.0</v>
       </c>
       <c r="C482" t="n">
-        <v>102.609472</v>
+        <v>80.995382</v>
       </c>
     </row>
     <row r="483">
@@ -14562,7 +14562,7 @@
         <v>17.0</v>
       </c>
       <c r="C483" t="n">
-        <v>48.085803</v>
+        <v>67.212789</v>
       </c>
     </row>
     <row r="484">
@@ -14584,7 +14584,7 @@
         <v>19.0</v>
       </c>
       <c r="C485" t="n">
-        <v>5.453879000000001</v>
+        <v>5.037094</v>
       </c>
     </row>
     <row r="486">
@@ -14595,7 +14595,7 @@
         <v>20.0</v>
       </c>
       <c r="C486" t="n">
-        <v>25.60166</v>
+        <v>28.348064</v>
       </c>
     </row>
     <row r="487">
@@ -14617,7 +14617,7 @@
         <v>22.0</v>
       </c>
       <c r="C488" t="n">
-        <v>2.579682</v>
+        <v>4.189437</v>
       </c>
     </row>
     <row r="489">
@@ -14628,7 +14628,7 @@
         <v>24.0</v>
       </c>
       <c r="C489" t="n">
-        <v>23.345665</v>
+        <v>26.960128</v>
       </c>
     </row>
     <row r="490">
@@ -14639,7 +14639,7 @@
         <v>25.0</v>
       </c>
       <c r="C490" t="n">
-        <v>25.471847</v>
+        <v>24.916715</v>
       </c>
     </row>
     <row r="491">
@@ -14650,7 +14650,7 @@
         <v>26.0</v>
       </c>
       <c r="C491" t="n">
-        <v>26.219824000000003</v>
+        <v>25.193824</v>
       </c>
     </row>
     <row r="492">
@@ -14661,7 +14661,7 @@
         <v>27.0</v>
       </c>
       <c r="C492" t="n">
-        <v>38.766948</v>
+        <v>37.760672</v>
       </c>
     </row>
     <row r="493">
@@ -14672,7 +14672,7 @@
         <v>28.0</v>
       </c>
       <c r="C493" t="n">
-        <v>47.827118999999996</v>
+        <v>46.709444</v>
       </c>
     </row>
     <row r="494">
@@ -14683,7 +14683,7 @@
         <v>29.0</v>
       </c>
       <c r="C494" t="n">
-        <v>29.063873</v>
+        <v>28.59367</v>
       </c>
     </row>
     <row r="495">
@@ -14738,7 +14738,7 @@
         <v>2.0</v>
       </c>
       <c r="C499" t="n">
-        <v>58.16832</v>
+        <v>55.559764</v>
       </c>
     </row>
     <row r="500">
@@ -14749,7 +14749,7 @@
         <v>3.0</v>
       </c>
       <c r="C500" t="n">
-        <v>34.945801</v>
+        <v>38.741317</v>
       </c>
     </row>
     <row r="501">
@@ -14760,7 +14760,7 @@
         <v>4.0</v>
       </c>
       <c r="C501" t="n">
-        <v>26.519496</v>
+        <v>27.151715</v>
       </c>
     </row>
     <row r="502">
@@ -14771,7 +14771,7 @@
         <v>5.0</v>
       </c>
       <c r="C502" t="n">
-        <v>22.734561000000003</v>
+        <v>24.6833</v>
       </c>
     </row>
     <row r="503">
@@ -14782,7 +14782,7 @@
         <v>6.0</v>
       </c>
       <c r="C503" t="n">
-        <v>41.63889</v>
+        <v>47.402714</v>
       </c>
     </row>
     <row r="504">
@@ -14793,7 +14793,7 @@
         <v>7.0</v>
       </c>
       <c r="C504" t="n">
-        <v>72.852936</v>
+        <v>77.052837</v>
       </c>
     </row>
     <row r="505">
@@ -14804,7 +14804,7 @@
         <v>8.0</v>
       </c>
       <c r="C505" t="n">
-        <v>95.355242</v>
+        <v>97.915053</v>
       </c>
     </row>
     <row r="506">
@@ -14815,7 +14815,7 @@
         <v>9.0</v>
       </c>
       <c r="C506" t="n">
-        <v>39.853541</v>
+        <v>44.793615</v>
       </c>
     </row>
     <row r="507">
@@ -14826,7 +14826,7 @@
         <v>10.0</v>
       </c>
       <c r="C507" t="n">
-        <v>65.726473</v>
+        <v>66.061726</v>
       </c>
     </row>
     <row r="508">
@@ -14837,7 +14837,7 @@
         <v>11.0</v>
       </c>
       <c r="C508" t="n">
-        <v>36.888981</v>
+        <v>36.378489</v>
       </c>
     </row>
     <row r="509">
@@ -14848,7 +14848,7 @@
         <v>12.0</v>
       </c>
       <c r="C509" t="n">
-        <v>46.262755</v>
+        <v>53.51797</v>
       </c>
     </row>
     <row r="510">
@@ -14859,7 +14859,7 @@
         <v>13.0</v>
       </c>
       <c r="C510" t="n">
-        <v>49.01689</v>
+        <v>50.995073</v>
       </c>
     </row>
     <row r="511">
@@ -14870,7 +14870,7 @@
         <v>14.0</v>
       </c>
       <c r="C511" t="n">
-        <v>60.288171</v>
+        <v>58.772792</v>
       </c>
     </row>
     <row r="512">
@@ -14881,7 +14881,7 @@
         <v>15.0</v>
       </c>
       <c r="C512" t="n">
-        <v>80.284554</v>
+        <v>79.571483</v>
       </c>
     </row>
     <row r="513">
@@ -14892,7 +14892,7 @@
         <v>16.0</v>
       </c>
       <c r="C513" t="n">
-        <v>79.660208</v>
+        <v>77.595646</v>
       </c>
     </row>
     <row r="514">
@@ -14903,7 +14903,7 @@
         <v>17.0</v>
       </c>
       <c r="C514" t="n">
-        <v>54.564402</v>
+        <v>54.47197</v>
       </c>
     </row>
     <row r="515">
@@ -14914,7 +14914,7 @@
         <v>18.0</v>
       </c>
       <c r="C515" t="n">
-        <v>39.530301</v>
+        <v>39.141034</v>
       </c>
     </row>
     <row r="516">
@@ -14936,7 +14936,7 @@
         <v>20.0</v>
       </c>
       <c r="C517" t="n">
-        <v>24.90782</v>
+        <v>27.144256000000002</v>
       </c>
     </row>
     <row r="518">
@@ -14958,7 +14958,7 @@
         <v>22.0</v>
       </c>
       <c r="C519" t="n">
-        <v>2.487523</v>
+        <v>4.05811</v>
       </c>
     </row>
     <row r="520">
@@ -14969,7 +14969,7 @@
         <v>24.0</v>
       </c>
       <c r="C520" t="n">
-        <v>27.901145</v>
+        <v>33.101383</v>
       </c>
     </row>
     <row r="521">
@@ -14980,7 +14980,7 @@
         <v>25.0</v>
       </c>
       <c r="C521" t="n">
-        <v>24.08271</v>
+        <v>23.949035</v>
       </c>
     </row>
     <row r="522">
@@ -14991,7 +14991,7 @@
         <v>26.0</v>
       </c>
       <c r="C522" t="n">
-        <v>26.33424</v>
+        <v>25.191504</v>
       </c>
     </row>
     <row r="523">
@@ -15002,7 +15002,7 @@
         <v>27.0</v>
       </c>
       <c r="C523" t="n">
-        <v>43.207465</v>
+        <v>41.546673</v>
       </c>
     </row>
     <row r="524">
@@ -15013,7 +15013,7 @@
         <v>28.0</v>
       </c>
       <c r="C524" t="n">
-        <v>44.956375</v>
+        <v>43.884313</v>
       </c>
     </row>
     <row r="525">
@@ -15024,7 +15024,7 @@
         <v>29.0</v>
       </c>
       <c r="C525" t="n">
-        <v>23.063196</v>
+        <v>22.689867</v>
       </c>
     </row>
     <row r="526">
@@ -15035,7 +15035,7 @@
         <v>30.0</v>
       </c>
       <c r="C526" t="n">
-        <v>19.162384</v>
+        <v>18.893107</v>
       </c>
     </row>
     <row r="527">
@@ -15079,7 +15079,7 @@
         <v>2.0</v>
       </c>
       <c r="C530" t="n">
-        <v>48.452123</v>
+        <v>50.403650999999996</v>
       </c>
     </row>
     <row r="531">
@@ -15090,7 +15090,7 @@
         <v>3.0</v>
       </c>
       <c r="C531" t="n">
-        <v>42.973154</v>
+        <v>39.106017</v>
       </c>
     </row>
     <row r="532">
@@ -15101,7 +15101,7 @@
         <v>4.0</v>
       </c>
       <c r="C532" t="n">
-        <v>28.098722</v>
+        <v>29.707575000000002</v>
       </c>
     </row>
     <row r="533">
@@ -15112,7 +15112,7 @@
         <v>5.0</v>
       </c>
       <c r="C533" t="n">
-        <v>22.703644</v>
+        <v>24.261067</v>
       </c>
     </row>
     <row r="534">
@@ -15123,7 +15123,7 @@
         <v>6.0</v>
       </c>
       <c r="C534" t="n">
-        <v>39.743362</v>
+        <v>46.944018</v>
       </c>
     </row>
     <row r="535">
@@ -15134,7 +15134,7 @@
         <v>7.0</v>
       </c>
       <c r="C535" t="n">
-        <v>73.323815</v>
+        <v>77.033481</v>
       </c>
     </row>
     <row r="536">
@@ -15145,7 +15145,7 @@
         <v>8.0</v>
       </c>
       <c r="C536" t="n">
-        <v>83.285867</v>
+        <v>84.265044</v>
       </c>
     </row>
     <row r="537">
@@ -15156,7 +15156,7 @@
         <v>9.0</v>
       </c>
       <c r="C537" t="n">
-        <v>52.207654</v>
+        <v>58.382667</v>
       </c>
     </row>
     <row r="538">
@@ -15167,7 +15167,7 @@
         <v>10.0</v>
       </c>
       <c r="C538" t="n">
-        <v>62.602078999999996</v>
+        <v>62.442439</v>
       </c>
     </row>
     <row r="539">
@@ -15178,7 +15178,7 @@
         <v>11.0</v>
       </c>
       <c r="C539" t="n">
-        <v>36.649952</v>
+        <v>36.247771</v>
       </c>
     </row>
     <row r="540">
@@ -15189,7 +15189,7 @@
         <v>12.0</v>
       </c>
       <c r="C540" t="n">
-        <v>45.697981999999996</v>
+        <v>52.993016</v>
       </c>
     </row>
     <row r="541">
@@ -15200,7 +15200,7 @@
         <v>13.0</v>
       </c>
       <c r="C541" t="n">
-        <v>46.614646</v>
+        <v>47.764389</v>
       </c>
     </row>
     <row r="542">
@@ -15211,7 +15211,7 @@
         <v>14.0</v>
       </c>
       <c r="C542" t="n">
-        <v>59.525103</v>
+        <v>58.192398</v>
       </c>
     </row>
     <row r="543">
@@ -15222,7 +15222,7 @@
         <v>15.0</v>
       </c>
       <c r="C543" t="n">
-        <v>79.11926700000001</v>
+        <v>80.817057</v>
       </c>
     </row>
     <row r="544">
@@ -15233,7 +15233,7 @@
         <v>16.0</v>
       </c>
       <c r="C544" t="n">
-        <v>78.347347</v>
+        <v>77.741053</v>
       </c>
     </row>
     <row r="545">
@@ -15244,7 +15244,7 @@
         <v>17.0</v>
       </c>
       <c r="C545" t="n">
-        <v>60.551526</v>
+        <v>59.299059</v>
       </c>
     </row>
     <row r="546">
@@ -15255,7 +15255,7 @@
         <v>18.0</v>
       </c>
       <c r="C546" t="n">
-        <v>39.556915</v>
+        <v>39.154133</v>
       </c>
     </row>
     <row r="547">
@@ -15277,7 +15277,7 @@
         <v>20.0</v>
       </c>
       <c r="C548" t="n">
-        <v>25.874653000000002</v>
+        <v>28.162829000000002</v>
       </c>
     </row>
     <row r="549">
@@ -15288,7 +15288,7 @@
         <v>21.0</v>
       </c>
       <c r="C549" t="n">
-        <v>12.115189</v>
+        <v>11.901711</v>
       </c>
     </row>
     <row r="550">
@@ -15299,7 +15299,7 @@
         <v>22.0</v>
       </c>
       <c r="C550" t="n">
-        <v>2.644962</v>
+        <v>4.252805</v>
       </c>
     </row>
     <row r="551">
@@ -15310,7 +15310,7 @@
         <v>24.0</v>
       </c>
       <c r="C551" t="n">
-        <v>25.251185</v>
+        <v>27.416942</v>
       </c>
     </row>
     <row r="552">
@@ -15321,7 +15321,7 @@
         <v>25.0</v>
       </c>
       <c r="C552" t="n">
-        <v>24.916832</v>
+        <v>24.084119</v>
       </c>
     </row>
     <row r="553">
@@ -15332,7 +15332,7 @@
         <v>26.0</v>
       </c>
       <c r="C553" t="n">
-        <v>26.602553</v>
+        <v>25.699355</v>
       </c>
     </row>
     <row r="554">
@@ -15343,7 +15343,7 @@
         <v>27.0</v>
       </c>
       <c r="C554" t="n">
-        <v>38.419808</v>
+        <v>37.005671</v>
       </c>
     </row>
     <row r="555">
@@ -15354,7 +15354,7 @@
         <v>28.0</v>
       </c>
       <c r="C555" t="n">
-        <v>44.925803</v>
+        <v>44.541913</v>
       </c>
     </row>
     <row r="556">
@@ -15365,7 +15365,7 @@
         <v>29.0</v>
       </c>
       <c r="C556" t="n">
-        <v>27.488794</v>
+        <v>26.979265</v>
       </c>
     </row>
     <row r="557">
@@ -15420,7 +15420,7 @@
         <v>2.0</v>
       </c>
       <c r="C561" t="n">
-        <v>55.287092</v>
+        <v>55.988604</v>
       </c>
     </row>
     <row r="562">
@@ -15431,7 +15431,7 @@
         <v>3.0</v>
       </c>
       <c r="C562" t="n">
-        <v>38.834928</v>
+        <v>39.458698</v>
       </c>
     </row>
     <row r="563">
@@ -15442,7 +15442,7 @@
         <v>4.0</v>
       </c>
       <c r="C563" t="n">
-        <v>27.235632000000003</v>
+        <v>26.820672</v>
       </c>
     </row>
     <row r="564">
@@ -15453,7 +15453,7 @@
         <v>5.0</v>
       </c>
       <c r="C564" t="n">
-        <v>22.860537</v>
+        <v>24.892335</v>
       </c>
     </row>
     <row r="565">
@@ -15464,7 +15464,7 @@
         <v>6.0</v>
       </c>
       <c r="C565" t="n">
-        <v>41.904539</v>
+        <v>48.063016</v>
       </c>
     </row>
     <row r="566">
@@ -15475,7 +15475,7 @@
         <v>7.0</v>
       </c>
       <c r="C566" t="n">
-        <v>70.616319</v>
+        <v>75.86923300000001</v>
       </c>
     </row>
     <row r="567">
@@ -15486,7 +15486,7 @@
         <v>8.0</v>
       </c>
       <c r="C567" t="n">
-        <v>96.250075</v>
+        <v>96.921959</v>
       </c>
     </row>
     <row r="568">
@@ -15497,7 +15497,7 @@
         <v>9.0</v>
       </c>
       <c r="C568" t="n">
-        <v>40.154694</v>
+        <v>40.082606</v>
       </c>
     </row>
     <row r="569">
@@ -15508,7 +15508,7 @@
         <v>10.0</v>
       </c>
       <c r="C569" t="n">
-        <v>65.758045</v>
+        <v>65.535776</v>
       </c>
     </row>
     <row r="570">
@@ -15519,7 +15519,7 @@
         <v>11.0</v>
       </c>
       <c r="C570" t="n">
-        <v>38.444972</v>
+        <v>37.445996</v>
       </c>
     </row>
     <row r="571">
@@ -15530,7 +15530,7 @@
         <v>12.0</v>
       </c>
       <c r="C571" t="n">
-        <v>45.463971</v>
+        <v>53.388418</v>
       </c>
     </row>
     <row r="572">
@@ -15541,7 +15541,7 @@
         <v>13.0</v>
       </c>
       <c r="C572" t="n">
-        <v>67.917382</v>
+        <v>69.157601</v>
       </c>
     </row>
     <row r="573">
@@ -15552,7 +15552,7 @@
         <v>14.0</v>
       </c>
       <c r="C573" t="n">
-        <v>69.378299</v>
+        <v>69.497169</v>
       </c>
     </row>
     <row r="574">
@@ -15563,7 +15563,7 @@
         <v>15.0</v>
       </c>
       <c r="C574" t="n">
-        <v>81.081997</v>
+        <v>80.15821</v>
       </c>
     </row>
     <row r="575">
@@ -15574,7 +15574,7 @@
         <v>16.0</v>
       </c>
       <c r="C575" t="n">
-        <v>80.57322</v>
+        <v>78.808346</v>
       </c>
     </row>
     <row r="576">
@@ -15585,7 +15585,7 @@
         <v>17.0</v>
       </c>
       <c r="C576" t="n">
-        <v>52.791807000000006</v>
+        <v>53.419396</v>
       </c>
     </row>
     <row r="577">
@@ -15596,7 +15596,7 @@
         <v>18.0</v>
       </c>
       <c r="C577" t="n">
-        <v>37.939567000000004</v>
+        <v>37.506792000000004</v>
       </c>
     </row>
     <row r="578">
@@ -15618,7 +15618,7 @@
         <v>20.0</v>
       </c>
       <c r="C579" t="n">
-        <v>24.030518</v>
+        <v>26.473674000000003</v>
       </c>
     </row>
     <row r="580">
@@ -15629,7 +15629,7 @@
         <v>21.0</v>
       </c>
       <c r="C580" t="n">
-        <v>11.684244</v>
+        <v>11.436912</v>
       </c>
     </row>
     <row r="581">
@@ -15640,7 +15640,7 @@
         <v>22.0</v>
       </c>
       <c r="C581" t="n">
-        <v>2.822234</v>
+        <v>4.390861</v>
       </c>
     </row>
     <row r="582">
@@ -15651,7 +15651,7 @@
         <v>24.0</v>
       </c>
       <c r="C582" t="n">
-        <v>26.196019</v>
+        <v>31.87833</v>
       </c>
     </row>
     <row r="583">
@@ -15662,7 +15662,7 @@
         <v>25.0</v>
       </c>
       <c r="C583" t="n">
-        <v>24.690368</v>
+        <v>23.953768</v>
       </c>
     </row>
     <row r="584">
@@ -15673,7 +15673,7 @@
         <v>26.0</v>
       </c>
       <c r="C584" t="n">
-        <v>26.665952</v>
+        <v>25.833538</v>
       </c>
     </row>
     <row r="585">
@@ -15684,7 +15684,7 @@
         <v>27.0</v>
       </c>
       <c r="C585" t="n">
-        <v>43.235816</v>
+        <v>41.777317000000004</v>
       </c>
     </row>
     <row r="586">
@@ -15695,7 +15695,7 @@
         <v>28.0</v>
       </c>
       <c r="C586" t="n">
-        <v>43.849264</v>
+        <v>43.047585</v>
       </c>
     </row>
     <row r="587">
@@ -15706,7 +15706,7 @@
         <v>29.0</v>
       </c>
       <c r="C587" t="n">
-        <v>22.284061</v>
+        <v>22.056722</v>
       </c>
     </row>
     <row r="588">
@@ -15728,7 +15728,7 @@
         <v>31.0</v>
       </c>
       <c r="C589" t="n">
-        <v>3.790712</v>
+        <v>3.92338</v>
       </c>
     </row>
     <row r="590">
@@ -15739,7 +15739,7 @@
         <v>32.0</v>
       </c>
       <c r="C590" t="n">
-        <v>30.301878</v>
+        <v>32.28261</v>
       </c>
     </row>
     <row r="591">
@@ -15761,7 +15761,7 @@
         <v>2.0</v>
       </c>
       <c r="C592" t="n">
-        <v>48.524497</v>
+        <v>49.783635</v>
       </c>
     </row>
     <row r="593">
@@ -15772,7 +15772,7 @@
         <v>3.0</v>
       </c>
       <c r="C593" t="n">
-        <v>40.239852</v>
+        <v>36.928853</v>
       </c>
     </row>
     <row r="594">
@@ -15783,7 +15783,7 @@
         <v>4.0</v>
       </c>
       <c r="C594" t="n">
-        <v>27.231351</v>
+        <v>28.938999</v>
       </c>
     </row>
     <row r="595">
@@ -15794,7 +15794,7 @@
         <v>5.0</v>
       </c>
       <c r="C595" t="n">
-        <v>22.798528</v>
+        <v>27.732174</v>
       </c>
     </row>
     <row r="596">
@@ -15805,7 +15805,7 @@
         <v>6.0</v>
       </c>
       <c r="C596" t="n">
-        <v>41.353521</v>
+        <v>48.068203</v>
       </c>
     </row>
     <row r="597">
@@ -15816,7 +15816,7 @@
         <v>7.0</v>
       </c>
       <c r="C597" t="n">
-        <v>72.47125</v>
+        <v>77.441631</v>
       </c>
     </row>
     <row r="598">
@@ -15827,7 +15827,7 @@
         <v>8.0</v>
       </c>
       <c r="C598" t="n">
-        <v>85.739708</v>
+        <v>86.724924</v>
       </c>
     </row>
     <row r="599">
@@ -15838,7 +15838,7 @@
         <v>9.0</v>
       </c>
       <c r="C599" t="n">
-        <v>50.491463</v>
+        <v>55.866287</v>
       </c>
     </row>
     <row r="600">
@@ -15849,7 +15849,7 @@
         <v>10.0</v>
       </c>
       <c r="C600" t="n">
-        <v>69.685913</v>
+        <v>72.942446</v>
       </c>
     </row>
     <row r="601">
@@ -15860,7 +15860,7 @@
         <v>11.0</v>
       </c>
       <c r="C601" t="n">
-        <v>38.112976</v>
+        <v>37.841195</v>
       </c>
     </row>
     <row r="602">
@@ -15871,7 +15871,7 @@
         <v>12.0</v>
       </c>
       <c r="C602" t="n">
-        <v>51.517496</v>
+        <v>61.339759</v>
       </c>
     </row>
     <row r="603">
@@ -15882,7 +15882,7 @@
         <v>13.0</v>
       </c>
       <c r="C603" t="n">
-        <v>71.826087</v>
+        <v>75.613284</v>
       </c>
     </row>
     <row r="604">
@@ -15893,7 +15893,7 @@
         <v>14.0</v>
       </c>
       <c r="C604" t="n">
-        <v>81.054406</v>
+        <v>79.414615</v>
       </c>
     </row>
     <row r="605">
@@ -15904,7 +15904,7 @@
         <v>15.0</v>
       </c>
       <c r="C605" t="n">
-        <v>78.773152</v>
+        <v>77.924597</v>
       </c>
     </row>
     <row r="606">
@@ -15915,7 +15915,7 @@
         <v>16.0</v>
       </c>
       <c r="C606" t="n">
-        <v>79.171165</v>
+        <v>77.979557</v>
       </c>
     </row>
     <row r="607">
@@ -15926,7 +15926,7 @@
         <v>17.0</v>
       </c>
       <c r="C607" t="n">
-        <v>59.463492</v>
+        <v>61.435368</v>
       </c>
     </row>
     <row r="608">
@@ -15937,7 +15937,7 @@
         <v>18.0</v>
       </c>
       <c r="C608" t="n">
-        <v>39.36985</v>
+        <v>38.851794999999996</v>
       </c>
     </row>
     <row r="609">
@@ -15959,7 +15959,7 @@
         <v>20.0</v>
       </c>
       <c r="C610" t="n">
-        <v>29.114497999999998</v>
+        <v>32.373855</v>
       </c>
     </row>
     <row r="611">
@@ -15981,7 +15981,7 @@
         <v>22.0</v>
       </c>
       <c r="C612" t="n">
-        <v>2.871729</v>
+        <v>4.440847</v>
       </c>
     </row>
     <row r="613">
@@ -15992,7 +15992,7 @@
         <v>24.0</v>
       </c>
       <c r="C613" t="n">
-        <v>24.412478999999998</v>
+        <v>28.538493</v>
       </c>
     </row>
     <row r="614">
@@ -16003,7 +16003,7 @@
         <v>25.0</v>
       </c>
       <c r="C614" t="n">
-        <v>24.186554</v>
+        <v>23.872927</v>
       </c>
     </row>
     <row r="615">
@@ -16014,7 +16014,7 @@
         <v>26.0</v>
       </c>
       <c r="C615" t="n">
-        <v>26.518242</v>
+        <v>25.687731</v>
       </c>
     </row>
     <row r="616">
@@ -16025,7 +16025,7 @@
         <v>27.0</v>
       </c>
       <c r="C616" t="n">
-        <v>38.602075</v>
+        <v>37.734682</v>
       </c>
     </row>
     <row r="617">
@@ -16047,7 +16047,7 @@
         <v>29.0</v>
       </c>
       <c r="C618" t="n">
-        <v>27.399607</v>
+        <v>26.842792</v>
       </c>
     </row>
     <row r="619">
@@ -16069,7 +16069,7 @@
         <v>31.0</v>
       </c>
       <c r="C620" t="n">
-        <v>2.682766</v>
+        <v>2.729556</v>
       </c>
     </row>
     <row r="621">
@@ -16080,7 +16080,7 @@
         <v>32.0</v>
       </c>
       <c r="C621" t="n">
-        <v>31.642878</v>
+        <v>32.452056</v>
       </c>
     </row>
     <row r="622">
@@ -16102,7 +16102,7 @@
         <v>2.0</v>
       </c>
       <c r="C623" t="n">
-        <v>56.210477</v>
+        <v>53.842721</v>
       </c>
     </row>
     <row r="624">
@@ -16113,7 +16113,7 @@
         <v>3.0</v>
       </c>
       <c r="C624" t="n">
-        <v>34.162521</v>
+        <v>37.127748</v>
       </c>
     </row>
     <row r="625">
@@ -16135,7 +16135,7 @@
         <v>5.0</v>
       </c>
       <c r="C626" t="n">
-        <v>29.821979999999996</v>
+        <v>31.696795</v>
       </c>
     </row>
     <row r="627">
@@ -16146,7 +16146,7 @@
         <v>6.0</v>
       </c>
       <c r="C627" t="n">
-        <v>42.048897000000004</v>
+        <v>48.660809</v>
       </c>
     </row>
     <row r="628">
@@ -16157,7 +16157,7 @@
         <v>7.0</v>
       </c>
       <c r="C628" t="n">
-        <v>72.699886</v>
+        <v>76.499621</v>
       </c>
     </row>
     <row r="629">
@@ -16168,7 +16168,7 @@
         <v>8.0</v>
       </c>
       <c r="C629" t="n">
-        <v>95.69895600000001</v>
+        <v>95.657011</v>
       </c>
     </row>
     <row r="630">
@@ -16190,7 +16190,7 @@
         <v>10.0</v>
       </c>
       <c r="C631" t="n">
-        <v>78.096786</v>
+        <v>81.356784</v>
       </c>
     </row>
     <row r="632">
@@ -16212,7 +16212,7 @@
         <v>12.0</v>
       </c>
       <c r="C633" t="n">
-        <v>50.24286</v>
+        <v>62.356044</v>
       </c>
     </row>
     <row r="634">
@@ -16223,7 +16223,7 @@
         <v>13.0</v>
       </c>
       <c r="C634" t="n">
-        <v>71.059958</v>
+        <v>75.973223</v>
       </c>
     </row>
     <row r="635">
@@ -16234,7 +16234,7 @@
         <v>14.0</v>
       </c>
       <c r="C635" t="n">
-        <v>98.213057</v>
+        <v>78.199719</v>
       </c>
     </row>
     <row r="636">
@@ -16245,7 +16245,7 @@
         <v>15.0</v>
       </c>
       <c r="C636" t="n">
-        <v>62.374584</v>
+        <v>79.895161</v>
       </c>
     </row>
     <row r="637">
@@ -16256,7 +16256,7 @@
         <v>16.0</v>
       </c>
       <c r="C637" t="n">
-        <v>79.569779</v>
+        <v>78.788583</v>
       </c>
     </row>
     <row r="638">
@@ -16267,7 +16267,7 @@
         <v>17.0</v>
       </c>
       <c r="C638" t="n">
-        <v>55.193493000000004</v>
+        <v>53.912884</v>
       </c>
     </row>
     <row r="639">
@@ -16278,7 +16278,7 @@
         <v>18.0</v>
       </c>
       <c r="C639" t="n">
-        <v>39.060658000000004</v>
+        <v>38.741958</v>
       </c>
     </row>
     <row r="640">
@@ -16300,7 +16300,7 @@
         <v>20.0</v>
       </c>
       <c r="C641" t="n">
-        <v>25.570917</v>
+        <v>27.296783</v>
       </c>
     </row>
     <row r="642">
@@ -16322,7 +16322,7 @@
         <v>22.0</v>
       </c>
       <c r="C643" t="n">
-        <v>2.737373</v>
+        <v>4.388628</v>
       </c>
     </row>
     <row r="644">
@@ -16333,7 +16333,7 @@
         <v>24.0</v>
       </c>
       <c r="C644" t="n">
-        <v>25.648612</v>
+        <v>29.405442</v>
       </c>
     </row>
     <row r="645">
@@ -16344,7 +16344,7 @@
         <v>25.0</v>
       </c>
       <c r="C645" t="n">
-        <v>24.674222</v>
+        <v>23.812853</v>
       </c>
     </row>
     <row r="646">
@@ -16355,7 +16355,7 @@
         <v>26.0</v>
       </c>
       <c r="C646" t="n">
-        <v>25.91319</v>
+        <v>25.112171</v>
       </c>
     </row>
     <row r="647">
@@ -16366,7 +16366,7 @@
         <v>27.0</v>
       </c>
       <c r="C647" t="n">
-        <v>43.270255000000006</v>
+        <v>41.855869</v>
       </c>
     </row>
     <row r="648">
@@ -16377,7 +16377,7 @@
         <v>28.0</v>
       </c>
       <c r="C648" t="n">
-        <v>44.319964</v>
+        <v>43.967265</v>
       </c>
     </row>
     <row r="649">
@@ -16388,7 +16388,7 @@
         <v>29.0</v>
       </c>
       <c r="C649" t="n">
-        <v>23.361378000000002</v>
+        <v>22.781368999999998</v>
       </c>
     </row>
     <row r="650">
@@ -16421,7 +16421,7 @@
         <v>32.0</v>
       </c>
       <c r="C652" t="n">
-        <v>30.634062</v>
+        <v>30.886660000000003</v>
       </c>
     </row>
     <row r="653">
@@ -16443,7 +16443,7 @@
         <v>2.0</v>
       </c>
       <c r="C654" t="n">
-        <v>67.652368</v>
+        <v>48.725331000000004</v>
       </c>
     </row>
     <row r="655">
@@ -16454,7 +16454,7 @@
         <v>3.0</v>
       </c>
       <c r="C655" t="n">
-        <v>18.548768000000003</v>
+        <v>36.599407</v>
       </c>
     </row>
     <row r="656">
@@ -16465,7 +16465,7 @@
         <v>4.0</v>
       </c>
       <c r="C656" t="n">
-        <v>26.305349999999997</v>
+        <v>27.982054</v>
       </c>
     </row>
     <row r="657">
@@ -16476,7 +16476,7 @@
         <v>5.0</v>
       </c>
       <c r="C657" t="n">
-        <v>29.527647</v>
+        <v>31.066961</v>
       </c>
     </row>
     <row r="658">
@@ -16487,7 +16487,7 @@
         <v>6.0</v>
       </c>
       <c r="C658" t="n">
-        <v>41.028033</v>
+        <v>48.475711000000004</v>
       </c>
     </row>
     <row r="659">
@@ -16498,7 +16498,7 @@
         <v>7.0</v>
       </c>
       <c r="C659" t="n">
-        <v>75.758383</v>
+        <v>80.765075</v>
       </c>
     </row>
     <row r="660">
@@ -16509,7 +16509,7 @@
         <v>8.0</v>
       </c>
       <c r="C660" t="n">
-        <v>90.150357</v>
+        <v>91.635059</v>
       </c>
     </row>
     <row r="661">
@@ -16520,7 +16520,7 @@
         <v>9.0</v>
       </c>
       <c r="C661" t="n">
-        <v>48.488494</v>
+        <v>52.876391</v>
       </c>
     </row>
     <row r="662">
@@ -16531,7 +16531,7 @@
         <v>10.0</v>
       </c>
       <c r="C662" t="n">
-        <v>78.003408</v>
+        <v>81.633888</v>
       </c>
     </row>
     <row r="663">
@@ -16542,7 +16542,7 @@
         <v>11.0</v>
       </c>
       <c r="C663" t="n">
-        <v>38.23298</v>
+        <v>37.853071</v>
       </c>
     </row>
     <row r="664">
@@ -16553,7 +16553,7 @@
         <v>12.0</v>
       </c>
       <c r="C664" t="n">
-        <v>44.909799</v>
+        <v>58.089679</v>
       </c>
     </row>
     <row r="665">
@@ -16564,7 +16564,7 @@
         <v>13.0</v>
       </c>
       <c r="C665" t="n">
-        <v>75.832684</v>
+        <v>79.789114</v>
       </c>
     </row>
     <row r="666">
@@ -16575,7 +16575,7 @@
         <v>14.0</v>
       </c>
       <c r="C666" t="n">
-        <v>90.6731</v>
+        <v>94.037998</v>
       </c>
     </row>
     <row r="667">
@@ -16586,7 +16586,7 @@
         <v>15.0</v>
       </c>
       <c r="C667" t="n">
-        <v>100.794382</v>
+        <v>80.448335</v>
       </c>
     </row>
     <row r="668">
@@ -16597,7 +16597,7 @@
         <v>16.0</v>
       </c>
       <c r="C668" t="n">
-        <v>62.423389</v>
+        <v>80.12624</v>
       </c>
     </row>
     <row r="669">
@@ -16608,7 +16608,7 @@
         <v>17.0</v>
       </c>
       <c r="C669" t="n">
-        <v>56.930186</v>
+        <v>60.532592</v>
       </c>
     </row>
     <row r="670">
@@ -16619,7 +16619,7 @@
         <v>18.0</v>
       </c>
       <c r="C670" t="n">
-        <v>36.457938999999996</v>
+        <v>36.144556</v>
       </c>
     </row>
     <row r="671">
@@ -16641,7 +16641,7 @@
         <v>20.0</v>
       </c>
       <c r="C672" t="n">
-        <v>25.870162</v>
+        <v>28.765397</v>
       </c>
     </row>
     <row r="673">
@@ -16663,7 +16663,7 @@
         <v>22.0</v>
       </c>
       <c r="C674" t="n">
-        <v>2.695992</v>
+        <v>4.186704</v>
       </c>
     </row>
     <row r="675">
@@ -16674,7 +16674,7 @@
         <v>24.0</v>
       </c>
       <c r="C675" t="n">
-        <v>45.415249</v>
+        <v>29.481443</v>
       </c>
     </row>
     <row r="676">
@@ -16685,7 +16685,7 @@
         <v>25.0</v>
       </c>
       <c r="C676" t="n">
-        <v>5.827127</v>
+        <v>24.332402000000002</v>
       </c>
     </row>
     <row r="677">
@@ -16696,7 +16696,7 @@
         <v>26.0</v>
       </c>
       <c r="C677" t="n">
-        <v>26.500034</v>
+        <v>25.736452</v>
       </c>
     </row>
     <row r="678">
@@ -16707,7 +16707,7 @@
         <v>27.0</v>
       </c>
       <c r="C678" t="n">
-        <v>41.384355</v>
+        <v>40.148924</v>
       </c>
     </row>
     <row r="679">
@@ -16718,7 +16718,7 @@
         <v>28.0</v>
       </c>
       <c r="C679" t="n">
-        <v>44.736533</v>
+        <v>44.540561000000004</v>
       </c>
     </row>
     <row r="680">
@@ -16729,7 +16729,7 @@
         <v>29.0</v>
       </c>
       <c r="C680" t="n">
-        <v>25.649032</v>
+        <v>25.180731</v>
       </c>
     </row>
     <row r="681">
@@ -16784,7 +16784,7 @@
         <v>2.0</v>
       </c>
       <c r="C685" t="n">
-        <v>51.655369</v>
+        <v>49.106349</v>
       </c>
     </row>
     <row r="686">
@@ -16795,7 +16795,7 @@
         <v>3.0</v>
       </c>
       <c r="C686" t="n">
-        <v>33.886682</v>
+        <v>36.496096</v>
       </c>
     </row>
     <row r="687">
@@ -16806,7 +16806,7 @@
         <v>4.0</v>
       </c>
       <c r="C687" t="n">
-        <v>26.575901</v>
+        <v>27.959019</v>
       </c>
     </row>
     <row r="688">
@@ -16817,7 +16817,7 @@
         <v>5.0</v>
       </c>
       <c r="C688" t="n">
-        <v>29.292507</v>
+        <v>30.66811</v>
       </c>
     </row>
     <row r="689">
@@ -16828,7 +16828,7 @@
         <v>6.0</v>
       </c>
       <c r="C689" t="n">
-        <v>51.560614</v>
+        <v>51.458102</v>
       </c>
     </row>
     <row r="690">
@@ -16839,7 +16839,7 @@
         <v>7.0</v>
       </c>
       <c r="C690" t="n">
-        <v>69.542588</v>
+        <v>82.515618</v>
       </c>
     </row>
     <row r="691">
@@ -16850,7 +16850,7 @@
         <v>8.0</v>
       </c>
       <c r="C691" t="n">
-        <v>97.893419</v>
+        <v>99.400036</v>
       </c>
     </row>
     <row r="692">
@@ -16861,7 +16861,7 @@
         <v>9.0</v>
       </c>
       <c r="C692" t="n">
-        <v>39.757776</v>
+        <v>40.747535</v>
       </c>
     </row>
     <row r="693">
@@ -16872,7 +16872,7 @@
         <v>10.0</v>
       </c>
       <c r="C693" t="n">
-        <v>79.713958</v>
+        <v>83.159446</v>
       </c>
     </row>
     <row r="694">
@@ -16894,7 +16894,7 @@
         <v>12.0</v>
       </c>
       <c r="C695" t="n">
-        <v>51.126759</v>
+        <v>62.297042</v>
       </c>
     </row>
     <row r="696">
@@ -16905,7 +16905,7 @@
         <v>13.0</v>
       </c>
       <c r="C696" t="n">
-        <v>73.840575</v>
+        <v>77.263963</v>
       </c>
     </row>
     <row r="697">
@@ -16916,7 +16916,7 @@
         <v>14.0</v>
       </c>
       <c r="C697" t="n">
-        <v>91.58126</v>
+        <v>94.375</v>
       </c>
     </row>
     <row r="698">
@@ -16927,7 +16927,7 @@
         <v>15.0</v>
       </c>
       <c r="C698" t="n">
-        <v>106.814815</v>
+        <v>82.294962</v>
       </c>
     </row>
     <row r="699">
@@ -16938,7 +16938,7 @@
         <v>16.0</v>
       </c>
       <c r="C699" t="n">
-        <v>58.023157</v>
+        <v>79.126832</v>
       </c>
     </row>
     <row r="700">
@@ -16949,7 +16949,7 @@
         <v>17.0</v>
       </c>
       <c r="C700" t="n">
-        <v>55.30758</v>
+        <v>53.798454</v>
       </c>
     </row>
     <row r="701">
@@ -16960,7 +16960,7 @@
         <v>18.0</v>
       </c>
       <c r="C701" t="n">
-        <v>37.541009</v>
+        <v>37.186059</v>
       </c>
     </row>
     <row r="702">
@@ -16982,7 +16982,7 @@
         <v>20.0</v>
       </c>
       <c r="C703" t="n">
-        <v>24.742116</v>
+        <v>26.332684</v>
       </c>
     </row>
     <row r="704">
@@ -17004,7 +17004,7 @@
         <v>22.0</v>
       </c>
       <c r="C705" t="n">
-        <v>2.727419</v>
+        <v>4.180517999999999</v>
       </c>
     </row>
     <row r="706">
@@ -17015,7 +17015,7 @@
         <v>24.0</v>
       </c>
       <c r="C706" t="n">
-        <v>26.652196</v>
+        <v>30.132971</v>
       </c>
     </row>
     <row r="707">
@@ -17026,7 +17026,7 @@
         <v>25.0</v>
       </c>
       <c r="C707" t="n">
-        <v>24.764728</v>
+        <v>23.866271</v>
       </c>
     </row>
     <row r="708">
@@ -17037,7 +17037,7 @@
         <v>26.0</v>
       </c>
       <c r="C708" t="n">
-        <v>26.355346</v>
+        <v>25.445364</v>
       </c>
     </row>
     <row r="709">
@@ -17048,7 +17048,7 @@
         <v>27.0</v>
       </c>
       <c r="C709" t="n">
-        <v>42.802962</v>
+        <v>42.249576</v>
       </c>
     </row>
     <row r="710">
@@ -17059,7 +17059,7 @@
         <v>28.0</v>
       </c>
       <c r="C710" t="n">
-        <v>43.599160999999995</v>
+        <v>42.086965</v>
       </c>
     </row>
     <row r="711">
@@ -17070,7 +17070,7 @@
         <v>29.0</v>
       </c>
       <c r="C711" t="n">
-        <v>23.365359</v>
+        <v>22.93363</v>
       </c>
     </row>
     <row r="712">
@@ -17103,7 +17103,7 @@
         <v>32.0</v>
       </c>
       <c r="C714" t="n">
-        <v>32.017756</v>
+        <v>33.090591</v>
       </c>
     </row>
     <row r="715">
@@ -17125,7 +17125,7 @@
         <v>2.0</v>
       </c>
       <c r="C716" t="n">
-        <v>52.540075</v>
+        <v>48.901459</v>
       </c>
     </row>
     <row r="717">
@@ -17136,7 +17136,7 @@
         <v>3.0</v>
       </c>
       <c r="C717" t="n">
-        <v>34.510169</v>
+        <v>36.874674999999996</v>
       </c>
     </row>
     <row r="718">
@@ -17147,7 +17147,7 @@
         <v>4.0</v>
       </c>
       <c r="C718" t="n">
-        <v>26.358955</v>
+        <v>28.183870000000002</v>
       </c>
     </row>
     <row r="719">
@@ -17158,7 +17158,7 @@
         <v>5.0</v>
       </c>
       <c r="C719" t="n">
-        <v>32.561943</v>
+        <v>33.506356000000004</v>
       </c>
     </row>
     <row r="720">
@@ -17169,7 +17169,7 @@
         <v>6.0</v>
       </c>
       <c r="C720" t="n">
-        <v>43.787971</v>
+        <v>50.721661000000005</v>
       </c>
     </row>
     <row r="721">
@@ -17180,7 +17180,7 @@
         <v>7.0</v>
       </c>
       <c r="C721" t="n">
-        <v>77.416572</v>
+        <v>83.598812</v>
       </c>
     </row>
     <row r="722">
@@ -17191,7 +17191,7 @@
         <v>8.0</v>
       </c>
       <c r="C722" t="n">
-        <v>90.024882</v>
+        <v>90.73581300000001</v>
       </c>
     </row>
     <row r="723">
@@ -17202,7 +17202,7 @@
         <v>9.0</v>
       </c>
       <c r="C723" t="n">
-        <v>50.223004</v>
+        <v>52.152791</v>
       </c>
     </row>
     <row r="724">
@@ -17213,7 +17213,7 @@
         <v>10.0</v>
       </c>
       <c r="C724" t="n">
-        <v>78.40665800000001</v>
+        <v>82.33292</v>
       </c>
     </row>
     <row r="725">
@@ -17224,7 +17224,7 @@
         <v>11.0</v>
       </c>
       <c r="C725" t="n">
-        <v>38.542259</v>
+        <v>39.797774</v>
       </c>
     </row>
     <row r="726">
@@ -17235,7 +17235,7 @@
         <v>12.0</v>
       </c>
       <c r="C726" t="n">
-        <v>46.115172</v>
+        <v>60.80502</v>
       </c>
     </row>
     <row r="727">
@@ -17246,7 +17246,7 @@
         <v>13.0</v>
       </c>
       <c r="C727" t="n">
-        <v>73.852462</v>
+        <v>76.87473</v>
       </c>
     </row>
     <row r="728">
@@ -17257,7 +17257,7 @@
         <v>14.0</v>
       </c>
       <c r="C728" t="n">
-        <v>96.287733</v>
+        <v>94.762055</v>
       </c>
     </row>
     <row r="729">
@@ -17268,7 +17268,7 @@
         <v>15.0</v>
       </c>
       <c r="C729" t="n">
-        <v>101.708023</v>
+        <v>82.064384</v>
       </c>
     </row>
     <row r="730">
@@ -17279,7 +17279,7 @@
         <v>16.0</v>
       </c>
       <c r="C730" t="n">
-        <v>60.486058</v>
+        <v>78.997664</v>
       </c>
     </row>
     <row r="731">
@@ -17290,7 +17290,7 @@
         <v>17.0</v>
       </c>
       <c r="C731" t="n">
-        <v>56.662893</v>
+        <v>58.694824</v>
       </c>
     </row>
     <row r="732">
@@ -17301,7 +17301,7 @@
         <v>18.0</v>
       </c>
       <c r="C732" t="n">
-        <v>38.316864</v>
+        <v>37.803925</v>
       </c>
     </row>
     <row r="733">
@@ -17323,7 +17323,7 @@
         <v>20.0</v>
       </c>
       <c r="C734" t="n">
-        <v>26.689473</v>
+        <v>29.238259</v>
       </c>
     </row>
     <row r="735">
@@ -17334,7 +17334,7 @@
         <v>21.0</v>
       </c>
       <c r="C735" t="n">
-        <v>12.080573000000001</v>
+        <v>12.889025</v>
       </c>
     </row>
     <row r="736">
@@ -17345,7 +17345,7 @@
         <v>22.0</v>
       </c>
       <c r="C736" t="n">
-        <v>2.738502</v>
+        <v>4.387427</v>
       </c>
     </row>
     <row r="737">
@@ -17356,7 +17356,7 @@
         <v>24.0</v>
       </c>
       <c r="C737" t="n">
-        <v>26.199019</v>
+        <v>30.451571</v>
       </c>
     </row>
     <row r="738">
@@ -17367,7 +17367,7 @@
         <v>25.0</v>
       </c>
       <c r="C738" t="n">
-        <v>24.935469</v>
+        <v>23.874405</v>
       </c>
     </row>
     <row r="739">
@@ -17378,7 +17378,7 @@
         <v>26.0</v>
       </c>
       <c r="C739" t="n">
-        <v>26.02712</v>
+        <v>25.239662000000003</v>
       </c>
     </row>
     <row r="740">
@@ -17389,7 +17389,7 @@
         <v>27.0</v>
       </c>
       <c r="C740" t="n">
-        <v>41.496057</v>
+        <v>40.450494</v>
       </c>
     </row>
     <row r="741">
@@ -17400,7 +17400,7 @@
         <v>28.0</v>
       </c>
       <c r="C741" t="n">
-        <v>44.088085</v>
+        <v>43.376697</v>
       </c>
     </row>
     <row r="742">
@@ -17411,7 +17411,7 @@
         <v>29.0</v>
       </c>
       <c r="C742" t="n">
-        <v>25.940653</v>
+        <v>25.506088</v>
       </c>
     </row>
     <row r="743">
@@ -17444,7 +17444,7 @@
         <v>32.0</v>
       </c>
       <c r="C745" t="n">
-        <v>30.675581</v>
+        <v>31.48494</v>
       </c>
     </row>
     <row r="746">
@@ -17466,7 +17466,7 @@
         <v>2.0</v>
       </c>
       <c r="C747" t="n">
-        <v>51.194818</v>
+        <v>50.519127</v>
       </c>
     </row>
     <row r="748">
@@ -17477,7 +17477,7 @@
         <v>3.0</v>
       </c>
       <c r="C748" t="n">
-        <v>33.504198</v>
+        <v>36.356668</v>
       </c>
     </row>
     <row r="749">
@@ -17488,7 +17488,7 @@
         <v>4.0</v>
       </c>
       <c r="C749" t="n">
-        <v>46.129269</v>
+        <v>27.069213</v>
       </c>
     </row>
     <row r="750">
@@ -17499,7 +17499,7 @@
         <v>5.0</v>
       </c>
       <c r="C750" t="n">
-        <v>16.016485</v>
+        <v>37.290721</v>
       </c>
     </row>
     <row r="751">
@@ -17510,7 +17510,7 @@
         <v>6.0</v>
       </c>
       <c r="C751" t="n">
-        <v>45.478388</v>
+        <v>56.094478</v>
       </c>
     </row>
     <row r="752">
@@ -17521,7 +17521,7 @@
         <v>7.0</v>
       </c>
       <c r="C752" t="n">
-        <v>85.343067</v>
+        <v>89.743057</v>
       </c>
     </row>
     <row r="753">
@@ -17532,7 +17532,7 @@
         <v>8.0</v>
       </c>
       <c r="C753" t="n">
-        <v>97.491297</v>
+        <v>98.236392</v>
       </c>
     </row>
     <row r="754">
@@ -17543,7 +17543,7 @@
         <v>9.0</v>
       </c>
       <c r="C754" t="n">
-        <v>39.509904</v>
+        <v>40.606173</v>
       </c>
     </row>
     <row r="755">
@@ -17554,7 +17554,7 @@
         <v>10.0</v>
       </c>
       <c r="C755" t="n">
-        <v>79.028802</v>
+        <v>82.248422</v>
       </c>
     </row>
     <row r="756">
@@ -17576,7 +17576,7 @@
         <v>12.0</v>
       </c>
       <c r="C757" t="n">
-        <v>51.337309</v>
+        <v>60.970729</v>
       </c>
     </row>
     <row r="758">
@@ -17587,7 +17587,7 @@
         <v>13.0</v>
       </c>
       <c r="C758" t="n">
-        <v>72.859284</v>
+        <v>76.679828</v>
       </c>
     </row>
     <row r="759">
@@ -17598,7 +17598,7 @@
         <v>14.0</v>
       </c>
       <c r="C759" t="n">
-        <v>91.368362</v>
+        <v>93.037074</v>
       </c>
     </row>
     <row r="760">
@@ -17609,7 +17609,7 @@
         <v>15.0</v>
       </c>
       <c r="C760" t="n">
-        <v>84.294141</v>
+        <v>82.7681</v>
       </c>
     </row>
     <row r="761">
@@ -17620,7 +17620,7 @@
         <v>16.0</v>
       </c>
       <c r="C761" t="n">
-        <v>80.550172</v>
+        <v>81.180767</v>
       </c>
     </row>
     <row r="762">
@@ -17631,7 +17631,7 @@
         <v>17.0</v>
       </c>
       <c r="C762" t="n">
-        <v>55.051999</v>
+        <v>53.691207</v>
       </c>
     </row>
     <row r="763">
@@ -17642,7 +17642,7 @@
         <v>18.0</v>
       </c>
       <c r="C763" t="n">
-        <v>37.712014</v>
+        <v>37.356318</v>
       </c>
     </row>
     <row r="764">
@@ -17664,7 +17664,7 @@
         <v>20.0</v>
       </c>
       <c r="C765" t="n">
-        <v>26.058146999999998</v>
+        <v>27.671494</v>
       </c>
     </row>
     <row r="766">
@@ -17675,7 +17675,7 @@
         <v>21.0</v>
       </c>
       <c r="C766" t="n">
-        <v>12.087223</v>
+        <v>12.761915</v>
       </c>
     </row>
     <row r="767">
@@ -17686,7 +17686,7 @@
         <v>22.0</v>
       </c>
       <c r="C767" t="n">
-        <v>3.071911</v>
+        <v>4.410425</v>
       </c>
     </row>
     <row r="768">
@@ -17697,7 +17697,7 @@
         <v>24.0</v>
       </c>
       <c r="C768" t="n">
-        <v>45.169007</v>
+        <v>30.987282999999998</v>
       </c>
     </row>
     <row r="769">
@@ -17708,7 +17708,7 @@
         <v>25.0</v>
       </c>
       <c r="C769" t="n">
-        <v>6.012537</v>
+        <v>24.373703999999996</v>
       </c>
     </row>
     <row r="770">
@@ -17719,7 +17719,7 @@
         <v>26.0</v>
       </c>
       <c r="C770" t="n">
-        <v>26.577201</v>
+        <v>25.748025</v>
       </c>
     </row>
     <row r="771">
@@ -17730,7 +17730,7 @@
         <v>27.0</v>
       </c>
       <c r="C771" t="n">
-        <v>53.498658999999996</v>
+        <v>52.590489</v>
       </c>
     </row>
     <row r="772">
@@ -17752,7 +17752,7 @@
         <v>29.0</v>
       </c>
       <c r="C773" t="n">
-        <v>23.457738</v>
+        <v>22.955764</v>
       </c>
     </row>
     <row r="774">
@@ -17785,7 +17785,7 @@
         <v>32.0</v>
       </c>
       <c r="C776" t="n">
-        <v>30.658541</v>
+        <v>32.123629</v>
       </c>
     </row>
     <row r="777">
@@ -17807,7 +17807,7 @@
         <v>2.0</v>
       </c>
       <c r="C778" t="n">
-        <v>47.083002</v>
+        <v>49.287273</v>
       </c>
     </row>
     <row r="779">
@@ -17818,7 +17818,7 @@
         <v>3.0</v>
       </c>
       <c r="C779" t="n">
-        <v>37.750497</v>
+        <v>37.146581</v>
       </c>
     </row>
     <row r="780">
@@ -17829,7 +17829,7 @@
         <v>4.0</v>
       </c>
       <c r="C780" t="n">
-        <v>26.683122</v>
+        <v>28.013869</v>
       </c>
     </row>
     <row r="781">
@@ -17840,7 +17840,7 @@
         <v>5.0</v>
       </c>
       <c r="C781" t="n">
-        <v>19.778121</v>
+        <v>40.892079</v>
       </c>
     </row>
     <row r="782">
@@ -17851,7 +17851,7 @@
         <v>6.0</v>
       </c>
       <c r="C782" t="n">
-        <v>77.976873</v>
+        <v>70.15777800000001</v>
       </c>
     </row>
     <row r="783">
@@ -17862,7 +17862,7 @@
         <v>7.0</v>
       </c>
       <c r="C783" t="n">
-        <v>85.473672</v>
+        <v>91.78479</v>
       </c>
     </row>
     <row r="784">
@@ -17873,7 +17873,7 @@
         <v>8.0</v>
       </c>
       <c r="C784" t="n">
-        <v>98.627886</v>
+        <v>98.10563</v>
       </c>
     </row>
     <row r="785">
@@ -17884,7 +17884,7 @@
         <v>9.0</v>
       </c>
       <c r="C785" t="n">
-        <v>47.034015</v>
+        <v>52.999297</v>
       </c>
     </row>
     <row r="786">
@@ -17895,7 +17895,7 @@
         <v>10.0</v>
       </c>
       <c r="C786" t="n">
-        <v>80.297981</v>
+        <v>81.492612</v>
       </c>
     </row>
     <row r="787">
@@ -17917,7 +17917,7 @@
         <v>12.0</v>
       </c>
       <c r="C788" t="n">
-        <v>52.131817</v>
+        <v>58.095404</v>
       </c>
     </row>
     <row r="789">
@@ -17928,7 +17928,7 @@
         <v>13.0</v>
       </c>
       <c r="C789" t="n">
-        <v>72.132481</v>
+        <v>76.022763</v>
       </c>
     </row>
     <row r="790">
@@ -17939,7 +17939,7 @@
         <v>14.0</v>
       </c>
       <c r="C790" t="n">
-        <v>101.081551</v>
+        <v>101.390284</v>
       </c>
     </row>
     <row r="791">
@@ -17950,7 +17950,7 @@
         <v>15.0</v>
       </c>
       <c r="C791" t="n">
-        <v>101.660799</v>
+        <v>82.241189</v>
       </c>
     </row>
     <row r="792">
@@ -17961,7 +17961,7 @@
         <v>16.0</v>
       </c>
       <c r="C792" t="n">
-        <v>63.984628</v>
+        <v>83.17758</v>
       </c>
     </row>
     <row r="793">
@@ -17972,7 +17972,7 @@
         <v>17.0</v>
       </c>
       <c r="C793" t="n">
-        <v>56.013254</v>
+        <v>58.617047</v>
       </c>
     </row>
     <row r="794">
@@ -17983,7 +17983,7 @@
         <v>18.0</v>
       </c>
       <c r="C794" t="n">
-        <v>37.625959</v>
+        <v>37.236561</v>
       </c>
     </row>
     <row r="795">
@@ -18005,7 +18005,7 @@
         <v>20.0</v>
       </c>
       <c r="C796" t="n">
-        <v>26.464844</v>
+        <v>29.494353</v>
       </c>
     </row>
     <row r="797">
@@ -18016,7 +18016,7 @@
         <v>21.0</v>
       </c>
       <c r="C797" t="n">
-        <v>11.796398</v>
+        <v>12.322532</v>
       </c>
     </row>
     <row r="798">
@@ -18027,7 +18027,7 @@
         <v>22.0</v>
       </c>
       <c r="C798" t="n">
-        <v>2.868911</v>
+        <v>4.202821</v>
       </c>
     </row>
     <row r="799">
@@ -18038,7 +18038,7 @@
         <v>24.0</v>
       </c>
       <c r="C799" t="n">
-        <v>25.980965</v>
+        <v>30.347113</v>
       </c>
     </row>
     <row r="800">
@@ -18049,7 +18049,7 @@
         <v>25.0</v>
       </c>
       <c r="C800" t="n">
-        <v>24.835502</v>
+        <v>24.031466</v>
       </c>
     </row>
     <row r="801">
@@ -18060,7 +18060,7 @@
         <v>26.0</v>
       </c>
       <c r="C801" t="n">
-        <v>26.404536</v>
+        <v>25.931845</v>
       </c>
     </row>
     <row r="802">
@@ -18071,7 +18071,7 @@
         <v>27.0</v>
       </c>
       <c r="C802" t="n">
-        <v>41.507400000000004</v>
+        <v>39.890225</v>
       </c>
     </row>
     <row r="803">
@@ -18082,7 +18082,7 @@
         <v>28.0</v>
       </c>
       <c r="C803" t="n">
-        <v>45.883964</v>
+        <v>46.028428000000005</v>
       </c>
     </row>
     <row r="804">
@@ -18093,7 +18093,7 @@
         <v>29.0</v>
       </c>
       <c r="C804" t="n">
-        <v>25.747226</v>
+        <v>25.118859</v>
       </c>
     </row>
     <row r="805">
@@ -18126,7 +18126,7 @@
         <v>32.0</v>
       </c>
       <c r="C807" t="n">
-        <v>31.095309999999998</v>
+        <v>31.83027</v>
       </c>
     </row>
   </sheetData>
@@ -18559,7 +18559,7 @@
         <v>11.120668612143517</v>
       </c>
       <c r="D30" t="n">
-        <v>10.135735</v>
+        <v>9.892558</v>
       </c>
     </row>
     <row r="31">
@@ -18573,7 +18573,7 @@
         <v>7.6273156016063695</v>
       </c>
       <c r="D31" t="n">
-        <v>5.708752</v>
+        <v>5.646701</v>
       </c>
     </row>
     <row r="32">
@@ -18601,7 +18601,7 @@
         <v>10.790307855225564</v>
       </c>
       <c r="D33" t="n">
-        <v>11.018584</v>
+        <v>10.810327000000001</v>
       </c>
     </row>
     <row r="34">
@@ -18629,7 +18629,7 @@
         <v>8.124460102056027</v>
       </c>
       <c r="D35" t="n">
-        <v>11.142936</v>
+        <v>10.705217</v>
       </c>
     </row>
     <row r="36">
@@ -18657,7 +18657,7 @@
         <v>55.46804977808762</v>
       </c>
       <c r="D37" t="n">
-        <v>39.01244</v>
+        <v>36.831524</v>
       </c>
     </row>
     <row r="38">
@@ -18671,7 +18671,7 @@
         <v>64.26467879806137</v>
       </c>
       <c r="D38" t="n">
-        <v>56.956469</v>
+        <v>57.067431</v>
       </c>
     </row>
     <row r="39">
@@ -18685,7 +18685,7 @@
         <v>68.34140370644761</v>
       </c>
       <c r="D39" t="n">
-        <v>42.710932</v>
+        <v>44.916021</v>
       </c>
     </row>
     <row r="40">
@@ -18699,7 +18699,7 @@
         <v>64.80587312134553</v>
       </c>
       <c r="D40" t="n">
-        <v>43.970171</v>
+        <v>39.722557</v>
       </c>
     </row>
     <row r="41">
@@ -18713,7 +18713,7 @@
         <v>69.67955722875595</v>
       </c>
       <c r="D41" t="n">
-        <v>64.219402</v>
+        <v>47.21662</v>
       </c>
     </row>
     <row r="42">
@@ -18727,7 +18727,7 @@
         <v>65.43269680871201</v>
       </c>
       <c r="D42" t="n">
-        <v>51.900277</v>
+        <v>54.328383</v>
       </c>
     </row>
     <row r="43">
@@ -18741,7 +18741,7 @@
         <v>62.10442086190796</v>
       </c>
       <c r="D43" t="n">
-        <v>41.121385000000004</v>
+        <v>46.487737</v>
       </c>
     </row>
     <row r="44">
@@ -18755,7 +18755,7 @@
         <v>61.07835728461075</v>
       </c>
       <c r="D44" t="n">
-        <v>58.16832</v>
+        <v>55.559764</v>
       </c>
     </row>
     <row r="45">
@@ -18769,7 +18769,7 @@
         <v>74.09835984361267</v>
       </c>
       <c r="D45" t="n">
-        <v>48.452123</v>
+        <v>50.403650999999996</v>
       </c>
     </row>
     <row r="46">
@@ -18783,7 +18783,7 @@
         <v>72.13148588153457</v>
       </c>
       <c r="D46" t="n">
-        <v>55.287092</v>
+        <v>55.988604</v>
       </c>
     </row>
     <row r="47">
@@ -18797,7 +18797,7 @@
         <v>71.98302526954652</v>
       </c>
       <c r="D47" t="n">
-        <v>48.524497</v>
+        <v>49.783635</v>
       </c>
     </row>
     <row r="48">
@@ -18811,7 +18811,7 @@
         <v>73.7927177971344</v>
       </c>
       <c r="D48" t="n">
-        <v>56.210477</v>
+        <v>53.842721</v>
       </c>
     </row>
     <row r="49">
@@ -18825,7 +18825,7 @@
         <v>65.57246838734436</v>
       </c>
       <c r="D49" t="n">
-        <v>67.652368</v>
+        <v>48.725331000000004</v>
       </c>
     </row>
     <row r="50">
@@ -18839,7 +18839,7 @@
         <v>69.15091961830902</v>
       </c>
       <c r="D50" t="n">
-        <v>51.655369</v>
+        <v>49.106349</v>
       </c>
     </row>
     <row r="51">
@@ -18853,7 +18853,7 @@
         <v>72.86239783067322</v>
       </c>
       <c r="D51" t="n">
-        <v>52.540075</v>
+        <v>48.901459</v>
       </c>
     </row>
     <row r="52">
@@ -18867,7 +18867,7 @@
         <v>72.4617168327713</v>
       </c>
       <c r="D52" t="n">
-        <v>51.194818</v>
+        <v>50.519127</v>
       </c>
     </row>
     <row r="53">
@@ -18881,7 +18881,7 @@
         <v>69.54162412242508</v>
       </c>
       <c r="D53" t="n">
-        <v>47.083002</v>
+        <v>49.287273</v>
       </c>
     </row>
     <row r="54">
@@ -18909,7 +18909,7 @@
         <v>10.017750137450696</v>
       </c>
       <c r="D55" t="n">
-        <v>5.222758</v>
+        <v>4.930115</v>
       </c>
     </row>
     <row r="56">
@@ -18923,7 +18923,7 @@
         <v>14.157680478487014</v>
       </c>
       <c r="D56" t="n">
-        <v>26.389125999999997</v>
+        <v>26.415948999999998</v>
       </c>
     </row>
     <row r="57">
@@ -18937,7 +18937,7 @@
         <v>20.651124910892488</v>
       </c>
       <c r="D57" t="n">
-        <v>24.752304</v>
+        <v>23.287366</v>
       </c>
     </row>
     <row r="58">
@@ -18965,7 +18965,7 @@
         <v>20.730811029141428</v>
       </c>
       <c r="D59" t="n">
-        <v>30.357166</v>
+        <v>29.820687</v>
       </c>
     </row>
     <row r="60">
@@ -18979,7 +18979,7 @@
         <v>12.127678569803239</v>
       </c>
       <c r="D60" t="n">
-        <v>30.639259</v>
+        <v>29.04553</v>
       </c>
     </row>
     <row r="61">
@@ -18993,7 +18993,7 @@
         <v>26.808709064048767</v>
       </c>
       <c r="D61" t="n">
-        <v>32.482703</v>
+        <v>30.058595</v>
       </c>
     </row>
     <row r="62">
@@ -19007,7 +19007,7 @@
         <v>13.493113802481652</v>
       </c>
       <c r="D62" t="n">
-        <v>30.005212</v>
+        <v>29.361508999999998</v>
       </c>
     </row>
     <row r="63">
@@ -19021,7 +19021,7 @@
         <v>30.498703111621857</v>
       </c>
       <c r="D63" t="n">
-        <v>42.523312</v>
+        <v>43.022628</v>
       </c>
     </row>
     <row r="64">
@@ -19035,7 +19035,7 @@
         <v>14.462991388023378</v>
       </c>
       <c r="D64" t="n">
-        <v>38.804749</v>
+        <v>39.17871</v>
       </c>
     </row>
     <row r="65">
@@ -19049,7 +19049,7 @@
         <v>36.09440085626793</v>
       </c>
       <c r="D65" t="n">
-        <v>42.234701</v>
+        <v>41.901994</v>
       </c>
     </row>
     <row r="66">
@@ -19063,7 +19063,7 @@
         <v>48.44041788008881</v>
       </c>
       <c r="D66" t="n">
-        <v>37.716061</v>
+        <v>44.553869</v>
       </c>
     </row>
     <row r="67">
@@ -19077,7 +19077,7 @@
         <v>25.831664350536347</v>
       </c>
       <c r="D67" t="n">
-        <v>22.551819000000002</v>
+        <v>40.01782</v>
       </c>
     </row>
     <row r="68">
@@ -19091,7 +19091,7 @@
         <v>12.79079883964634</v>
       </c>
       <c r="D68" t="n">
-        <v>38.3455</v>
+        <v>40.086961</v>
       </c>
     </row>
     <row r="69">
@@ -19105,7 +19105,7 @@
         <v>26.318483338863373</v>
       </c>
       <c r="D69" t="n">
-        <v>44.476130999999995</v>
+        <v>40.116499000000005</v>
       </c>
     </row>
     <row r="70">
@@ -19119,7 +19119,7 @@
         <v>20.52748367497444</v>
       </c>
       <c r="D70" t="n">
-        <v>34.945801</v>
+        <v>38.741317</v>
       </c>
     </row>
     <row r="71">
@@ -19133,7 +19133,7 @@
         <v>28.4573789686203</v>
       </c>
       <c r="D71" t="n">
-        <v>42.973154</v>
+        <v>39.106017</v>
       </c>
     </row>
     <row r="72">
@@ -19147,7 +19147,7 @@
         <v>18.574223414852142</v>
       </c>
       <c r="D72" t="n">
-        <v>38.834928</v>
+        <v>39.458698</v>
       </c>
     </row>
     <row r="73">
@@ -19161,7 +19161,7 @@
         <v>18.815957356089594</v>
       </c>
       <c r="D73" t="n">
-        <v>40.239852</v>
+        <v>36.928853</v>
       </c>
     </row>
     <row r="74">
@@ -19175,7 +19175,7 @@
         <v>13.078870759986877</v>
       </c>
       <c r="D74" t="n">
-        <v>34.162521</v>
+        <v>37.127748</v>
       </c>
     </row>
     <row r="75">
@@ -19189,7 +19189,7 @@
         <v>15.231308566120148</v>
       </c>
       <c r="D75" t="n">
-        <v>18.548768000000003</v>
+        <v>36.599407</v>
       </c>
     </row>
     <row r="76">
@@ -19203,7 +19203,7 @@
         <v>19.488081901657104</v>
       </c>
       <c r="D76" t="n">
-        <v>33.886682</v>
+        <v>36.496096</v>
       </c>
     </row>
     <row r="77">
@@ -19217,7 +19217,7 @@
         <v>18.419242054203988</v>
       </c>
       <c r="D77" t="n">
-        <v>34.510169</v>
+        <v>36.874674999999996</v>
       </c>
     </row>
     <row r="78">
@@ -19231,7 +19231,7 @@
         <v>18.30447263923359</v>
       </c>
       <c r="D78" t="n">
-        <v>33.504198</v>
+        <v>36.356668</v>
       </c>
     </row>
     <row r="79">
@@ -19245,7 +19245,7 @@
         <v>28.918244767988206</v>
       </c>
       <c r="D79" t="n">
-        <v>37.750497</v>
+        <v>37.146581</v>
       </c>
     </row>
     <row r="80">
@@ -19273,7 +19273,7 @@
         <v>17.58915194186783</v>
       </c>
       <c r="D81" t="n">
-        <v>19.362613</v>
+        <v>23.286842999999998</v>
       </c>
     </row>
     <row r="82">
@@ -19287,7 +19287,7 @@
         <v>29.299221793298724</v>
       </c>
       <c r="D82" t="n">
-        <v>24.176308</v>
+        <v>26.816726</v>
       </c>
     </row>
     <row r="83">
@@ -19301,7 +19301,7 @@
         <v>19.986347631792068</v>
       </c>
       <c r="D83" t="n">
-        <v>24.175333</v>
+        <v>26.682852</v>
       </c>
     </row>
     <row r="84">
@@ -19315,7 +19315,7 @@
         <v>19.938412248081207</v>
       </c>
       <c r="D84" t="n">
-        <v>24.696637000000003</v>
+        <v>27.318406000000003</v>
       </c>
     </row>
     <row r="85">
@@ -19329,7 +19329,7 @@
         <v>21.705855675524713</v>
       </c>
       <c r="D85" t="n">
-        <v>23.797138</v>
+        <v>24.970882</v>
       </c>
     </row>
     <row r="86">
@@ -19343,7 +19343,7 @@
         <v>14.32433110496807</v>
       </c>
       <c r="D86" t="n">
-        <v>20.578268</v>
+        <v>20.671699</v>
       </c>
     </row>
     <row r="87">
@@ -19357,7 +19357,7 @@
         <v>20.829401093130112</v>
       </c>
       <c r="D87" t="n">
-        <v>24.621268999999998</v>
+        <v>29.043746</v>
       </c>
     </row>
     <row r="88">
@@ -19371,7 +19371,7 @@
         <v>14.604268977467537</v>
       </c>
       <c r="D88" t="n">
-        <v>20.688633</v>
+        <v>22.740582</v>
       </c>
     </row>
     <row r="89">
@@ -19385,7 +19385,7 @@
         <v>21.297849928467752</v>
       </c>
       <c r="D89" t="n">
-        <v>28.834622</v>
+        <v>34.037048</v>
       </c>
     </row>
     <row r="90">
@@ -19399,7 +19399,7 @@
         <v>14.421902591723443</v>
       </c>
       <c r="D90" t="n">
-        <v>23.961778</v>
+        <v>26.909106</v>
       </c>
     </row>
     <row r="91">
@@ -19413,7 +19413,7 @@
         <v>27.91726282721901</v>
       </c>
       <c r="D91" t="n">
-        <v>28.987582</v>
+        <v>32.905027</v>
       </c>
     </row>
     <row r="92">
@@ -19427,7 +19427,7 @@
         <v>35.98709129432488</v>
       </c>
       <c r="D92" t="n">
-        <v>32.809847</v>
+        <v>31.498079</v>
       </c>
     </row>
     <row r="93">
@@ -19441,7 +19441,7 @@
         <v>22.233016415210724</v>
       </c>
       <c r="D93" t="n">
-        <v>33.084531999999996</v>
+        <v>32.680511</v>
       </c>
     </row>
     <row r="94">
@@ -19455,7 +19455,7 @@
         <v>10.860125430331708</v>
       </c>
       <c r="D94" t="n">
-        <v>29.265981</v>
+        <v>28.013818</v>
       </c>
     </row>
     <row r="95">
@@ -19469,7 +19469,7 @@
         <v>20.674635633768084</v>
       </c>
       <c r="D95" t="n">
-        <v>29.523130000000002</v>
+        <v>29.596938</v>
       </c>
     </row>
     <row r="96">
@@ -19483,7 +19483,7 @@
         <v>10.831592022321225</v>
       </c>
       <c r="D96" t="n">
-        <v>26.519496</v>
+        <v>27.151715</v>
       </c>
     </row>
     <row r="97">
@@ -19497,7 +19497,7 @@
         <v>15.846311989208221</v>
       </c>
       <c r="D97" t="n">
-        <v>28.098722</v>
+        <v>29.707575000000002</v>
       </c>
     </row>
     <row r="98">
@@ -19511,7 +19511,7 @@
         <v>10.557576202890873</v>
       </c>
       <c r="D98" t="n">
-        <v>27.235632000000003</v>
+        <v>26.820672</v>
       </c>
     </row>
     <row r="99">
@@ -19525,7 +19525,7 @@
         <v>15.576979770684243</v>
       </c>
       <c r="D99" t="n">
-        <v>27.231351</v>
+        <v>28.938999</v>
       </c>
     </row>
     <row r="100">
@@ -19553,7 +19553,7 @@
         <v>12.098698789195062</v>
       </c>
       <c r="D101" t="n">
-        <v>26.305349999999997</v>
+        <v>27.982054</v>
       </c>
     </row>
     <row r="102">
@@ -19567,7 +19567,7 @@
         <v>10.515229086211681</v>
       </c>
       <c r="D102" t="n">
-        <v>26.575901</v>
+        <v>27.959019</v>
       </c>
     </row>
     <row r="103">
@@ -19581,7 +19581,7 @@
         <v>14.489679700993538</v>
       </c>
       <c r="D103" t="n">
-        <v>26.358955</v>
+        <v>28.183870000000002</v>
       </c>
     </row>
     <row r="104">
@@ -19595,7 +19595,7 @@
         <v>10.82627661212969</v>
       </c>
       <c r="D104" t="n">
-        <v>46.129269</v>
+        <v>27.069213</v>
       </c>
     </row>
     <row r="105">
@@ -19609,7 +19609,7 @@
         <v>15.129605814877511</v>
       </c>
       <c r="D105" t="n">
-        <v>26.683122</v>
+        <v>28.013869</v>
       </c>
     </row>
     <row r="106">
@@ -19637,7 +19637,7 @@
         <v>27.490739902370454</v>
       </c>
       <c r="D107" t="n">
-        <v>22.906449000000002</v>
+        <v>22.015146</v>
       </c>
     </row>
     <row r="108">
@@ -19651,7 +19651,7 @@
         <v>19.803353410406114</v>
       </c>
       <c r="D108" t="n">
-        <v>20.067179</v>
+        <v>19.244453</v>
       </c>
     </row>
     <row r="109">
@@ -19665,7 +19665,7 @@
         <v>21.467218526968004</v>
       </c>
       <c r="D109" t="n">
-        <v>23.074879000000003</v>
+        <v>22.381703</v>
       </c>
     </row>
     <row r="110">
@@ -19679,7 +19679,7 @@
         <v>21.296765123846054</v>
       </c>
       <c r="D110" t="n">
-        <v>18.727987</v>
+        <v>18.546138</v>
       </c>
     </row>
     <row r="111">
@@ -19721,7 +19721,7 @@
         <v>11.852724970553398</v>
       </c>
       <c r="D113" t="n">
-        <v>19.461943</v>
+        <v>19.173935</v>
       </c>
     </row>
     <row r="114">
@@ -19735,7 +19735,7 @@
         <v>18.634608223031044</v>
       </c>
       <c r="D114" t="n">
-        <v>19.656576</v>
+        <v>21.436293</v>
       </c>
     </row>
     <row r="115">
@@ -19749,7 +19749,7 @@
         <v>11.053422646528244</v>
       </c>
       <c r="D115" t="n">
-        <v>23.13774</v>
+        <v>25.135673999999998</v>
       </c>
     </row>
     <row r="116">
@@ -19763,7 +19763,7 @@
         <v>13.199550307096482</v>
       </c>
       <c r="D116" t="n">
-        <v>22.586327</v>
+        <v>25.051169</v>
       </c>
     </row>
     <row r="117">
@@ -19777,7 +19777,7 @@
         <v>11.865770441516876</v>
       </c>
       <c r="D117" t="n">
-        <v>22.744593000000002</v>
+        <v>25.063042000000003</v>
       </c>
     </row>
     <row r="118">
@@ -19791,7 +19791,7 @@
         <v>13.818783011206627</v>
       </c>
       <c r="D118" t="n">
-        <v>22.391606</v>
+        <v>24.659868</v>
       </c>
     </row>
     <row r="119">
@@ -19805,7 +19805,7 @@
         <v>16.297255601248743</v>
       </c>
       <c r="D119" t="n">
-        <v>22.448891</v>
+        <v>24.670683</v>
       </c>
     </row>
     <row r="120">
@@ -19819,7 +19819,7 @@
         <v>11.956851644210817</v>
       </c>
       <c r="D120" t="n">
-        <v>22.747387999999997</v>
+        <v>25.252754</v>
       </c>
     </row>
     <row r="121">
@@ -19833,7 +19833,7 @@
         <v>17.245286095911027</v>
       </c>
       <c r="D121" t="n">
-        <v>36.613718</v>
+        <v>38.131284</v>
       </c>
     </row>
     <row r="122">
@@ -19847,7 +19847,7 @@
         <v>10.195266029269696</v>
       </c>
       <c r="D122" t="n">
-        <v>22.734561000000003</v>
+        <v>24.6833</v>
       </c>
     </row>
     <row r="123">
@@ -19861,7 +19861,7 @@
         <v>19.226289009026527</v>
       </c>
       <c r="D123" t="n">
-        <v>22.703644</v>
+        <v>24.261067</v>
       </c>
     </row>
     <row r="124">
@@ -19875,7 +19875,7 @@
         <v>10.93629421198368</v>
       </c>
       <c r="D124" t="n">
-        <v>22.860537</v>
+        <v>24.892335</v>
       </c>
     </row>
     <row r="125">
@@ -19889,7 +19889,7 @@
         <v>15.05864449277401</v>
       </c>
       <c r="D125" t="n">
-        <v>22.798528</v>
+        <v>27.732174</v>
       </c>
     </row>
     <row r="126">
@@ -19903,7 +19903,7 @@
         <v>25.644749467758178</v>
       </c>
       <c r="D126" t="n">
-        <v>29.821979999999996</v>
+        <v>31.696795</v>
       </c>
     </row>
     <row r="127">
@@ -19917,7 +19917,7 @@
         <v>22.71828833174515</v>
       </c>
       <c r="D127" t="n">
-        <v>29.527647</v>
+        <v>31.066961</v>
       </c>
     </row>
     <row r="128">
@@ -19931,7 +19931,7 @@
         <v>13.608536219501495</v>
       </c>
       <c r="D128" t="n">
-        <v>29.292507</v>
+        <v>30.66811</v>
       </c>
     </row>
     <row r="129">
@@ -19945,7 +19945,7 @@
         <v>21.50751524370289</v>
       </c>
       <c r="D129" t="n">
-        <v>32.561943</v>
+        <v>33.506356000000004</v>
       </c>
     </row>
     <row r="130">
@@ -19959,7 +19959,7 @@
         <v>20.836696702234267</v>
       </c>
       <c r="D130" t="n">
-        <v>16.016485</v>
+        <v>37.290721</v>
       </c>
     </row>
     <row r="131">
@@ -19973,7 +19973,7 @@
         <v>24.4075688708725</v>
       </c>
       <c r="D131" t="n">
-        <v>19.778121</v>
+        <v>40.892079</v>
       </c>
     </row>
     <row r="132">
@@ -20001,7 +20001,7 @@
         <v>2.863375574935913</v>
       </c>
       <c r="D133" t="n">
-        <v>8.163841</v>
+        <v>7.877582</v>
       </c>
     </row>
     <row r="134">
@@ -20015,7 +20015,7 @@
         <v>10.393033594182015</v>
       </c>
       <c r="D134" t="n">
-        <v>10.844517</v>
+        <v>13.638755</v>
       </c>
     </row>
     <row r="135">
@@ -20029,7 +20029,7 @@
         <v>10.303408731758594</v>
       </c>
       <c r="D135" t="n">
-        <v>15.90805</v>
+        <v>15.47519</v>
       </c>
     </row>
     <row r="136">
@@ -20043,7 +20043,7 @@
         <v>12.354316640132904</v>
       </c>
       <c r="D136" t="n">
-        <v>12.027741</v>
+        <v>14.304135</v>
       </c>
     </row>
     <row r="137">
@@ -20057,7 +20057,7 @@
         <v>13.425181721122742</v>
       </c>
       <c r="D137" t="n">
-        <v>15.88586</v>
+        <v>15.484981</v>
       </c>
     </row>
     <row r="138">
@@ -20071,7 +20071,7 @@
         <v>22.888617227376937</v>
       </c>
       <c r="D138" t="n">
-        <v>16.249378</v>
+        <v>17.912217</v>
       </c>
     </row>
     <row r="139">
@@ -20085,7 +20085,7 @@
         <v>56.244706308929445</v>
       </c>
       <c r="D139" t="n">
-        <v>39.058875</v>
+        <v>46.797862</v>
       </c>
     </row>
     <row r="140">
@@ -20099,7 +20099,7 @@
         <v>36.00779132683754</v>
       </c>
       <c r="D140" t="n">
-        <v>41.517036</v>
+        <v>47.825247</v>
       </c>
     </row>
     <row r="141">
@@ -20113,7 +20113,7 @@
         <v>42.89063690835572</v>
       </c>
       <c r="D141" t="n">
-        <v>39.058875</v>
+        <v>46.641239</v>
       </c>
     </row>
     <row r="142">
@@ -20127,7 +20127,7 @@
         <v>42.363705315433506</v>
       </c>
       <c r="D142" t="n">
-        <v>42.925121</v>
+        <v>50.251435</v>
       </c>
     </row>
     <row r="143">
@@ -20141,7 +20141,7 @@
         <v>43.00369235851479</v>
       </c>
       <c r="D143" t="n">
-        <v>40.15714</v>
+        <v>48.520537000000004</v>
       </c>
     </row>
     <row r="144">
@@ -20155,7 +20155,7 @@
         <v>62.87758588483429</v>
       </c>
       <c r="D144" t="n">
-        <v>41.409082</v>
+        <v>46.518403</v>
       </c>
     </row>
     <row r="145">
@@ -20169,7 +20169,7 @@
         <v>37.97033401771546</v>
       </c>
       <c r="D145" t="n">
-        <v>40.2595</v>
+        <v>46.449285</v>
       </c>
     </row>
     <row r="146">
@@ -20183,7 +20183,7 @@
         <v>29.191048626211167</v>
       </c>
       <c r="D146" t="n">
-        <v>42.791007</v>
+        <v>48.523855</v>
       </c>
     </row>
     <row r="147">
@@ -20197,7 +20197,7 @@
         <v>42.53105132949257</v>
       </c>
       <c r="D147" t="n">
-        <v>26.572954</v>
+        <v>33.465327</v>
       </c>
     </row>
     <row r="148">
@@ -20211,7 +20211,7 @@
         <v>36.434446706462865</v>
       </c>
       <c r="D148" t="n">
-        <v>41.63889</v>
+        <v>47.402714</v>
       </c>
     </row>
     <row r="149">
@@ -20225,7 +20225,7 @@
         <v>43.893698389120104</v>
       </c>
       <c r="D149" t="n">
-        <v>39.743362</v>
+        <v>46.944018</v>
       </c>
     </row>
     <row r="150">
@@ -20239,7 +20239,7 @@
         <v>46.58026538074493</v>
       </c>
       <c r="D150" t="n">
-        <v>41.904539</v>
+        <v>48.063016</v>
       </c>
     </row>
     <row r="151">
@@ -20253,7 +20253,7 @@
         <v>32.460284180820466</v>
       </c>
       <c r="D151" t="n">
-        <v>41.353521</v>
+        <v>48.068203</v>
       </c>
     </row>
     <row r="152">
@@ -20267,7 +20267,7 @@
         <v>36.682062964336396</v>
       </c>
       <c r="D152" t="n">
-        <v>42.048897000000004</v>
+        <v>48.660809</v>
       </c>
     </row>
     <row r="153">
@@ -20281,7 +20281,7 @@
         <v>39.49200098413468</v>
       </c>
       <c r="D153" t="n">
-        <v>41.028033</v>
+        <v>48.475711000000004</v>
       </c>
     </row>
     <row r="154">
@@ -20295,7 +20295,7 @@
         <v>51.85584907000351</v>
       </c>
       <c r="D154" t="n">
-        <v>51.560614</v>
+        <v>51.458102</v>
       </c>
     </row>
     <row r="155">
@@ -20309,7 +20309,7 @@
         <v>46.34416739025879</v>
       </c>
       <c r="D155" t="n">
-        <v>43.787971</v>
+        <v>50.721661000000005</v>
       </c>
     </row>
     <row r="156">
@@ -20323,7 +20323,7 @@
         <v>47.95082263964081</v>
       </c>
       <c r="D156" t="n">
-        <v>45.478388</v>
+        <v>56.094478</v>
       </c>
     </row>
     <row r="157">
@@ -20337,7 +20337,7 @@
         <v>66.98227994388199</v>
       </c>
       <c r="D157" t="n">
-        <v>77.976873</v>
+        <v>70.15777800000001</v>
       </c>
     </row>
     <row r="158">
@@ -20393,7 +20393,7 @@
         <v>2.787791581123352</v>
       </c>
       <c r="D161" t="n">
-        <v>0.0</v>
+        <v>3.711429</v>
       </c>
     </row>
     <row r="162">
@@ -20421,7 +20421,7 @@
         <v>2.783191757863283</v>
       </c>
       <c r="D163" t="n">
-        <v>0.0</v>
+        <v>2.34049</v>
       </c>
     </row>
     <row r="164">
@@ -20449,7 +20449,7 @@
         <v>62.947479621437076</v>
       </c>
       <c r="D165" t="n">
-        <v>57.114593</v>
+        <v>61.212547</v>
       </c>
     </row>
     <row r="166">
@@ -20463,7 +20463,7 @@
         <v>55.67683029541397</v>
       </c>
       <c r="D166" t="n">
-        <v>62.900033</v>
+        <v>63.260231</v>
       </c>
     </row>
     <row r="167">
@@ -20477,7 +20477,7 @@
         <v>72.10390349882127</v>
       </c>
       <c r="D167" t="n">
-        <v>64.544033</v>
+        <v>66.839464</v>
       </c>
     </row>
     <row r="168">
@@ -20491,7 +20491,7 @@
         <v>66.15597936270905</v>
       </c>
       <c r="D168" t="n">
-        <v>71.246862</v>
+        <v>73.716061</v>
       </c>
     </row>
     <row r="169">
@@ -20505,7 +20505,7 @@
         <v>72.12128156553268</v>
       </c>
       <c r="D169" t="n">
-        <v>69.455816</v>
+        <v>74.907466</v>
       </c>
     </row>
     <row r="170">
@@ -20519,7 +20519,7 @@
         <v>69.03913308491134</v>
       </c>
       <c r="D170" t="n">
-        <v>63.540298</v>
+        <v>71.653971</v>
       </c>
     </row>
     <row r="171">
@@ -20533,7 +20533,7 @@
         <v>67.23746731679535</v>
       </c>
       <c r="D171" t="n">
-        <v>71.612607</v>
+        <v>78.264815</v>
       </c>
     </row>
     <row r="172">
@@ -20547,7 +20547,7 @@
         <v>60.12338483509827</v>
       </c>
       <c r="D172" t="n">
-        <v>71.874195</v>
+        <v>75.432518</v>
       </c>
     </row>
     <row r="173">
@@ -20561,7 +20561,7 @@
         <v>69.3730303843689</v>
       </c>
       <c r="D173" t="n">
-        <v>73.181154</v>
+        <v>77.533288</v>
       </c>
     </row>
     <row r="174">
@@ -20575,7 +20575,7 @@
         <v>71.5769983968544</v>
       </c>
       <c r="D174" t="n">
-        <v>72.852936</v>
+        <v>77.052837</v>
       </c>
     </row>
     <row r="175">
@@ -20589,7 +20589,7 @@
         <v>69.07613035315704</v>
       </c>
       <c r="D175" t="n">
-        <v>73.323815</v>
+        <v>77.033481</v>
       </c>
     </row>
     <row r="176">
@@ -20603,7 +20603,7 @@
         <v>67.4009747914238</v>
       </c>
       <c r="D176" t="n">
-        <v>70.616319</v>
+        <v>75.86923300000001</v>
       </c>
     </row>
     <row r="177">
@@ -20617,7 +20617,7 @@
         <v>71.36278723368072</v>
       </c>
       <c r="D177" t="n">
-        <v>72.47125</v>
+        <v>77.441631</v>
       </c>
     </row>
     <row r="178">
@@ -20631,7 +20631,7 @@
         <v>73.98405666945648</v>
       </c>
       <c r="D178" t="n">
-        <v>72.699886</v>
+        <v>76.499621</v>
       </c>
     </row>
     <row r="179">
@@ -20645,7 +20645,7 @@
         <v>61.81001098049927</v>
       </c>
       <c r="D179" t="n">
-        <v>75.758383</v>
+        <v>80.765075</v>
       </c>
     </row>
     <row r="180">
@@ -20659,7 +20659,7 @@
         <v>78.59712805629731</v>
       </c>
       <c r="D180" t="n">
-        <v>69.542588</v>
+        <v>82.515618</v>
       </c>
     </row>
     <row r="181">
@@ -20673,7 +20673,7 @@
         <v>72.49147677201462</v>
       </c>
       <c r="D181" t="n">
-        <v>77.416572</v>
+        <v>83.598812</v>
       </c>
     </row>
     <row r="182">
@@ -20687,7 +20687,7 @@
         <v>83.2566115969162</v>
       </c>
       <c r="D182" t="n">
-        <v>85.343067</v>
+        <v>89.743057</v>
       </c>
     </row>
     <row r="183">
@@ -20701,7 +20701,7 @@
         <v>68.3384367194481</v>
       </c>
       <c r="D183" t="n">
-        <v>85.473672</v>
+        <v>91.78479</v>
       </c>
     </row>
     <row r="184">
@@ -20729,7 +20729,7 @@
         <v>9.528839025924682</v>
       </c>
       <c r="D185" t="n">
-        <v>11.123617</v>
+        <v>10.664642</v>
       </c>
     </row>
     <row r="186">
@@ -20757,7 +20757,7 @@
         <v>10.411020952866554</v>
       </c>
       <c r="D187" t="n">
-        <v>10.797839</v>
+        <v>10.388683</v>
       </c>
     </row>
     <row r="188">
@@ -20771,7 +20771,7 @@
         <v>14.922471710426331</v>
       </c>
       <c r="D188" t="n">
-        <v>15.133755</v>
+        <v>14.885739</v>
       </c>
     </row>
     <row r="189">
@@ -20799,7 +20799,7 @@
         <v>14.156390368961334</v>
       </c>
       <c r="D190" t="n">
-        <v>14.972662</v>
+        <v>14.712181</v>
       </c>
     </row>
     <row r="191">
@@ -20813,7 +20813,7 @@
         <v>65.75611428623199</v>
       </c>
       <c r="D191" t="n">
-        <v>52.598827</v>
+        <v>54.454709</v>
       </c>
     </row>
     <row r="192">
@@ -20827,7 +20827,7 @@
         <v>46.15972676271057</v>
       </c>
       <c r="D192" t="n">
-        <v>58.967436</v>
+        <v>58.431754</v>
       </c>
     </row>
     <row r="193">
@@ -20841,7 +20841,7 @@
         <v>69.69607698851395</v>
       </c>
       <c r="D193" t="n">
-        <v>60.847761</v>
+        <v>61.842262999999996</v>
       </c>
     </row>
     <row r="194">
@@ -20855,7 +20855,7 @@
         <v>76.25985225828552</v>
       </c>
       <c r="D194" t="n">
-        <v>92.060102</v>
+        <v>93.591471</v>
       </c>
     </row>
     <row r="195">
@@ -20869,7 +20869,7 @@
         <v>84.08492019250488</v>
       </c>
       <c r="D195" t="n">
-        <v>83.115399</v>
+        <v>90.668313</v>
       </c>
     </row>
     <row r="196">
@@ -20883,7 +20883,7 @@
         <v>77.13990828606033</v>
       </c>
       <c r="D196" t="n">
-        <v>81.546739</v>
+        <v>90.707093</v>
       </c>
     </row>
     <row r="197">
@@ -20897,7 +20897,7 @@
         <v>79.59117466495515</v>
       </c>
       <c r="D197" t="n">
-        <v>83.99834</v>
+        <v>86.086838</v>
       </c>
     </row>
     <row r="198">
@@ -20911,7 +20911,7 @@
         <v>72.93903086631775</v>
       </c>
       <c r="D198" t="n">
-        <v>95.567394</v>
+        <v>97.909922</v>
       </c>
     </row>
     <row r="199">
@@ -20925,7 +20925,7 @@
         <v>76.05582951654053</v>
       </c>
       <c r="D199" t="n">
-        <v>82.384907</v>
+        <v>83.820216</v>
       </c>
     </row>
     <row r="200">
@@ -20939,7 +20939,7 @@
         <v>76.21894492502976</v>
       </c>
       <c r="D200" t="n">
-        <v>95.355242</v>
+        <v>97.915053</v>
       </c>
     </row>
     <row r="201">
@@ -20953,7 +20953,7 @@
         <v>87.16206718075561</v>
       </c>
       <c r="D201" t="n">
-        <v>83.285867</v>
+        <v>84.265044</v>
       </c>
     </row>
     <row r="202">
@@ -20967,7 +20967,7 @@
         <v>76.07461160388566</v>
       </c>
       <c r="D202" t="n">
-        <v>96.250075</v>
+        <v>96.921959</v>
       </c>
     </row>
     <row r="203">
@@ -20981,7 +20981,7 @@
         <v>80.25838646285249</v>
       </c>
       <c r="D203" t="n">
-        <v>85.739708</v>
+        <v>86.724924</v>
       </c>
     </row>
     <row r="204">
@@ -20995,7 +20995,7 @@
         <v>76.45602837905503</v>
       </c>
       <c r="D204" t="n">
-        <v>95.69895600000001</v>
+        <v>95.657011</v>
       </c>
     </row>
     <row r="205">
@@ -21009,7 +21009,7 @@
         <v>106.20800444119263</v>
       </c>
       <c r="D205" t="n">
-        <v>90.150357</v>
+        <v>91.635059</v>
       </c>
     </row>
     <row r="206">
@@ -21023,7 +21023,7 @@
         <v>78.30103864831925</v>
       </c>
       <c r="D206" t="n">
-        <v>97.893419</v>
+        <v>99.400036</v>
       </c>
     </row>
     <row r="207">
@@ -21037,7 +21037,7 @@
         <v>97.24707851612091</v>
       </c>
       <c r="D207" t="n">
-        <v>90.024882</v>
+        <v>90.73581300000001</v>
       </c>
     </row>
     <row r="208">
@@ -21051,7 +21051,7 @@
         <v>93.12350700228882</v>
       </c>
       <c r="D208" t="n">
-        <v>97.491297</v>
+        <v>98.236392</v>
       </c>
     </row>
     <row r="209">
@@ -21065,7 +21065,7 @@
         <v>99.56759083758546</v>
       </c>
       <c r="D209" t="n">
-        <v>98.627886</v>
+        <v>98.10563</v>
       </c>
     </row>
     <row r="210">
@@ -21135,7 +21135,7 @@
         <v>7.54882422544384</v>
       </c>
       <c r="D214" t="n">
-        <v>5.519829</v>
+        <v>5.257587</v>
       </c>
     </row>
     <row r="215">
@@ -21149,7 +21149,7 @@
         <v>10.941912943614007</v>
       </c>
       <c r="D215" t="n">
-        <v>8.797735</v>
+        <v>8.659917</v>
       </c>
     </row>
     <row r="216">
@@ -21163,7 +21163,7 @@
         <v>2.5726189618388413</v>
       </c>
       <c r="D216" t="n">
-        <v>3.426159</v>
+        <v>4.934817000000001</v>
       </c>
     </row>
     <row r="217">
@@ -21177,7 +21177,7 @@
         <v>13.682775797329903</v>
       </c>
       <c r="D217" t="n">
-        <v>19.711049</v>
+        <v>19.445505</v>
       </c>
     </row>
     <row r="218">
@@ -21191,7 +21191,7 @@
         <v>28.914072442520144</v>
       </c>
       <c r="D218" t="n">
-        <v>19.683792</v>
+        <v>19.044066</v>
       </c>
     </row>
     <row r="219">
@@ -21205,7 +21205,7 @@
         <v>38.008096874570846</v>
       </c>
       <c r="D219" t="n">
-        <v>30.272759999999998</v>
+        <v>38.521981</v>
       </c>
     </row>
     <row r="220">
@@ -21219,7 +21219,7 @@
         <v>48.2315737844696</v>
       </c>
       <c r="D220" t="n">
-        <v>35.189669</v>
+        <v>37.51945</v>
       </c>
     </row>
     <row r="221">
@@ -21233,7 +21233,7 @@
         <v>60.75592527062989</v>
       </c>
       <c r="D221" t="n">
-        <v>43.906238</v>
+        <v>57.945555</v>
       </c>
     </row>
     <row r="222">
@@ -21247,7 +21247,7 @@
         <v>50.325206967910766</v>
       </c>
       <c r="D222" t="n">
-        <v>55.946542</v>
+        <v>55.52127</v>
       </c>
     </row>
     <row r="223">
@@ -21261,7 +21261,7 @@
         <v>60.284608789375305</v>
       </c>
       <c r="D223" t="n">
-        <v>52.096932</v>
+        <v>57.7104</v>
       </c>
     </row>
     <row r="224">
@@ -21275,7 +21275,7 @@
         <v>37.5920272807045</v>
       </c>
       <c r="D224" t="n">
-        <v>42.058219</v>
+        <v>43.766443</v>
       </c>
     </row>
     <row r="225">
@@ -21289,7 +21289,7 @@
         <v>63.759644628833776</v>
       </c>
       <c r="D225" t="n">
-        <v>52.404735</v>
+        <v>55.371374</v>
       </c>
     </row>
     <row r="226">
@@ -21303,7 +21303,7 @@
         <v>36.07540419218445</v>
       </c>
       <c r="D226" t="n">
-        <v>39.853541</v>
+        <v>44.793615</v>
       </c>
     </row>
     <row r="227">
@@ -21317,7 +21317,7 @@
         <v>60.271071911190035</v>
       </c>
       <c r="D227" t="n">
-        <v>52.207654</v>
+        <v>58.382667</v>
       </c>
     </row>
     <row r="228">
@@ -21331,7 +21331,7 @@
         <v>38.00103173677826</v>
       </c>
       <c r="D228" t="n">
-        <v>40.154694</v>
+        <v>40.082606</v>
       </c>
     </row>
     <row r="229">
@@ -21345,7 +21345,7 @@
         <v>60.64785806736374</v>
       </c>
       <c r="D229" t="n">
-        <v>50.491463</v>
+        <v>55.866287</v>
       </c>
     </row>
     <row r="230">
@@ -21373,7 +21373,7 @@
         <v>62.380472511257175</v>
       </c>
       <c r="D231" t="n">
-        <v>48.488494</v>
+        <v>52.876391</v>
       </c>
     </row>
     <row r="232">
@@ -21387,7 +21387,7 @@
         <v>31.352122483789444</v>
       </c>
       <c r="D232" t="n">
-        <v>39.757776</v>
+        <v>40.747535</v>
       </c>
     </row>
     <row r="233">
@@ -21401,7 +21401,7 @@
         <v>69.82625354311753</v>
       </c>
       <c r="D233" t="n">
-        <v>50.223004</v>
+        <v>52.152791</v>
       </c>
     </row>
     <row r="234">
@@ -21415,7 +21415,7 @@
         <v>33.10771518235588</v>
       </c>
       <c r="D234" t="n">
-        <v>39.509904</v>
+        <v>40.606173</v>
       </c>
     </row>
     <row r="235">
@@ -21429,7 +21429,7 @@
         <v>59.616014163608554</v>
       </c>
       <c r="D235" t="n">
-        <v>47.034015</v>
+        <v>52.999297</v>
       </c>
     </row>
     <row r="236">
@@ -21457,7 +21457,7 @@
         <v>11.085532995785236</v>
       </c>
       <c r="D237" t="n">
-        <v>13.006655</v>
+        <v>14.458165000000001</v>
       </c>
     </row>
     <row r="238">
@@ -21485,7 +21485,7 @@
         <v>10.015728877557278</v>
       </c>
       <c r="D239" t="n">
-        <v>13.617409</v>
+        <v>15.12045</v>
       </c>
     </row>
     <row r="240">
@@ -21499,7 +21499,7 @@
         <v>14.211185585560798</v>
       </c>
       <c r="D240" t="n">
-        <v>14.420492</v>
+        <v>13.727114</v>
       </c>
     </row>
     <row r="241">
@@ -21513,7 +21513,7 @@
         <v>11.687820098030091</v>
       </c>
       <c r="D241" t="n">
-        <v>13.75925</v>
+        <v>15.282112</v>
       </c>
     </row>
     <row r="242">
@@ -21541,7 +21541,7 @@
         <v>35.59087137330437</v>
       </c>
       <c r="D243" t="n">
-        <v>27.575537</v>
+        <v>30.558439</v>
       </c>
     </row>
     <row r="244">
@@ -21555,7 +21555,7 @@
         <v>29.20879756629753</v>
       </c>
       <c r="D244" t="n">
-        <v>35.285673</v>
+        <v>34.443867</v>
       </c>
     </row>
     <row r="245">
@@ -21569,7 +21569,7 @@
         <v>71.01205228300095</v>
       </c>
       <c r="D245" t="n">
-        <v>48.049196</v>
+        <v>50.166073000000004</v>
       </c>
     </row>
     <row r="246">
@@ -21583,7 +21583,7 @@
         <v>62.96725776870346</v>
       </c>
       <c r="D246" t="n">
-        <v>64.339319</v>
+        <v>66.655504</v>
       </c>
     </row>
     <row r="247">
@@ -21597,7 +21597,7 @@
         <v>68.18601306053925</v>
       </c>
       <c r="D247" t="n">
-        <v>62.75314</v>
+        <v>62.846583</v>
       </c>
     </row>
     <row r="248">
@@ -21611,7 +21611,7 @@
         <v>58.58280862474823</v>
       </c>
       <c r="D248" t="n">
-        <v>59.463828</v>
+        <v>59.970765</v>
       </c>
     </row>
     <row r="249">
@@ -21625,7 +21625,7 @@
         <v>67.16667288771058</v>
       </c>
       <c r="D249" t="n">
-        <v>62.875828</v>
+        <v>63.607808</v>
       </c>
     </row>
     <row r="250">
@@ -21639,7 +21639,7 @@
         <v>53.579753287776946</v>
       </c>
       <c r="D250" t="n">
-        <v>63.831234</v>
+        <v>64.022642</v>
       </c>
     </row>
     <row r="251">
@@ -21653,7 +21653,7 @@
         <v>68.91909196982574</v>
       </c>
       <c r="D251" t="n">
-        <v>62.127289</v>
+        <v>62.37688</v>
       </c>
     </row>
     <row r="252">
@@ -21667,7 +21667,7 @@
         <v>65.41977452069092</v>
       </c>
       <c r="D252" t="n">
-        <v>65.726473</v>
+        <v>66.061726</v>
       </c>
     </row>
     <row r="253">
@@ -21681,7 +21681,7 @@
         <v>73.04217075188828</v>
       </c>
       <c r="D253" t="n">
-        <v>62.602078999999996</v>
+        <v>62.442439</v>
       </c>
     </row>
     <row r="254">
@@ -21695,7 +21695,7 @@
         <v>59.563318355220794</v>
       </c>
       <c r="D254" t="n">
-        <v>65.758045</v>
+        <v>65.535776</v>
       </c>
     </row>
     <row r="255">
@@ -21709,7 +21709,7 @@
         <v>60.59367346728516</v>
       </c>
       <c r="D255" t="n">
-        <v>69.685913</v>
+        <v>72.942446</v>
       </c>
     </row>
     <row r="256">
@@ -21723,7 +21723,7 @@
         <v>61.90479561875153</v>
       </c>
       <c r="D256" t="n">
-        <v>78.096786</v>
+        <v>81.356784</v>
       </c>
     </row>
     <row r="257">
@@ -21737,7 +21737,7 @@
         <v>67.80470224919128</v>
       </c>
       <c r="D257" t="n">
-        <v>78.003408</v>
+        <v>81.633888</v>
       </c>
     </row>
     <row r="258">
@@ -21751,7 +21751,7 @@
         <v>65.402735538208</v>
       </c>
       <c r="D258" t="n">
-        <v>79.713958</v>
+        <v>83.159446</v>
       </c>
     </row>
     <row r="259">
@@ -21765,7 +21765,7 @@
         <v>65.02846072460174</v>
       </c>
       <c r="D259" t="n">
-        <v>78.40665800000001</v>
+        <v>82.33292</v>
       </c>
     </row>
     <row r="260">
@@ -21779,7 +21779,7 @@
         <v>65.08686798296357</v>
       </c>
       <c r="D260" t="n">
-        <v>79.028802</v>
+        <v>82.248422</v>
       </c>
     </row>
     <row r="261">
@@ -21793,7 +21793,7 @@
         <v>68.09720478181458</v>
       </c>
       <c r="D261" t="n">
-        <v>80.297981</v>
+        <v>81.492612</v>
       </c>
     </row>
     <row r="262">
@@ -21919,7 +21919,7 @@
         <v>11.17438167321682</v>
       </c>
       <c r="D270" t="n">
-        <v>15.291713999999999</v>
+        <v>15.298127999999998</v>
       </c>
     </row>
     <row r="271">
@@ -21933,7 +21933,7 @@
         <v>19.00814128988743</v>
       </c>
       <c r="D271" t="n">
-        <v>27.637886</v>
+        <v>29.696148</v>
       </c>
     </row>
     <row r="272">
@@ -21947,7 +21947,7 @@
         <v>25.771121921173098</v>
       </c>
       <c r="D272" t="n">
-        <v>37.103597</v>
+        <v>34.813437</v>
       </c>
     </row>
     <row r="273">
@@ -21961,7 +21961,7 @@
         <v>36.03748503869247</v>
       </c>
       <c r="D273" t="n">
-        <v>36.520775</v>
+        <v>36.948149</v>
       </c>
     </row>
     <row r="274">
@@ -21975,7 +21975,7 @@
         <v>41.55131778401184</v>
       </c>
       <c r="D274" t="n">
-        <v>36.038962</v>
+        <v>41.023269</v>
       </c>
     </row>
     <row r="275">
@@ -21989,7 +21989,7 @@
         <v>42.39738856516457</v>
       </c>
       <c r="D275" t="n">
-        <v>35.860977</v>
+        <v>36.711369</v>
       </c>
     </row>
     <row r="276">
@@ -22017,7 +22017,7 @@
         <v>47.21267336149979</v>
       </c>
       <c r="D277" t="n">
-        <v>34.579174</v>
+        <v>35.928558</v>
       </c>
     </row>
     <row r="278">
@@ -22031,7 +22031,7 @@
         <v>33.30165016830254</v>
       </c>
       <c r="D278" t="n">
-        <v>36.888981</v>
+        <v>36.378489</v>
       </c>
     </row>
     <row r="279">
@@ -22045,7 +22045,7 @@
         <v>49.431688236625675</v>
       </c>
       <c r="D279" t="n">
-        <v>36.649952</v>
+        <v>36.247771</v>
       </c>
     </row>
     <row r="280">
@@ -22059,7 +22059,7 @@
         <v>32.23308450223732</v>
       </c>
       <c r="D280" t="n">
-        <v>38.444972</v>
+        <v>37.445996</v>
       </c>
     </row>
     <row r="281">
@@ -22073,7 +22073,7 @@
         <v>32.53823381694603</v>
       </c>
       <c r="D281" t="n">
-        <v>38.112976</v>
+        <v>37.841195</v>
       </c>
     </row>
     <row r="282">
@@ -22101,7 +22101,7 @@
         <v>36.596160743413925</v>
       </c>
       <c r="D283" t="n">
-        <v>38.23298</v>
+        <v>37.853071</v>
       </c>
     </row>
     <row r="284">
@@ -22129,7 +22129,7 @@
         <v>31.925206619127273</v>
       </c>
       <c r="D285" t="n">
-        <v>38.542259</v>
+        <v>39.797774</v>
       </c>
     </row>
     <row r="286">
@@ -22185,7 +22185,7 @@
         <v>8.878090694505214</v>
       </c>
       <c r="D289" t="n">
-        <v>8.240795</v>
+        <v>11.46687</v>
       </c>
     </row>
     <row r="290">
@@ -22199,7 +22199,7 @@
         <v>12.864238390623093</v>
       </c>
       <c r="D290" t="n">
-        <v>12.122324</v>
+        <v>15.868015</v>
       </c>
     </row>
     <row r="291">
@@ -22227,7 +22227,7 @@
         <v>15.079062396612168</v>
       </c>
       <c r="D292" t="n">
-        <v>12.088516</v>
+        <v>15.123739</v>
       </c>
     </row>
     <row r="293">
@@ -22241,7 +22241,7 @@
         <v>9.678871876112938</v>
       </c>
       <c r="D293" t="n">
-        <v>8.751249</v>
+        <v>11.352036</v>
       </c>
     </row>
     <row r="294">
@@ -22255,7 +22255,7 @@
         <v>12.529347680339814</v>
       </c>
       <c r="D294" t="n">
-        <v>12.464131</v>
+        <v>15.365848</v>
       </c>
     </row>
     <row r="295">
@@ -22269,7 +22269,7 @@
         <v>18.5236349619627</v>
       </c>
       <c r="D295" t="n">
-        <v>21.650843</v>
+        <v>25.203572</v>
       </c>
     </row>
     <row r="296">
@@ -22283,7 +22283,7 @@
         <v>23.334769950141908</v>
       </c>
       <c r="D296" t="n">
-        <v>21.411573</v>
+        <v>25.397976999999997</v>
       </c>
     </row>
     <row r="297">
@@ -22297,7 +22297,7 @@
         <v>28.58770122347832</v>
       </c>
       <c r="D297" t="n">
-        <v>33.717242</v>
+        <v>39.520342</v>
       </c>
     </row>
     <row r="298">
@@ -22311,7 +22311,7 @@
         <v>48.77261446021271</v>
       </c>
       <c r="D298" t="n">
-        <v>45.413526</v>
+        <v>54.861430999999996</v>
       </c>
     </row>
     <row r="299">
@@ -22325,7 +22325,7 @@
         <v>29.52976463044739</v>
       </c>
       <c r="D299" t="n">
-        <v>41.184773</v>
+        <v>48.280661</v>
       </c>
     </row>
     <row r="300">
@@ -22339,7 +22339,7 @@
         <v>18.71281482142353</v>
       </c>
       <c r="D300" t="n">
-        <v>37.749394</v>
+        <v>42.079667</v>
       </c>
     </row>
     <row r="301">
@@ -22353,7 +22353,7 @@
         <v>31.468664143672942</v>
       </c>
       <c r="D301" t="n">
-        <v>47.539758</v>
+        <v>54.67018</v>
       </c>
     </row>
     <row r="302">
@@ -22367,7 +22367,7 @@
         <v>48.78212471318436</v>
       </c>
       <c r="D302" t="n">
-        <v>62.026157999999995</v>
+        <v>54.927895</v>
       </c>
     </row>
     <row r="303">
@@ -22381,7 +22381,7 @@
         <v>20.4002158272686</v>
       </c>
       <c r="D303" t="n">
-        <v>44.833881999999996</v>
+        <v>51.488776</v>
       </c>
     </row>
     <row r="304">
@@ -22395,7 +22395,7 @@
         <v>32.15009098821259</v>
       </c>
       <c r="D304" t="n">
-        <v>46.262755</v>
+        <v>53.51797</v>
       </c>
     </row>
     <row r="305">
@@ -22409,7 +22409,7 @@
         <v>23.346094833555224</v>
       </c>
       <c r="D305" t="n">
-        <v>45.697981999999996</v>
+        <v>52.993016</v>
       </c>
     </row>
     <row r="306">
@@ -22423,7 +22423,7 @@
         <v>31.672565027023317</v>
       </c>
       <c r="D306" t="n">
-        <v>45.463971</v>
+        <v>53.388418</v>
       </c>
     </row>
     <row r="307">
@@ -22437,7 +22437,7 @@
         <v>23.569498358236313</v>
       </c>
       <c r="D307" t="n">
-        <v>51.517496</v>
+        <v>61.339759</v>
       </c>
     </row>
     <row r="308">
@@ -22451,7 +22451,7 @@
         <v>40.012301890932086</v>
       </c>
       <c r="D308" t="n">
-        <v>50.24286</v>
+        <v>62.356044</v>
       </c>
     </row>
     <row r="309">
@@ -22465,7 +22465,7 @@
         <v>30.628953840900422</v>
       </c>
       <c r="D309" t="n">
-        <v>44.909799</v>
+        <v>58.089679</v>
       </c>
     </row>
     <row r="310">
@@ -22479,7 +22479,7 @@
         <v>43.50876891327095</v>
       </c>
       <c r="D310" t="n">
-        <v>51.126759</v>
+        <v>62.297042</v>
       </c>
     </row>
     <row r="311">
@@ -22493,7 +22493,7 @@
         <v>30.192266336483</v>
       </c>
       <c r="D311" t="n">
-        <v>46.115172</v>
+        <v>60.80502</v>
       </c>
     </row>
     <row r="312">
@@ -22507,7 +22507,7 @@
         <v>43.52248857904816</v>
       </c>
       <c r="D312" t="n">
-        <v>51.337309</v>
+        <v>60.970729</v>
       </c>
     </row>
     <row r="313">
@@ -22521,7 +22521,7 @@
         <v>25.949779573167802</v>
       </c>
       <c r="D313" t="n">
-        <v>52.131817</v>
+        <v>58.095404</v>
       </c>
     </row>
     <row r="314">
@@ -22577,7 +22577,7 @@
         <v>12.808105380778313</v>
       </c>
       <c r="D317" t="n">
-        <v>18.78787</v>
+        <v>18.389941</v>
       </c>
     </row>
     <row r="318">
@@ -22591,7 +22591,7 @@
         <v>10.708983271388055</v>
       </c>
       <c r="D318" t="n">
-        <v>19.059771</v>
+        <v>18.266647</v>
       </c>
     </row>
     <row r="319">
@@ -22605,7 +22605,7 @@
         <v>13.7046083181839</v>
       </c>
       <c r="D319" t="n">
-        <v>26.244446</v>
+        <v>18.285144</v>
       </c>
     </row>
     <row r="320">
@@ -22619,7 +22619,7 @@
         <v>5.535735467205048</v>
       </c>
       <c r="D320" t="n">
-        <v>18.961586</v>
+        <v>18.390999</v>
       </c>
     </row>
     <row r="321">
@@ -22633,7 +22633,7 @@
         <v>22.66756874862671</v>
       </c>
       <c r="D321" t="n">
-        <v>28.074403</v>
+        <v>30.075628</v>
       </c>
     </row>
     <row r="322">
@@ -22647,7 +22647,7 @@
         <v>36.856026419042585</v>
       </c>
       <c r="D322" t="n">
-        <v>33.414564</v>
+        <v>32.768873</v>
       </c>
     </row>
     <row r="323">
@@ -22661,7 +22661,7 @@
         <v>59.02262206189728</v>
       </c>
       <c r="D323" t="n">
-        <v>49.569086</v>
+        <v>50.31101</v>
       </c>
     </row>
     <row r="324">
@@ -22675,7 +22675,7 @@
         <v>61.63793633090973</v>
       </c>
       <c r="D324" t="n">
-        <v>49.81357</v>
+        <v>49.200776</v>
       </c>
     </row>
     <row r="325">
@@ -22689,7 +22689,7 @@
         <v>60.432041552295686</v>
       </c>
       <c r="D325" t="n">
-        <v>48.952533</v>
+        <v>53.02082300000001</v>
       </c>
     </row>
     <row r="326">
@@ -22703,7 +22703,7 @@
         <v>59.54906092304993</v>
       </c>
       <c r="D326" t="n">
-        <v>56.481821</v>
+        <v>57.989339</v>
       </c>
     </row>
     <row r="327">
@@ -22717,7 +22717,7 @@
         <v>45.02809672833252</v>
       </c>
       <c r="D327" t="n">
-        <v>46.406742</v>
+        <v>47.762338</v>
       </c>
     </row>
     <row r="328">
@@ -22731,7 +22731,7 @@
         <v>46.89231294022751</v>
       </c>
       <c r="D328" t="n">
-        <v>30.277794999999998</v>
+        <v>51.321045</v>
       </c>
     </row>
     <row r="329">
@@ -22745,7 +22745,7 @@
         <v>46.407629122901916</v>
       </c>
       <c r="D329" t="n">
-        <v>46.6146</v>
+        <v>48.869214</v>
       </c>
     </row>
     <row r="330">
@@ -22759,7 +22759,7 @@
         <v>44.722942115432744</v>
       </c>
       <c r="D330" t="n">
-        <v>49.01689</v>
+        <v>50.995073</v>
       </c>
     </row>
     <row r="331">
@@ -22773,7 +22773,7 @@
         <v>50.48565208810044</v>
       </c>
       <c r="D331" t="n">
-        <v>46.614646</v>
+        <v>47.764389</v>
       </c>
     </row>
     <row r="332">
@@ -22787,7 +22787,7 @@
         <v>65.56208393284606</v>
       </c>
       <c r="D332" t="n">
-        <v>67.917382</v>
+        <v>69.157601</v>
       </c>
     </row>
     <row r="333">
@@ -22801,7 +22801,7 @@
         <v>101.73514438284302</v>
       </c>
       <c r="D333" t="n">
-        <v>71.826087</v>
+        <v>75.613284</v>
       </c>
     </row>
     <row r="334">
@@ -22815,7 +22815,7 @@
         <v>70.55214280712129</v>
       </c>
       <c r="D334" t="n">
-        <v>71.059958</v>
+        <v>75.973223</v>
       </c>
     </row>
     <row r="335">
@@ -22829,7 +22829,7 @@
         <v>74.16938209491349</v>
       </c>
       <c r="D335" t="n">
-        <v>75.832684</v>
+        <v>79.789114</v>
       </c>
     </row>
     <row r="336">
@@ -22843,7 +22843,7 @@
         <v>63.76385139254379</v>
       </c>
       <c r="D336" t="n">
-        <v>73.840575</v>
+        <v>77.263963</v>
       </c>
     </row>
     <row r="337">
@@ -22857,7 +22857,7 @@
         <v>72.80286735580445</v>
       </c>
       <c r="D337" t="n">
-        <v>73.852462</v>
+        <v>76.87473</v>
       </c>
     </row>
     <row r="338">
@@ -22871,7 +22871,7 @@
         <v>65.19229668707656</v>
       </c>
       <c r="D338" t="n">
-        <v>72.859284</v>
+        <v>76.679828</v>
       </c>
     </row>
     <row r="339">
@@ -22885,7 +22885,7 @@
         <v>72.34828786014175</v>
       </c>
       <c r="D339" t="n">
-        <v>72.132481</v>
+        <v>76.022763</v>
       </c>
     </row>
     <row r="340">
@@ -22955,7 +22955,7 @@
         <v>8.506802073841095</v>
       </c>
       <c r="D344" t="n">
-        <v>9.85117</v>
+        <v>9.535124</v>
       </c>
     </row>
     <row r="345">
@@ -22969,7 +22969,7 @@
         <v>11.40193235695839</v>
       </c>
       <c r="D345" t="n">
-        <v>3.21114</v>
+        <v>9.954439</v>
       </c>
     </row>
     <row r="346">
@@ -22983,7 +22983,7 @@
         <v>33.95493567097092</v>
       </c>
       <c r="D346" t="n">
-        <v>20.435797</v>
+        <v>19.245912</v>
       </c>
     </row>
     <row r="347">
@@ -22997,7 +22997,7 @@
         <v>63.28291869449615</v>
       </c>
       <c r="D347" t="n">
-        <v>53.854191</v>
+        <v>54.682142</v>
       </c>
     </row>
     <row r="348">
@@ -23011,7 +23011,7 @@
         <v>65.75290888063431</v>
       </c>
       <c r="D348" t="n">
-        <v>62.17532</v>
+        <v>61.105408</v>
       </c>
     </row>
     <row r="349">
@@ -23025,7 +23025,7 @@
         <v>49.45005176687622</v>
       </c>
       <c r="D349" t="n">
-        <v>58.896093</v>
+        <v>58.723667</v>
       </c>
     </row>
     <row r="350">
@@ -23039,7 +23039,7 @@
         <v>70.63183289901352</v>
       </c>
       <c r="D350" t="n">
-        <v>61.658519</v>
+        <v>60.836475</v>
       </c>
     </row>
     <row r="351">
@@ -23053,7 +23053,7 @@
         <v>58.622598039688114</v>
       </c>
       <c r="D351" t="n">
-        <v>56.24888</v>
+        <v>55.714203</v>
       </c>
     </row>
     <row r="352">
@@ -23067,7 +23067,7 @@
         <v>52.578728961479186</v>
       </c>
       <c r="D352" t="n">
-        <v>53.072193</v>
+        <v>53.764504</v>
       </c>
     </row>
     <row r="353">
@@ -23081,7 +23081,7 @@
         <v>53.83799771693802</v>
       </c>
       <c r="D353" t="n">
-        <v>60.066639</v>
+        <v>59.679415</v>
       </c>
     </row>
     <row r="354">
@@ -23095,7 +23095,7 @@
         <v>55.21472207024002</v>
       </c>
       <c r="D354" t="n">
-        <v>58.441826999999996</v>
+        <v>58.24576</v>
       </c>
     </row>
     <row r="355">
@@ -23109,7 +23109,7 @@
         <v>51.472784557411195</v>
       </c>
       <c r="D355" t="n">
-        <v>59.658346</v>
+        <v>58.73496</v>
       </c>
     </row>
     <row r="356">
@@ -23123,7 +23123,7 @@
         <v>58.88528235296631</v>
       </c>
       <c r="D356" t="n">
-        <v>60.288171</v>
+        <v>58.772792</v>
       </c>
     </row>
     <row r="357">
@@ -23137,7 +23137,7 @@
         <v>49.28882251440811</v>
       </c>
       <c r="D357" t="n">
-        <v>59.525103</v>
+        <v>58.192398</v>
       </c>
     </row>
     <row r="358">
@@ -23151,7 +23151,7 @@
         <v>66.84317593732453</v>
       </c>
       <c r="D358" t="n">
-        <v>69.378299</v>
+        <v>69.497169</v>
       </c>
     </row>
     <row r="359">
@@ -23165,7 +23165,7 @@
         <v>65.01234892555618</v>
       </c>
       <c r="D359" t="n">
-        <v>81.054406</v>
+        <v>79.414615</v>
       </c>
     </row>
     <row r="360">
@@ -23179,7 +23179,7 @@
         <v>74.89545149741363</v>
       </c>
       <c r="D360" t="n">
-        <v>98.213057</v>
+        <v>78.199719</v>
       </c>
     </row>
     <row r="361">
@@ -23193,7 +23193,7 @@
         <v>106.58951658380127</v>
       </c>
       <c r="D361" t="n">
-        <v>90.6731</v>
+        <v>94.037998</v>
       </c>
     </row>
     <row r="362">
@@ -23207,7 +23207,7 @@
         <v>106.20471956272888</v>
       </c>
       <c r="D362" t="n">
-        <v>91.58126</v>
+        <v>94.375</v>
       </c>
     </row>
     <row r="363">
@@ -23221,7 +23221,7 @@
         <v>105.04463824230194</v>
       </c>
       <c r="D363" t="n">
-        <v>96.287733</v>
+        <v>94.762055</v>
       </c>
     </row>
     <row r="364">
@@ -23235,7 +23235,7 @@
         <v>107.39497937949372</v>
       </c>
       <c r="D364" t="n">
-        <v>91.368362</v>
+        <v>93.037074</v>
       </c>
     </row>
     <row r="365">
@@ -23249,7 +23249,7 @@
         <v>106.01884842359162</v>
       </c>
       <c r="D365" t="n">
-        <v>101.081551</v>
+        <v>101.390284</v>
       </c>
     </row>
     <row r="366">
@@ -23291,7 +23291,7 @@
         <v>4.353662680191994</v>
       </c>
       <c r="D368" t="n">
-        <v>5.301577</v>
+        <v>4.887845</v>
       </c>
     </row>
     <row r="369">
@@ -23305,7 +23305,7 @@
         <v>8.662304644035816</v>
       </c>
       <c r="D369" t="n">
-        <v>10.592691</v>
+        <v>10.299196</v>
       </c>
     </row>
     <row r="370">
@@ -23319,7 +23319,7 @@
         <v>4.53468895473218</v>
       </c>
       <c r="D370" t="n">
-        <v>5.985314</v>
+        <v>5.202992</v>
       </c>
     </row>
     <row r="371">
@@ -23347,7 +23347,7 @@
         <v>37.09007400958443</v>
       </c>
       <c r="D372" t="n">
-        <v>26.496265</v>
+        <v>25.274605</v>
       </c>
     </row>
     <row r="373">
@@ -23361,7 +23361,7 @@
         <v>90.5359340617218</v>
       </c>
       <c r="D373" t="n">
-        <v>76.182433</v>
+        <v>75.480894</v>
       </c>
     </row>
     <row r="374">
@@ -23375,7 +23375,7 @@
         <v>75.62010628289795</v>
       </c>
       <c r="D374" t="n">
-        <v>81.198106</v>
+        <v>81.085728</v>
       </c>
     </row>
     <row r="375">
@@ -23389,7 +23389,7 @@
         <v>94.81542074237824</v>
       </c>
       <c r="D375" t="n">
-        <v>80.89446</v>
+        <v>81.106931</v>
       </c>
     </row>
     <row r="376">
@@ -23403,7 +23403,7 @@
         <v>74.9458955745964</v>
       </c>
       <c r="D376" t="n">
-        <v>82.875459</v>
+        <v>82.841344</v>
       </c>
     </row>
     <row r="377">
@@ -23417,7 +23417,7 @@
         <v>87.78493311939239</v>
       </c>
       <c r="D377" t="n">
-        <v>83.085221</v>
+        <v>81.536645</v>
       </c>
     </row>
     <row r="378">
@@ -23431,7 +23431,7 @@
         <v>80.35912626786805</v>
       </c>
       <c r="D378" t="n">
-        <v>84.834312</v>
+        <v>83.314088</v>
       </c>
     </row>
     <row r="379">
@@ -23445,7 +23445,7 @@
         <v>79.86086318682861</v>
       </c>
       <c r="D379" t="n">
-        <v>78.81943799999999</v>
+        <v>80.54359099999999</v>
       </c>
     </row>
     <row r="380">
@@ -23459,7 +23459,7 @@
         <v>76.37033543667984</v>
       </c>
       <c r="D380" t="n">
-        <v>80.883315</v>
+        <v>79.28764</v>
       </c>
     </row>
     <row r="381">
@@ -23473,7 +23473,7 @@
         <v>77.49760505980683</v>
       </c>
       <c r="D381" t="n">
-        <v>78.295625</v>
+        <v>79.407779</v>
       </c>
     </row>
     <row r="382">
@@ -23487,7 +23487,7 @@
         <v>74.0550047460823</v>
       </c>
       <c r="D382" t="n">
-        <v>80.284554</v>
+        <v>79.571483</v>
       </c>
     </row>
     <row r="383">
@@ -23501,7 +23501,7 @@
         <v>79.66586326447678</v>
       </c>
       <c r="D383" t="n">
-        <v>79.11926700000001</v>
+        <v>80.817057</v>
       </c>
     </row>
     <row r="384">
@@ -23515,7 +23515,7 @@
         <v>75.98585630707169</v>
       </c>
       <c r="D384" t="n">
-        <v>81.081997</v>
+        <v>80.15821</v>
       </c>
     </row>
     <row r="385">
@@ -23529,7 +23529,7 @@
         <v>77.47072733650589</v>
       </c>
       <c r="D385" t="n">
-        <v>78.773152</v>
+        <v>77.924597</v>
       </c>
     </row>
     <row r="386">
@@ -23543,7 +23543,7 @@
         <v>76.81528282097626</v>
       </c>
       <c r="D386" t="n">
-        <v>62.374584</v>
+        <v>79.895161</v>
       </c>
     </row>
     <row r="387">
@@ -23557,7 +23557,7 @@
         <v>78.55081656814957</v>
       </c>
       <c r="D387" t="n">
-        <v>100.794382</v>
+        <v>80.448335</v>
       </c>
     </row>
     <row r="388">
@@ -23571,7 +23571,7 @@
         <v>74.8888181621933</v>
       </c>
       <c r="D388" t="n">
-        <v>106.814815</v>
+        <v>82.294962</v>
       </c>
     </row>
     <row r="389">
@@ -23585,7 +23585,7 @@
         <v>78.87824477630997</v>
       </c>
       <c r="D389" t="n">
-        <v>101.708023</v>
+        <v>82.064384</v>
       </c>
     </row>
     <row r="390">
@@ -23599,7 +23599,7 @@
         <v>76.50266835504914</v>
       </c>
       <c r="D390" t="n">
-        <v>84.294141</v>
+        <v>82.7681</v>
       </c>
     </row>
     <row r="391">
@@ -23613,7 +23613,7 @@
         <v>77.30928615639496</v>
       </c>
       <c r="D391" t="n">
-        <v>101.660799</v>
+        <v>82.241189</v>
       </c>
     </row>
     <row r="392">
@@ -23711,7 +23711,7 @@
         <v>8.822388162684918</v>
       </c>
       <c r="D398" t="n">
-        <v>18.762865</v>
+        <v>18.458232</v>
       </c>
     </row>
     <row r="399">
@@ -23725,7 +23725,7 @@
         <v>75.94938355974197</v>
       </c>
       <c r="D399" t="n">
-        <v>66.839489</v>
+        <v>66.337965</v>
       </c>
     </row>
     <row r="400">
@@ -23739,7 +23739,7 @@
         <v>73.03697852463914</v>
       </c>
       <c r="D400" t="n">
-        <v>77.772241</v>
+        <v>76.79341</v>
       </c>
     </row>
     <row r="401">
@@ -23753,7 +23753,7 @@
         <v>78.5726927990799</v>
       </c>
       <c r="D401" t="n">
-        <v>79.21851000000001</v>
+        <v>78.558775</v>
       </c>
     </row>
     <row r="402">
@@ -23767,7 +23767,7 @@
         <v>79.26139405995941</v>
       </c>
       <c r="D402" t="n">
-        <v>76.931889</v>
+        <v>76.59551499999999</v>
       </c>
     </row>
     <row r="403">
@@ -23781,7 +23781,7 @@
         <v>77.61037705674363</v>
       </c>
       <c r="D403" t="n">
-        <v>107.87246999999999</v>
+        <v>86.29260599999999</v>
       </c>
     </row>
     <row r="404">
@@ -23795,7 +23795,7 @@
         <v>71.0128152225151</v>
       </c>
       <c r="D404" t="n">
-        <v>77.228071</v>
+        <v>76.739153</v>
       </c>
     </row>
     <row r="405">
@@ -23809,7 +23809,7 @@
         <v>75.52011352282334</v>
       </c>
       <c r="D405" t="n">
-        <v>97.849711</v>
+        <v>76.372892</v>
       </c>
     </row>
     <row r="406">
@@ -23823,7 +23823,7 @@
         <v>68.44361111038971</v>
       </c>
       <c r="D406" t="n">
-        <v>78.319568</v>
+        <v>76.505703</v>
       </c>
     </row>
     <row r="407">
@@ -23837,7 +23837,7 @@
         <v>74.27801620462418</v>
       </c>
       <c r="D407" t="n">
-        <v>102.609472</v>
+        <v>80.995382</v>
       </c>
     </row>
     <row r="408">
@@ -23851,7 +23851,7 @@
         <v>75.4372922000084</v>
       </c>
       <c r="D408" t="n">
-        <v>79.660208</v>
+        <v>77.595646</v>
       </c>
     </row>
     <row r="409">
@@ -23865,7 +23865,7 @@
         <v>76.74877992665863</v>
       </c>
       <c r="D409" t="n">
-        <v>78.347347</v>
+        <v>77.741053</v>
       </c>
     </row>
     <row r="410">
@@ -23879,7 +23879,7 @@
         <v>77.89024340366363</v>
       </c>
       <c r="D410" t="n">
-        <v>80.57322</v>
+        <v>78.808346</v>
       </c>
     </row>
     <row r="411">
@@ -23893,7 +23893,7 @@
         <v>76.59066601054</v>
       </c>
       <c r="D411" t="n">
-        <v>79.171165</v>
+        <v>77.979557</v>
       </c>
     </row>
     <row r="412">
@@ -23907,7 +23907,7 @@
         <v>70.98078235930252</v>
       </c>
       <c r="D412" t="n">
-        <v>79.569779</v>
+        <v>78.788583</v>
       </c>
     </row>
     <row r="413">
@@ -23921,7 +23921,7 @@
         <v>76.42656513851166</v>
       </c>
       <c r="D413" t="n">
-        <v>62.423389</v>
+        <v>80.12624</v>
       </c>
     </row>
     <row r="414">
@@ -23935,7 +23935,7 @@
         <v>73.3690903337059</v>
       </c>
       <c r="D414" t="n">
-        <v>58.023157</v>
+        <v>79.126832</v>
       </c>
     </row>
     <row r="415">
@@ -23949,7 +23949,7 @@
         <v>79.12294173090363</v>
       </c>
       <c r="D415" t="n">
-        <v>60.486058</v>
+        <v>78.997664</v>
       </c>
     </row>
     <row r="416">
@@ -23963,7 +23963,7 @@
         <v>72.57332852586364</v>
       </c>
       <c r="D416" t="n">
-        <v>80.550172</v>
+        <v>81.180767</v>
       </c>
     </row>
     <row r="417">
@@ -23977,7 +23977,7 @@
         <v>74.50064619340897</v>
       </c>
       <c r="D417" t="n">
-        <v>63.984628</v>
+        <v>83.17758</v>
       </c>
     </row>
     <row r="418">
@@ -24075,7 +24075,7 @@
         <v>14.284569505531312</v>
       </c>
       <c r="D424" t="n">
-        <v>13.343777</v>
+        <v>13.265469</v>
       </c>
     </row>
     <row r="425">
@@ -24089,7 +24089,7 @@
         <v>57.19211823978424</v>
       </c>
       <c r="D425" t="n">
-        <v>54.380947</v>
+        <v>54.579254</v>
       </c>
     </row>
     <row r="426">
@@ -24103,7 +24103,7 @@
         <v>79.70521822774887</v>
       </c>
       <c r="D426" t="n">
-        <v>48.595967</v>
+        <v>50.167678</v>
       </c>
     </row>
     <row r="427">
@@ -24117,7 +24117,7 @@
         <v>79.72599243493653</v>
       </c>
       <c r="D427" t="n">
-        <v>66.72027299999999</v>
+        <v>64.214926</v>
       </c>
     </row>
     <row r="428">
@@ -24131,7 +24131,7 @@
         <v>71.84978636050415</v>
       </c>
       <c r="D428" t="n">
-        <v>54.816244999999995</v>
+        <v>50.425395</v>
       </c>
     </row>
     <row r="429">
@@ -24145,7 +24145,7 @@
         <v>80.1415984370842</v>
       </c>
       <c r="D429" t="n">
-        <v>33.307048</v>
+        <v>52.397087</v>
       </c>
     </row>
     <row r="430">
@@ -24159,7 +24159,7 @@
         <v>79.60078028536606</v>
       </c>
       <c r="D430" t="n">
-        <v>63.59667</v>
+        <v>61.228917</v>
       </c>
     </row>
     <row r="431">
@@ -24173,7 +24173,7 @@
         <v>81.20466987900924</v>
       </c>
       <c r="D431" t="n">
-        <v>40.392711</v>
+        <v>60.611452</v>
       </c>
     </row>
     <row r="432">
@@ -24187,7 +24187,7 @@
         <v>85.31708870063783</v>
       </c>
       <c r="D432" t="n">
-        <v>58.599006</v>
+        <v>51.672063</v>
       </c>
     </row>
     <row r="433">
@@ -24201,7 +24201,7 @@
         <v>79.110729400486</v>
       </c>
       <c r="D433" t="n">
-        <v>48.085803</v>
+        <v>67.212789</v>
       </c>
     </row>
     <row r="434">
@@ -24215,7 +24215,7 @@
         <v>67.98380230014038</v>
       </c>
       <c r="D434" t="n">
-        <v>54.564402</v>
+        <v>54.47197</v>
       </c>
     </row>
     <row r="435">
@@ -24229,7 +24229,7 @@
         <v>79.69289993350984</v>
       </c>
       <c r="D435" t="n">
-        <v>60.551526</v>
+        <v>59.299059</v>
       </c>
     </row>
     <row r="436">
@@ -24243,7 +24243,7 @@
         <v>80.39947199287033</v>
       </c>
       <c r="D436" t="n">
-        <v>52.791807000000006</v>
+        <v>53.419396</v>
       </c>
     </row>
     <row r="437">
@@ -24257,7 +24257,7 @@
         <v>77.60575173593902</v>
       </c>
       <c r="D437" t="n">
-        <v>59.463492</v>
+        <v>61.435368</v>
       </c>
     </row>
     <row r="438">
@@ -24271,7 +24271,7 @@
         <v>78.49094171086121</v>
       </c>
       <c r="D438" t="n">
-        <v>55.193493000000004</v>
+        <v>53.912884</v>
       </c>
     </row>
     <row r="439">
@@ -24285,7 +24285,7 @@
         <v>80.18710989838029</v>
       </c>
       <c r="D439" t="n">
-        <v>56.930186</v>
+        <v>60.532592</v>
       </c>
     </row>
     <row r="440">
@@ -24299,7 +24299,7 @@
         <v>81.68739866382981</v>
       </c>
       <c r="D440" t="n">
-        <v>55.30758</v>
+        <v>53.798454</v>
       </c>
     </row>
     <row r="441">
@@ -24313,7 +24313,7 @@
         <v>75.20428835310746</v>
       </c>
       <c r="D441" t="n">
-        <v>56.662893</v>
+        <v>58.694824</v>
       </c>
     </row>
     <row r="442">
@@ -24327,7 +24327,7 @@
         <v>76.68835405749894</v>
       </c>
       <c r="D442" t="n">
-        <v>55.051999</v>
+        <v>53.691207</v>
       </c>
     </row>
     <row r="443">
@@ -24341,7 +24341,7 @@
         <v>78.33392452029419</v>
       </c>
       <c r="D443" t="n">
-        <v>56.013254</v>
+        <v>58.617047</v>
       </c>
     </row>
     <row r="444">
@@ -24453,7 +24453,7 @@
         <v>31.72005536268425</v>
       </c>
       <c r="D451" t="n">
-        <v>32.505712</v>
+        <v>32.280316</v>
       </c>
     </row>
     <row r="452">
@@ -24467,7 +24467,7 @@
         <v>31.5988618910408</v>
       </c>
       <c r="D452" t="n">
-        <v>40.964936</v>
+        <v>39.222971</v>
       </c>
     </row>
     <row r="453">
@@ -24481,7 +24481,7 @@
         <v>44.919510302341465</v>
       </c>
       <c r="D453" t="n">
-        <v>44.159352</v>
+        <v>43.824825</v>
       </c>
     </row>
     <row r="454">
@@ -24495,7 +24495,7 @@
         <v>35.231582493141175</v>
       </c>
       <c r="D454" t="n">
-        <v>39.239899</v>
+        <v>38.765896</v>
       </c>
     </row>
     <row r="455">
@@ -24509,7 +24509,7 @@
         <v>47.30572549127197</v>
       </c>
       <c r="D455" t="n">
-        <v>46.104891</v>
+        <v>45.806364</v>
       </c>
     </row>
     <row r="456">
@@ -24523,7 +24523,7 @@
         <v>39.006811189561844</v>
       </c>
       <c r="D456" t="n">
-        <v>45.576726</v>
+        <v>45.250248</v>
       </c>
     </row>
     <row r="457">
@@ -24537,7 +24537,7 @@
         <v>35.521467719375615</v>
       </c>
       <c r="D457" t="n">
-        <v>42.086293</v>
+        <v>41.570684</v>
       </c>
     </row>
     <row r="458">
@@ -24551,7 +24551,7 @@
         <v>23.709150727569583</v>
       </c>
       <c r="D458" t="n">
-        <v>32.636881</v>
+        <v>37.828185</v>
       </c>
     </row>
     <row r="459">
@@ -24579,7 +24579,7 @@
         <v>21.721652232201578</v>
       </c>
       <c r="D460" t="n">
-        <v>39.530301</v>
+        <v>39.141034</v>
       </c>
     </row>
     <row r="461">
@@ -24593,7 +24593,7 @@
         <v>37.90726170211602</v>
       </c>
       <c r="D461" t="n">
-        <v>39.556915</v>
+        <v>39.154133</v>
       </c>
     </row>
     <row r="462">
@@ -24607,7 +24607,7 @@
         <v>45.713242903003696</v>
       </c>
       <c r="D462" t="n">
-        <v>37.939567000000004</v>
+        <v>37.506792000000004</v>
       </c>
     </row>
     <row r="463">
@@ -24621,7 +24621,7 @@
         <v>29.657774224903108</v>
       </c>
       <c r="D463" t="n">
-        <v>39.36985</v>
+        <v>38.851794999999996</v>
       </c>
     </row>
     <row r="464">
@@ -24635,7 +24635,7 @@
         <v>22.211472645770073</v>
       </c>
       <c r="D464" t="n">
-        <v>39.060658000000004</v>
+        <v>38.741958</v>
       </c>
     </row>
     <row r="465">
@@ -24649,7 +24649,7 @@
         <v>20.398974726010323</v>
       </c>
       <c r="D465" t="n">
-        <v>36.457938999999996</v>
+        <v>36.144556</v>
       </c>
     </row>
     <row r="466">
@@ -24663,7 +24663,7 @@
         <v>44.54676666595459</v>
       </c>
       <c r="D466" t="n">
-        <v>37.541009</v>
+        <v>37.186059</v>
       </c>
     </row>
     <row r="467">
@@ -24677,7 +24677,7 @@
         <v>22.196644333511355</v>
       </c>
       <c r="D467" t="n">
-        <v>38.316864</v>
+        <v>37.803925</v>
       </c>
     </row>
     <row r="468">
@@ -24691,7 +24691,7 @@
         <v>52.057477029384614</v>
       </c>
       <c r="D468" t="n">
-        <v>37.712014</v>
+        <v>37.356318</v>
       </c>
     </row>
     <row r="469">
@@ -24705,7 +24705,7 @@
         <v>32.94678527768326</v>
       </c>
       <c r="D469" t="n">
-        <v>37.625959</v>
+        <v>37.236561</v>
       </c>
     </row>
     <row r="470">
@@ -24845,7 +24845,7 @@
         <v>2.7669211786540746</v>
       </c>
       <c r="D479" t="n">
-        <v>4.667116999999999</v>
+        <v>3.863753</v>
       </c>
     </row>
     <row r="480">
@@ -24859,7 +24859,7 @@
         <v>7.820692290668965</v>
       </c>
       <c r="D480" t="n">
-        <v>9.125154</v>
+        <v>8.526746</v>
       </c>
     </row>
     <row r="481">
@@ -24873,7 +24873,7 @@
         <v>4.266596844055653</v>
       </c>
       <c r="D481" t="n">
-        <v>2.903799</v>
+        <v>4.429183</v>
       </c>
     </row>
     <row r="482">
@@ -24929,7 +24929,7 @@
         <v>2.5480275735533238</v>
       </c>
       <c r="D485" t="n">
-        <v>5.453879000000001</v>
+        <v>5.037094</v>
       </c>
     </row>
     <row r="486">
@@ -25195,7 +25195,7 @@
         <v>4.227736268237829</v>
       </c>
       <c r="D504" t="n">
-        <v>8.013889</v>
+        <v>7.576103</v>
       </c>
     </row>
     <row r="505">
@@ -25209,7 +25209,7 @@
         <v>31.306475918621064</v>
       </c>
       <c r="D505" t="n">
-        <v>26.859841000000003</v>
+        <v>28.091239</v>
       </c>
     </row>
     <row r="506">
@@ -25223,7 +25223,7 @@
         <v>9.13353569195938</v>
       </c>
       <c r="D506" t="n">
-        <v>26.581878</v>
+        <v>26.433591</v>
       </c>
     </row>
     <row r="507">
@@ -25237,7 +25237,7 @@
         <v>25.241289568639758</v>
       </c>
       <c r="D507" t="n">
-        <v>30.565359</v>
+        <v>28.457174000000002</v>
       </c>
     </row>
     <row r="508">
@@ -25251,7 +25251,7 @@
         <v>23.059094472358705</v>
       </c>
       <c r="D508" t="n">
-        <v>28.614731</v>
+        <v>30.067829</v>
       </c>
     </row>
     <row r="509">
@@ -25265,7 +25265,7 @@
         <v>28.901939584968567</v>
       </c>
       <c r="D509" t="n">
-        <v>26.094511</v>
+        <v>28.15212</v>
       </c>
     </row>
     <row r="510">
@@ -25279,7 +25279,7 @@
         <v>9.858999776129723</v>
       </c>
       <c r="D510" t="n">
-        <v>25.608897</v>
+        <v>27.727932</v>
       </c>
     </row>
     <row r="511">
@@ -25293,7 +25293,7 @@
         <v>23.241267474128723</v>
       </c>
       <c r="D511" t="n">
-        <v>25.60166</v>
+        <v>28.348064</v>
       </c>
     </row>
     <row r="512">
@@ -25307,7 +25307,7 @@
         <v>10.972078194474221</v>
       </c>
       <c r="D512" t="n">
-        <v>24.90782</v>
+        <v>27.144256000000002</v>
       </c>
     </row>
     <row r="513">
@@ -25321,7 +25321,7 @@
         <v>21.737936222456934</v>
       </c>
       <c r="D513" t="n">
-        <v>25.874653000000002</v>
+        <v>28.162829000000002</v>
       </c>
     </row>
     <row r="514">
@@ -25335,7 +25335,7 @@
         <v>3.597717109381914</v>
       </c>
       <c r="D514" t="n">
-        <v>24.030518</v>
+        <v>26.473674000000003</v>
       </c>
     </row>
     <row r="515">
@@ -25349,7 +25349,7 @@
         <v>11.701680165870666</v>
       </c>
       <c r="D515" t="n">
-        <v>29.114497999999998</v>
+        <v>32.373855</v>
       </c>
     </row>
     <row r="516">
@@ -25363,7 +25363,7 @@
         <v>12.999444253100396</v>
       </c>
       <c r="D516" t="n">
-        <v>25.570917</v>
+        <v>27.296783</v>
       </c>
     </row>
     <row r="517">
@@ -25377,7 +25377,7 @@
         <v>11.934770108376503</v>
       </c>
       <c r="D517" t="n">
-        <v>25.870162</v>
+        <v>28.765397</v>
       </c>
     </row>
     <row r="518">
@@ -25391,7 +25391,7 @@
         <v>7.15594680071497</v>
       </c>
       <c r="D518" t="n">
-        <v>24.742116</v>
+        <v>26.332684</v>
       </c>
     </row>
     <row r="519">
@@ -25405,7 +25405,7 @@
         <v>11.239292461117746</v>
       </c>
       <c r="D519" t="n">
-        <v>26.689473</v>
+        <v>29.238259</v>
       </c>
     </row>
     <row r="520">
@@ -25419,7 +25419,7 @@
         <v>8.723682863040448</v>
       </c>
       <c r="D520" t="n">
-        <v>26.058146999999998</v>
+        <v>27.671494</v>
       </c>
     </row>
     <row r="521">
@@ -25433,7 +25433,7 @@
         <v>11.015627338252544</v>
       </c>
       <c r="D521" t="n">
-        <v>26.464844</v>
+        <v>29.494353</v>
       </c>
     </row>
     <row r="522">
@@ -25573,7 +25573,7 @@
         <v>4.562499159661532</v>
       </c>
       <c r="D531" t="n">
-        <v>13.371544</v>
+        <v>13.161707</v>
       </c>
     </row>
     <row r="532">
@@ -25629,7 +25629,7 @@
         <v>4.633055501285076</v>
       </c>
       <c r="D535" t="n">
-        <v>11.965492</v>
+        <v>11.878369</v>
       </c>
     </row>
     <row r="536">
@@ -25643,7 +25643,7 @@
         <v>4.451586165516615</v>
       </c>
       <c r="D536" t="n">
-        <v>10.792721</v>
+        <v>11.972216</v>
       </c>
     </row>
     <row r="537">
@@ -25685,7 +25685,7 @@
         <v>4.499592743669987</v>
       </c>
       <c r="D539" t="n">
-        <v>12.115189</v>
+        <v>11.901711</v>
       </c>
     </row>
     <row r="540">
@@ -25699,7 +25699,7 @@
         <v>4.275488533219814</v>
       </c>
       <c r="D540" t="n">
-        <v>11.684244</v>
+        <v>11.436912</v>
       </c>
     </row>
     <row r="541">
@@ -25769,7 +25769,7 @@
         <v>4.218129323279142</v>
       </c>
       <c r="D545" t="n">
-        <v>12.080573000000001</v>
+        <v>12.889025</v>
       </c>
     </row>
     <row r="546">
@@ -25783,7 +25783,7 @@
         <v>4.4036643584203725</v>
       </c>
       <c r="D546" t="n">
-        <v>12.087223</v>
+        <v>12.761915</v>
       </c>
     </row>
     <row r="547">
@@ -25797,7 +25797,7 @@
         <v>4.452220955034256</v>
       </c>
       <c r="D547" t="n">
-        <v>11.796398</v>
+        <v>12.322532</v>
       </c>
     </row>
     <row r="548">
@@ -25937,7 +25937,7 @@
         <v>3.743156427911997</v>
       </c>
       <c r="D557" t="n">
-        <v>4.967176</v>
+        <v>6.418156</v>
       </c>
     </row>
     <row r="558">
@@ -25951,7 +25951,7 @@
         <v>4.306502156925202</v>
       </c>
       <c r="D558" t="n">
-        <v>2.701428</v>
+        <v>4.076216</v>
       </c>
     </row>
     <row r="559">
@@ -25965,7 +25965,7 @@
         <v>4.201856260542869</v>
       </c>
       <c r="D559" t="n">
-        <v>4.816834</v>
+        <v>6.113326</v>
       </c>
     </row>
     <row r="560">
@@ -25979,7 +25979,7 @@
         <v>4.7492229764242175</v>
       </c>
       <c r="D560" t="n">
-        <v>6.173373</v>
+        <v>7.730556999999999</v>
       </c>
     </row>
     <row r="561">
@@ -25993,7 +25993,7 @@
         <v>3.505858066011429</v>
       </c>
       <c r="D561" t="n">
-        <v>2.384417</v>
+        <v>4.747115</v>
       </c>
     </row>
     <row r="562">
@@ -26007,7 +26007,7 @@
         <v>10.295515751611234</v>
       </c>
       <c r="D562" t="n">
-        <v>2.501331</v>
+        <v>3.719545</v>
       </c>
     </row>
     <row r="563">
@@ -26021,7 +26021,7 @@
         <v>3.016041957223177</v>
       </c>
       <c r="D563" t="n">
-        <v>2.579682</v>
+        <v>4.189437</v>
       </c>
     </row>
     <row r="564">
@@ -26035,7 +26035,7 @@
         <v>3.9360784659533503</v>
       </c>
       <c r="D564" t="n">
-        <v>2.487523</v>
+        <v>4.05811</v>
       </c>
     </row>
     <row r="565">
@@ -26049,7 +26049,7 @@
         <v>4.1002502012872695</v>
       </c>
       <c r="D565" t="n">
-        <v>2.644962</v>
+        <v>4.252805</v>
       </c>
     </row>
     <row r="566">
@@ -26063,7 +26063,7 @@
         <v>9.980801215198516</v>
       </c>
       <c r="D566" t="n">
-        <v>2.822234</v>
+        <v>4.390861</v>
       </c>
     </row>
     <row r="567">
@@ -26077,7 +26077,7 @@
         <v>3.2112544694917204</v>
       </c>
       <c r="D567" t="n">
-        <v>2.871729</v>
+        <v>4.440847</v>
       </c>
     </row>
     <row r="568">
@@ -26091,7 +26091,7 @@
         <v>3.4996664674715996</v>
       </c>
       <c r="D568" t="n">
-        <v>2.737373</v>
+        <v>4.388628</v>
       </c>
     </row>
     <row r="569">
@@ -26105,7 +26105,7 @@
         <v>3.3859510613873005</v>
       </c>
       <c r="D569" t="n">
-        <v>2.695992</v>
+        <v>4.186704</v>
       </c>
     </row>
     <row r="570">
@@ -26119,7 +26119,7 @@
         <v>3.872240230607271</v>
       </c>
       <c r="D570" t="n">
-        <v>2.727419</v>
+        <v>4.180517999999999</v>
       </c>
     </row>
     <row r="571">
@@ -26133,7 +26133,7 @@
         <v>3.2128644573032856</v>
       </c>
       <c r="D571" t="n">
-        <v>2.738502</v>
+        <v>4.387427</v>
       </c>
     </row>
     <row r="572">
@@ -26147,7 +26147,7 @@
         <v>5.1169611467971805</v>
       </c>
       <c r="D572" t="n">
-        <v>3.071911</v>
+        <v>4.410425</v>
       </c>
     </row>
     <row r="573">
@@ -26161,7 +26161,7 @@
         <v>4.530690476158619</v>
       </c>
       <c r="D573" t="n">
-        <v>2.868911</v>
+        <v>4.202821</v>
       </c>
     </row>
     <row r="574">
@@ -26665,7 +26665,7 @@
         <v>18.200544647741317</v>
       </c>
       <c r="D609" t="n">
-        <v>22.338794</v>
+        <v>23.389969</v>
       </c>
     </row>
     <row r="610">
@@ -26679,7 +26679,7 @@
         <v>27.393475710697174</v>
       </c>
       <c r="D610" t="n">
-        <v>27.104741999999998</v>
+        <v>30.133502999999997</v>
       </c>
     </row>
     <row r="611">
@@ -26693,7 +26693,7 @@
         <v>18.109748222817423</v>
       </c>
       <c r="D611" t="n">
-        <v>21.68166</v>
+        <v>21.611081</v>
       </c>
     </row>
     <row r="612">
@@ -26707,7 +26707,7 @@
         <v>13.256025050265313</v>
       </c>
       <c r="D612" t="n">
-        <v>19.277474</v>
+        <v>19.168128</v>
       </c>
     </row>
     <row r="613">
@@ -26721,7 +26721,7 @@
         <v>17.695731677990914</v>
       </c>
       <c r="D613" t="n">
-        <v>25.581027</v>
+        <v>27.626267</v>
       </c>
     </row>
     <row r="614">
@@ -26735,7 +26735,7 @@
         <v>47.351819753585815</v>
       </c>
       <c r="D614" t="n">
-        <v>26.883145</v>
+        <v>32.54798</v>
       </c>
     </row>
     <row r="615">
@@ -26749,7 +26749,7 @@
         <v>23.235208992639542</v>
       </c>
       <c r="D615" t="n">
-        <v>23.345665</v>
+        <v>26.960128</v>
       </c>
     </row>
     <row r="616">
@@ -26763,7 +26763,7 @@
         <v>38.033308316780094</v>
       </c>
       <c r="D616" t="n">
-        <v>27.901145</v>
+        <v>33.101383</v>
       </c>
     </row>
     <row r="617">
@@ -26777,7 +26777,7 @@
         <v>26.565278377120972</v>
       </c>
       <c r="D617" t="n">
-        <v>25.251185</v>
+        <v>27.416942</v>
       </c>
     </row>
     <row r="618">
@@ -26791,7 +26791,7 @@
         <v>32.20673394894791</v>
       </c>
       <c r="D618" t="n">
-        <v>26.196019</v>
+        <v>31.87833</v>
       </c>
     </row>
     <row r="619">
@@ -26805,7 +26805,7 @@
         <v>18.590919339463234</v>
       </c>
       <c r="D619" t="n">
-        <v>24.412478999999998</v>
+        <v>28.538493</v>
       </c>
     </row>
     <row r="620">
@@ -26819,7 +26819,7 @@
         <v>31.67645125017357</v>
       </c>
       <c r="D620" t="n">
-        <v>25.648612</v>
+        <v>29.405442</v>
       </c>
     </row>
     <row r="621">
@@ -26833,7 +26833,7 @@
         <v>20.23343407055855</v>
       </c>
       <c r="D621" t="n">
-        <v>45.415249</v>
+        <v>29.481443</v>
       </c>
     </row>
     <row r="622">
@@ -26847,7 +26847,7 @@
         <v>28.468346224136354</v>
       </c>
       <c r="D622" t="n">
-        <v>26.652196</v>
+        <v>30.132971</v>
       </c>
     </row>
     <row r="623">
@@ -26861,7 +26861,7 @@
         <v>20.10241112993145</v>
       </c>
       <c r="D623" t="n">
-        <v>26.199019</v>
+        <v>30.451571</v>
       </c>
     </row>
     <row r="624">
@@ -26875,7 +26875,7 @@
         <v>30.059509562828065</v>
       </c>
       <c r="D624" t="n">
-        <v>45.169007</v>
+        <v>30.987282999999998</v>
       </c>
     </row>
     <row r="625">
@@ -26889,7 +26889,7 @@
         <v>30.176668461971285</v>
       </c>
       <c r="D625" t="n">
-        <v>25.980965</v>
+        <v>30.347113</v>
       </c>
     </row>
     <row r="626">
@@ -27015,7 +27015,7 @@
         <v>11.96116966993332</v>
       </c>
       <c r="D634" t="n">
-        <v>18.86639</v>
+        <v>18.103307</v>
       </c>
     </row>
     <row r="635">
@@ -27029,7 +27029,7 @@
         <v>20.113196922403336</v>
       </c>
       <c r="D635" t="n">
-        <v>26.792216</v>
+        <v>25.872567</v>
       </c>
     </row>
     <row r="636">
@@ -27043,7 +27043,7 @@
         <v>14.274255252064705</v>
       </c>
       <c r="D636" t="n">
-        <v>24.102829999999997</v>
+        <v>23.220475</v>
       </c>
     </row>
     <row r="637">
@@ -27057,7 +27057,7 @@
         <v>19.897300934469225</v>
       </c>
       <c r="D637" t="n">
-        <v>27.571084</v>
+        <v>27.064041</v>
       </c>
     </row>
     <row r="638">
@@ -27071,7 +27071,7 @@
         <v>39.964623469488146</v>
       </c>
       <c r="D638" t="n">
-        <v>28.298442</v>
+        <v>27.652355</v>
       </c>
     </row>
     <row r="639">
@@ -27085,7 +27085,7 @@
         <v>21.28885624912548</v>
       </c>
       <c r="D639" t="n">
-        <v>25.347194000000002</v>
+        <v>24.488870000000002</v>
       </c>
     </row>
     <row r="640">
@@ -27099,7 +27099,7 @@
         <v>19.424131410887718</v>
       </c>
       <c r="D640" t="n">
-        <v>24.688252000000002</v>
+        <v>23.923848000000003</v>
       </c>
     </row>
     <row r="641">
@@ -27113,7 +27113,7 @@
         <v>16.549613740130425</v>
       </c>
       <c r="D641" t="n">
-        <v>25.471847</v>
+        <v>24.916715</v>
       </c>
     </row>
     <row r="642">
@@ -27127,7 +27127,7 @@
         <v>15.637877178849221</v>
       </c>
       <c r="D642" t="n">
-        <v>24.08271</v>
+        <v>23.949035</v>
       </c>
     </row>
     <row r="643">
@@ -27141,7 +27141,7 @@
         <v>14.796766829086303</v>
       </c>
       <c r="D643" t="n">
-        <v>24.916832</v>
+        <v>24.084119</v>
       </c>
     </row>
     <row r="644">
@@ -27155,7 +27155,7 @@
         <v>12.491799400222778</v>
       </c>
       <c r="D644" t="n">
-        <v>24.690368</v>
+        <v>23.953768</v>
       </c>
     </row>
     <row r="645">
@@ -27169,7 +27169,7 @@
         <v>13.341834552844048</v>
       </c>
       <c r="D645" t="n">
-        <v>24.186554</v>
+        <v>23.872927</v>
       </c>
     </row>
     <row r="646">
@@ -27183,7 +27183,7 @@
         <v>17.136614898862838</v>
       </c>
       <c r="D646" t="n">
-        <v>24.674222</v>
+        <v>23.812853</v>
       </c>
     </row>
     <row r="647">
@@ -27197,7 +27197,7 @@
         <v>14.593960022192002</v>
       </c>
       <c r="D647" t="n">
-        <v>5.827127</v>
+        <v>24.332402000000002</v>
       </c>
     </row>
     <row r="648">
@@ -27211,7 +27211,7 @@
         <v>17.11712815210533</v>
       </c>
       <c r="D648" t="n">
-        <v>24.764728</v>
+        <v>23.866271</v>
       </c>
     </row>
     <row r="649">
@@ -27225,7 +27225,7 @@
         <v>13.096908451486588</v>
       </c>
       <c r="D649" t="n">
-        <v>24.935469</v>
+        <v>23.874405</v>
       </c>
     </row>
     <row r="650">
@@ -27239,7 +27239,7 @@
         <v>17.61734494110203</v>
       </c>
       <c r="D650" t="n">
-        <v>6.012537</v>
+        <v>24.373703999999996</v>
       </c>
     </row>
     <row r="651">
@@ -27253,7 +27253,7 @@
         <v>14.077789055334092</v>
       </c>
       <c r="D651" t="n">
-        <v>24.835502</v>
+        <v>24.031466</v>
       </c>
     </row>
     <row r="652">
@@ -27393,7 +27393,7 @@
         <v>9.915820226265907</v>
       </c>
       <c r="D661" t="n">
-        <v>24.636768</v>
+        <v>23.604498</v>
       </c>
     </row>
     <row r="662">
@@ -27407,7 +27407,7 @@
         <v>11.671532134131432</v>
       </c>
       <c r="D662" t="n">
-        <v>26.060127</v>
+        <v>26.04776</v>
       </c>
     </row>
     <row r="663">
@@ -27421,7 +27421,7 @@
         <v>9.874218167706013</v>
       </c>
       <c r="D663" t="n">
-        <v>25.733839999999997</v>
+        <v>25.343314</v>
       </c>
     </row>
     <row r="664">
@@ -27435,7 +27435,7 @@
         <v>13.189359236572265</v>
       </c>
       <c r="D664" t="n">
-        <v>26.914436</v>
+        <v>26.718861999999998</v>
       </c>
     </row>
     <row r="665">
@@ -27449,7 +27449,7 @@
         <v>11.211720674786568</v>
       </c>
       <c r="D665" t="n">
-        <v>26.815463</v>
+        <v>25.948892999999998</v>
       </c>
     </row>
     <row r="666">
@@ -27463,7 +27463,7 @@
         <v>11.407500755773544</v>
       </c>
       <c r="D666" t="n">
-        <v>27.126043000000003</v>
+        <v>26.276176</v>
       </c>
     </row>
     <row r="667">
@@ -27477,7 +27477,7 @@
         <v>11.367331195624352</v>
       </c>
       <c r="D667" t="n">
-        <v>26.219824000000003</v>
+        <v>25.193824</v>
       </c>
     </row>
     <row r="668">
@@ -27491,7 +27491,7 @@
         <v>10.522866428639889</v>
       </c>
       <c r="D668" t="n">
-        <v>26.33424</v>
+        <v>25.191504</v>
       </c>
     </row>
     <row r="669">
@@ -27505,7 +27505,7 @@
         <v>11.599728399647713</v>
       </c>
       <c r="D669" t="n">
-        <v>26.602553</v>
+        <v>25.699355</v>
       </c>
     </row>
     <row r="670">
@@ -27519,7 +27519,7 @@
         <v>10.021675434760095</v>
       </c>
       <c r="D670" t="n">
-        <v>26.665952</v>
+        <v>25.833538</v>
       </c>
     </row>
     <row r="671">
@@ -27533,7 +27533,7 @@
         <v>9.359020743457318</v>
       </c>
       <c r="D671" t="n">
-        <v>26.518242</v>
+        <v>25.687731</v>
       </c>
     </row>
     <row r="672">
@@ -27547,7 +27547,7 @@
         <v>9.631090802217006</v>
       </c>
       <c r="D672" t="n">
-        <v>25.91319</v>
+        <v>25.112171</v>
       </c>
     </row>
     <row r="673">
@@ -27561,7 +27561,7 @@
         <v>10.467153962711334</v>
       </c>
       <c r="D673" t="n">
-        <v>26.500034</v>
+        <v>25.736452</v>
       </c>
     </row>
     <row r="674">
@@ -27575,7 +27575,7 @@
         <v>9.046688406204701</v>
       </c>
       <c r="D674" t="n">
-        <v>26.355346</v>
+        <v>25.445364</v>
       </c>
     </row>
     <row r="675">
@@ -27589,7 +27589,7 @@
         <v>9.755750615368367</v>
       </c>
       <c r="D675" t="n">
-        <v>26.02712</v>
+        <v>25.239662000000003</v>
       </c>
     </row>
     <row r="676">
@@ -27603,7 +27603,7 @@
         <v>9.571075542865277</v>
       </c>
       <c r="D676" t="n">
-        <v>26.577201</v>
+        <v>25.748025</v>
       </c>
     </row>
     <row r="677">
@@ -27617,7 +27617,7 @@
         <v>9.755715514852524</v>
       </c>
       <c r="D677" t="n">
-        <v>26.404536</v>
+        <v>25.931845</v>
       </c>
     </row>
     <row r="678">
@@ -27743,7 +27743,7 @@
         <v>18.907597517941475</v>
       </c>
       <c r="D686" t="n">
-        <v>19.282763</v>
+        <v>18.349907</v>
       </c>
     </row>
     <row r="687">
@@ -27757,7 +27757,7 @@
         <v>18.997844255541803</v>
       </c>
       <c r="D687" t="n">
-        <v>34.973442</v>
+        <v>34.308323</v>
       </c>
     </row>
     <row r="688">
@@ -27771,7 +27771,7 @@
         <v>46.16817207927704</v>
       </c>
       <c r="D688" t="n">
-        <v>44.328168</v>
+        <v>44.039106</v>
       </c>
     </row>
     <row r="689">
@@ -27785,7 +27785,7 @@
         <v>17.507931997303963</v>
       </c>
       <c r="D689" t="n">
-        <v>34.770540000000004</v>
+        <v>33.998671</v>
       </c>
     </row>
     <row r="690">
@@ -27799,7 +27799,7 @@
         <v>27.554204284109115</v>
       </c>
       <c r="D690" t="n">
-        <v>26.690728</v>
+        <v>25.666909</v>
       </c>
     </row>
     <row r="691">
@@ -27813,7 +27813,7 @@
         <v>25.172495206684115</v>
       </c>
       <c r="D691" t="n">
-        <v>50.807001</v>
+        <v>49.007538000000004</v>
       </c>
     </row>
     <row r="692">
@@ -27827,7 +27827,7 @@
         <v>37.51727775198555</v>
       </c>
       <c r="D692" t="n">
-        <v>43.059765</v>
+        <v>41.826202</v>
       </c>
     </row>
     <row r="693">
@@ -27841,7 +27841,7 @@
         <v>22.528228972566605</v>
       </c>
       <c r="D693" t="n">
-        <v>38.766948</v>
+        <v>37.760672</v>
       </c>
     </row>
     <row r="694">
@@ -27855,7 +27855,7 @@
         <v>32.634854278404234</v>
       </c>
       <c r="D694" t="n">
-        <v>43.207465</v>
+        <v>41.546673</v>
       </c>
     </row>
     <row r="695">
@@ -27869,7 +27869,7 @@
         <v>21.600187228265764</v>
       </c>
       <c r="D695" t="n">
-        <v>38.419808</v>
+        <v>37.005671</v>
       </c>
     </row>
     <row r="696">
@@ -27883,7 +27883,7 @@
         <v>34.882537665412904</v>
       </c>
       <c r="D696" t="n">
-        <v>43.235816</v>
+        <v>41.777317000000004</v>
       </c>
     </row>
     <row r="697">
@@ -27897,7 +27897,7 @@
         <v>47.84091696407318</v>
       </c>
       <c r="D697" t="n">
-        <v>38.602075</v>
+        <v>37.734682</v>
       </c>
     </row>
     <row r="698">
@@ -27911,7 +27911,7 @@
         <v>35.3791159216919</v>
       </c>
       <c r="D698" t="n">
-        <v>43.270255000000006</v>
+        <v>41.855869</v>
       </c>
     </row>
     <row r="699">
@@ -27925,7 +27925,7 @@
         <v>62.768331886768344</v>
       </c>
       <c r="D699" t="n">
-        <v>41.384355</v>
+        <v>40.148924</v>
       </c>
     </row>
     <row r="700">
@@ -27939,7 +27939,7 @@
         <v>48.688473887821196</v>
       </c>
       <c r="D700" t="n">
-        <v>42.802962</v>
+        <v>42.249576</v>
       </c>
     </row>
     <row r="701">
@@ -27953,7 +27953,7 @@
         <v>65.84102309632874</v>
       </c>
       <c r="D701" t="n">
-        <v>41.496057</v>
+        <v>40.450494</v>
       </c>
     </row>
     <row r="702">
@@ -27967,7 +27967,7 @@
         <v>34.19492783189392</v>
       </c>
       <c r="D702" t="n">
-        <v>53.498658999999996</v>
+        <v>52.590489</v>
       </c>
     </row>
     <row r="703">
@@ -27981,7 +27981,7 @@
         <v>31.27312910402298</v>
       </c>
       <c r="D703" t="n">
-        <v>41.507400000000004</v>
+        <v>39.890225</v>
       </c>
     </row>
     <row r="704">
@@ -28107,7 +28107,7 @@
         <v>11.184376710671426</v>
       </c>
       <c r="D712" t="n">
-        <v>8.72581</v>
+        <v>8.449587</v>
       </c>
     </row>
     <row r="713">
@@ -28121,7 +28121,7 @@
         <v>51.55236338729095</v>
       </c>
       <c r="D713" t="n">
-        <v>43.626222999999996</v>
+        <v>42.643171</v>
       </c>
     </row>
     <row r="714">
@@ -28135,7 +28135,7 @@
         <v>56.99673684767532</v>
       </c>
       <c r="D714" t="n">
-        <v>44.403088000000004</v>
+        <v>42.038758</v>
       </c>
     </row>
     <row r="715">
@@ -28149,7 +28149,7 @@
         <v>57.359005960315706</v>
       </c>
       <c r="D715" t="n">
-        <v>46.986315</v>
+        <v>46.140962</v>
       </c>
     </row>
     <row r="716">
@@ -28163,7 +28163,7 @@
         <v>71.91093808184051</v>
       </c>
       <c r="D716" t="n">
-        <v>54.181503</v>
+        <v>53.619976</v>
       </c>
     </row>
     <row r="717">
@@ -28177,7 +28177,7 @@
         <v>65.44402434122085</v>
       </c>
       <c r="D717" t="n">
-        <v>35.549611999999996</v>
+        <v>34.612006</v>
       </c>
     </row>
     <row r="718">
@@ -28191,7 +28191,7 @@
         <v>62.52126134257507</v>
       </c>
       <c r="D718" t="n">
-        <v>45.939446000000004</v>
+        <v>44.410121</v>
       </c>
     </row>
     <row r="719">
@@ -28205,7 +28205,7 @@
         <v>63.066355134487154</v>
       </c>
       <c r="D719" t="n">
-        <v>47.827118999999996</v>
+        <v>46.709444</v>
       </c>
     </row>
     <row r="720">
@@ -28219,7 +28219,7 @@
         <v>61.0240402297554</v>
       </c>
       <c r="D720" t="n">
-        <v>44.956375</v>
+        <v>43.884313</v>
       </c>
     </row>
     <row r="721">
@@ -28233,7 +28233,7 @@
         <v>49.168325754890446</v>
       </c>
       <c r="D721" t="n">
-        <v>44.925803</v>
+        <v>44.541913</v>
       </c>
     </row>
     <row r="722">
@@ -28247,7 +28247,7 @@
         <v>58.9102421310997</v>
       </c>
       <c r="D722" t="n">
-        <v>43.849264</v>
+        <v>43.047585</v>
       </c>
     </row>
     <row r="723">
@@ -28275,7 +28275,7 @@
         <v>64.96404531756592</v>
       </c>
       <c r="D724" t="n">
-        <v>44.319964</v>
+        <v>43.967265</v>
       </c>
     </row>
     <row r="725">
@@ -28289,7 +28289,7 @@
         <v>53.22820771386338</v>
       </c>
       <c r="D725" t="n">
-        <v>44.736533</v>
+        <v>44.540561000000004</v>
       </c>
     </row>
     <row r="726">
@@ -28303,7 +28303,7 @@
         <v>48.74924943759155</v>
       </c>
       <c r="D726" t="n">
-        <v>43.599160999999995</v>
+        <v>42.086965</v>
       </c>
     </row>
     <row r="727">
@@ -28317,7 +28317,7 @@
         <v>55.93254218924332</v>
       </c>
       <c r="D727" t="n">
-        <v>44.088085</v>
+        <v>43.376697</v>
       </c>
     </row>
     <row r="728">
@@ -28345,7 +28345,7 @@
         <v>51.511350090213774</v>
       </c>
       <c r="D729" t="n">
-        <v>45.883964</v>
+        <v>46.028428000000005</v>
       </c>
     </row>
     <row r="730">
@@ -28485,7 +28485,7 @@
         <v>59.10680501981735</v>
       </c>
       <c r="D739" t="n">
-        <v>31.037898</v>
+        <v>30.896570999999998</v>
       </c>
     </row>
     <row r="740">
@@ -28513,7 +28513,7 @@
         <v>58.85802845809937</v>
       </c>
       <c r="D741" t="n">
-        <v>32.984971</v>
+        <v>32.514925</v>
       </c>
     </row>
     <row r="742">
@@ -28527,7 +28527,7 @@
         <v>55.46102437672806</v>
       </c>
       <c r="D742" t="n">
-        <v>34.798242</v>
+        <v>34.284119</v>
       </c>
     </row>
     <row r="743">
@@ -28555,7 +28555,7 @@
         <v>21.48666686184025</v>
       </c>
       <c r="D744" t="n">
-        <v>23.93656</v>
+        <v>23.544696000000002</v>
       </c>
     </row>
     <row r="745">
@@ -28569,7 +28569,7 @@
         <v>29.499427188377382</v>
       </c>
       <c r="D745" t="n">
-        <v>29.063873</v>
+        <v>28.59367</v>
       </c>
     </row>
     <row r="746">
@@ -28583,7 +28583,7 @@
         <v>18.742503235087394</v>
       </c>
       <c r="D746" t="n">
-        <v>23.063196</v>
+        <v>22.689867</v>
       </c>
     </row>
     <row r="747">
@@ -28597,7 +28597,7 @@
         <v>45.6036180315628</v>
       </c>
       <c r="D747" t="n">
-        <v>27.488794</v>
+        <v>26.979265</v>
       </c>
     </row>
     <row r="748">
@@ -28611,7 +28611,7 @@
         <v>32.59399727796364</v>
       </c>
       <c r="D748" t="n">
-        <v>22.284061</v>
+        <v>22.056722</v>
       </c>
     </row>
     <row r="749">
@@ -28625,7 +28625,7 @@
         <v>54.13525802514267</v>
       </c>
       <c r="D749" t="n">
-        <v>27.399607</v>
+        <v>26.842792</v>
       </c>
     </row>
     <row r="750">
@@ -28639,7 +28639,7 @@
         <v>23.005744337373734</v>
       </c>
       <c r="D750" t="n">
-        <v>23.361378000000002</v>
+        <v>22.781368999999998</v>
       </c>
     </row>
     <row r="751">
@@ -28653,7 +28653,7 @@
         <v>24.3154094862957</v>
       </c>
       <c r="D751" t="n">
-        <v>25.649032</v>
+        <v>25.180731</v>
       </c>
     </row>
     <row r="752">
@@ -28667,7 +28667,7 @@
         <v>19.98346409130192</v>
       </c>
       <c r="D752" t="n">
-        <v>23.365359</v>
+        <v>22.93363</v>
       </c>
     </row>
     <row r="753">
@@ -28681,7 +28681,7 @@
         <v>23.042953533262253</v>
       </c>
       <c r="D753" t="n">
-        <v>25.940653</v>
+        <v>25.506088</v>
       </c>
     </row>
     <row r="754">
@@ -28695,7 +28695,7 @@
         <v>22.99280880387497</v>
       </c>
       <c r="D754" t="n">
-        <v>23.457738</v>
+        <v>22.955764</v>
       </c>
     </row>
     <row r="755">
@@ -28709,7 +28709,7 @@
         <v>35.395325737272266</v>
       </c>
       <c r="D755" t="n">
-        <v>25.747226</v>
+        <v>25.118859</v>
       </c>
     </row>
     <row r="756">
@@ -28863,7 +28863,7 @@
         <v>10.494464813132286</v>
       </c>
       <c r="D766" t="n">
-        <v>18.637503</v>
+        <v>19.998801999999998</v>
       </c>
     </row>
     <row r="767">
@@ -28877,7 +28877,7 @@
         <v>10.161340387297153</v>
       </c>
       <c r="D767" t="n">
-        <v>15.141021</v>
+        <v>16.172625</v>
       </c>
     </row>
     <row r="768">
@@ -28919,7 +28919,7 @@
         <v>10.79845316172266</v>
       </c>
       <c r="D770" t="n">
-        <v>19.160392</v>
+        <v>18.794806</v>
       </c>
     </row>
     <row r="771">
@@ -28947,7 +28947,7 @@
         <v>8.911379891275406</v>
       </c>
       <c r="D772" t="n">
-        <v>19.162384</v>
+        <v>18.893107</v>
       </c>
     </row>
     <row r="773">
@@ -29227,7 +29227,7 @@
         <v>4.398175432471276</v>
       </c>
       <c r="D792" t="n">
-        <v>5.191782</v>
+        <v>4.788483</v>
       </c>
     </row>
     <row r="793">
@@ -29269,7 +29269,7 @@
         <v>2.145019345223665</v>
       </c>
       <c r="D795" t="n">
-        <v>0.0</v>
+        <v>1.886433</v>
       </c>
     </row>
     <row r="796">
@@ -29283,7 +29283,7 @@
         <v>2.6314533868557217</v>
       </c>
       <c r="D796" t="n">
-        <v>4.174433</v>
+        <v>3.879348</v>
       </c>
     </row>
     <row r="797">
@@ -29339,7 +29339,7 @@
         <v>3.3467398115479945</v>
       </c>
       <c r="D800" t="n">
-        <v>3.790712</v>
+        <v>3.92338</v>
       </c>
     </row>
     <row r="801">
@@ -29353,7 +29353,7 @@
         <v>3.9893090605022907</v>
       </c>
       <c r="D801" t="n">
-        <v>2.682766</v>
+        <v>2.729556</v>
       </c>
     </row>
     <row r="802">
@@ -29591,7 +29591,7 @@
         <v>27.936656855632783</v>
       </c>
       <c r="D818" t="n">
-        <v>31.745573</v>
+        <v>32.901682</v>
       </c>
     </row>
     <row r="819">
@@ -29605,7 +29605,7 @@
         <v>28.100508712680817</v>
       </c>
       <c r="D819" t="n">
-        <v>32.466861</v>
+        <v>33.05543</v>
       </c>
     </row>
     <row r="820">
@@ -29619,7 +29619,7 @@
         <v>24.03419474974823</v>
       </c>
       <c r="D820" t="n">
-        <v>32.978956</v>
+        <v>33.711841</v>
       </c>
     </row>
     <row r="821">
@@ -29633,7 +29633,7 @@
         <v>22.34024120609665</v>
       </c>
       <c r="D821" t="n">
-        <v>34.603291999999996</v>
+        <v>34.259969</v>
       </c>
     </row>
     <row r="822">
@@ -29703,7 +29703,7 @@
         <v>27.198478437440873</v>
       </c>
       <c r="D826" t="n">
-        <v>30.301878</v>
+        <v>32.28261</v>
       </c>
     </row>
     <row r="827">
@@ -29717,7 +29717,7 @@
         <v>17.51248844162464</v>
       </c>
       <c r="D827" t="n">
-        <v>31.642878</v>
+        <v>32.452056</v>
       </c>
     </row>
     <row r="828">
@@ -29731,7 +29731,7 @@
         <v>28.2701011597538</v>
       </c>
       <c r="D828" t="n">
-        <v>30.634062</v>
+        <v>30.886660000000003</v>
       </c>
     </row>
     <row r="829">
@@ -29759,7 +29759,7 @@
         <v>21.596791087789537</v>
       </c>
       <c r="D830" t="n">
-        <v>32.017756</v>
+        <v>33.090591</v>
       </c>
     </row>
     <row r="831">
@@ -29773,7 +29773,7 @@
         <v>29.068652465194702</v>
       </c>
       <c r="D831" t="n">
-        <v>30.675581</v>
+        <v>31.48494</v>
       </c>
     </row>
     <row r="832">
@@ -29787,7 +29787,7 @@
         <v>19.541567140514374</v>
       </c>
       <c r="D832" t="n">
-        <v>30.658541</v>
+        <v>32.123629</v>
       </c>
     </row>
     <row r="833">
@@ -29801,7 +29801,7 @@
         <v>35.285038591947554</v>
       </c>
       <c r="D833" t="n">
-        <v>31.095309999999998</v>
+        <v>31.83027</v>
       </c>
     </row>
   </sheetData>

--- a/2_compare pred TRL with manual/compare_pred_n_manul.xlsx
+++ b/2_compare pred TRL with manual/compare_pred_n_manul.xlsx
@@ -9755,7 +9755,7 @@
         <v>14.0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>2.006142</v>
       </c>
     </row>
     <row r="47">
@@ -11009,7 +11009,7 @@
         <v>4.0</v>
       </c>
       <c r="C160" t="n">
-        <v>24.970882</v>
+        <v>26.26727</v>
       </c>
     </row>
     <row r="161">
@@ -11691,7 +11691,7 @@
         <v>4.0</v>
       </c>
       <c r="C222" t="n">
-        <v>29.043746</v>
+        <v>30.170544</v>
       </c>
     </row>
     <row r="223">
@@ -12373,7 +12373,7 @@
         <v>4.0</v>
       </c>
       <c r="C284" t="n">
-        <v>34.037048</v>
+        <v>35.330968</v>
       </c>
     </row>
     <row r="285">
@@ -13055,7 +13055,7 @@
         <v>4.0</v>
       </c>
       <c r="C346" t="n">
-        <v>32.905027</v>
+        <v>33.37308</v>
       </c>
     </row>
     <row r="347">
@@ -13396,7 +13396,7 @@
         <v>4.0</v>
       </c>
       <c r="C377" t="n">
-        <v>31.498079</v>
+        <v>32.163818</v>
       </c>
     </row>
     <row r="378">
@@ -15783,7 +15783,7 @@
         <v>4.0</v>
       </c>
       <c r="C594" t="n">
-        <v>28.938999</v>
+        <v>29.558238</v>
       </c>
     </row>
     <row r="595">
@@ -16465,7 +16465,7 @@
         <v>4.0</v>
       </c>
       <c r="C656" t="n">
-        <v>27.982054</v>
+        <v>29.296803</v>
       </c>
     </row>
     <row r="657">
@@ -17147,7 +17147,7 @@
         <v>4.0</v>
       </c>
       <c r="C718" t="n">
-        <v>28.183870000000002</v>
+        <v>29.500549</v>
       </c>
     </row>
     <row r="719">
@@ -17829,7 +17829,7 @@
         <v>4.0</v>
       </c>
       <c r="C780" t="n">
-        <v>28.013869</v>
+        <v>29.206567999999997</v>
       </c>
     </row>
     <row r="781">
@@ -19329,7 +19329,7 @@
         <v>21.705855675524713</v>
       </c>
       <c r="D85" t="n">
-        <v>24.970882</v>
+        <v>26.26727</v>
       </c>
     </row>
     <row r="86">
@@ -19357,7 +19357,7 @@
         <v>20.829401093130112</v>
       </c>
       <c r="D87" t="n">
-        <v>29.043746</v>
+        <v>30.170544</v>
       </c>
     </row>
     <row r="88">
@@ -19385,7 +19385,7 @@
         <v>21.297849928467752</v>
       </c>
       <c r="D89" t="n">
-        <v>34.037048</v>
+        <v>35.330968</v>
       </c>
     </row>
     <row r="90">
@@ -19413,7 +19413,7 @@
         <v>27.91726282721901</v>
       </c>
       <c r="D91" t="n">
-        <v>32.905027</v>
+        <v>33.37308</v>
       </c>
     </row>
     <row r="92">
@@ -19427,7 +19427,7 @@
         <v>35.98709129432488</v>
       </c>
       <c r="D92" t="n">
-        <v>31.498079</v>
+        <v>32.163818</v>
       </c>
     </row>
     <row r="93">
@@ -19525,7 +19525,7 @@
         <v>15.576979770684243</v>
       </c>
       <c r="D99" t="n">
-        <v>28.938999</v>
+        <v>29.558238</v>
       </c>
     </row>
     <row r="100">
@@ -19553,7 +19553,7 @@
         <v>12.098698789195062</v>
       </c>
       <c r="D101" t="n">
-        <v>27.982054</v>
+        <v>29.296803</v>
       </c>
     </row>
     <row r="102">
@@ -19581,7 +19581,7 @@
         <v>14.489679700993538</v>
       </c>
       <c r="D103" t="n">
-        <v>28.183870000000002</v>
+        <v>29.500549</v>
       </c>
     </row>
     <row r="104">
@@ -19609,7 +19609,7 @@
         <v>15.129605814877511</v>
       </c>
       <c r="D105" t="n">
-        <v>28.013869</v>
+        <v>29.206567999999997</v>
       </c>
     </row>
     <row r="106">
@@ -22913,7 +22913,7 @@
         <v>2.9878234604444507</v>
       </c>
       <c r="D341" t="n">
-        <v>0.0</v>
+        <v>2.006142</v>
       </c>
     </row>
     <row r="342">
